--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,44 +3,49 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9DE172D7-6951-44F6-8B1E-5CBAA6E8B93C}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095F182-DCFF-461D-94F7-EF32934BDD98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
-    <sheet name="HistoryNCERT" sheetId="1" r:id="rId2"/>
-    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId3"/>
-    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId4"/>
-    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId5"/>
-    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId6"/>
-    <sheet name="Art- Class11" sheetId="6" r:id="rId7"/>
-    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId8"/>
-    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId9"/>
-    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId10"/>
-    <sheet name="Eng" sheetId="10" r:id="rId11"/>
-    <sheet name="Geo- PMF" sheetId="11" r:id="rId12"/>
-    <sheet name="Geo - Atlas" sheetId="12" r:id="rId13"/>
-    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId14"/>
-    <sheet name="Polity- laxmi" sheetId="14" r:id="rId15"/>
-    <sheet name="Polity- ARC report" sheetId="15" r:id="rId16"/>
-    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId17"/>
-    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId18"/>
-    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId19"/>
-    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId20"/>
-    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId21"/>
-    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId22"/>
-    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId23"/>
-    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId24"/>
-    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId25"/>
-    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId26"/>
-    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId27"/>
-    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId28"/>
-    <sheet name="Disaster- ARC" sheetId="28" r:id="rId29"/>
-    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId30"/>
-    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId31"/>
-    <sheet name="Ethics -Arc" sheetId="31" r:id="rId32"/>
-    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId33"/>
+    <sheet name="Daily Hindu" sheetId="35" r:id="rId2"/>
+    <sheet name="Quora" sheetId="34" r:id="rId3"/>
+    <sheet name="History Vedic" sheetId="38" r:id="rId4"/>
+    <sheet name="Kurukshetra" sheetId="37" r:id="rId5"/>
+    <sheet name="Yojana" sheetId="36" r:id="rId6"/>
+    <sheet name="HistoryNCERT" sheetId="1" r:id="rId7"/>
+    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId8"/>
+    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId9"/>
+    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId10"/>
+    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId11"/>
+    <sheet name="Art- Class11" sheetId="6" r:id="rId12"/>
+    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId13"/>
+    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId14"/>
+    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId15"/>
+    <sheet name="Eng" sheetId="10" r:id="rId16"/>
+    <sheet name="Geo- PMF" sheetId="11" r:id="rId17"/>
+    <sheet name="Geo - Atlas" sheetId="12" r:id="rId18"/>
+    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId19"/>
+    <sheet name="Polity- laxmi" sheetId="14" r:id="rId20"/>
+    <sheet name="Polity- ARC report" sheetId="15" r:id="rId21"/>
+    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId22"/>
+    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId23"/>
+    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId24"/>
+    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId25"/>
+    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId26"/>
+    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId27"/>
+    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId28"/>
+    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId29"/>
+    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId30"/>
+    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId31"/>
+    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId32"/>
+    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId33"/>
+    <sheet name="Disaster- ARC" sheetId="28" r:id="rId34"/>
+    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId35"/>
+    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId36"/>
+    <sheet name="Ethics -Arc" sheetId="31" r:id="rId37"/>
+    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId38"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -52,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="59" uniqueCount="11">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
   <si>
     <t>Date</t>
   </si>
@@ -84,14 +89,167 @@
     <t xml:space="preserve">Credo , creed, credence, disingenuous, indefatigable, credulous, gullible, shrewd, inventive, ingenuous, expedient, conceal, perspicacity, acumen, perspicuous, prospect, pungent, specious. </t>
   </si>
   <si>
-    <t>Link to the pages</t>
+    <t>Economy-Mrunal</t>
+  </si>
+  <si>
+    <t>Home</t>
+  </si>
+  <si>
+    <t>Subject</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=I0wnYAic2zg&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=6</t>
+  </si>
+  <si>
+    <t>Daily Hindu</t>
+  </si>
+  <si>
+    <t>Air Gapping- cyber attacks, CERT-In, National critical infra protection center, Defence Cyber Agency. CoastDEM. Competition commision of India, Uniform civil code</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HQttscpAjKw</t>
+  </si>
+  <si>
+    <t>Quora</t>
+  </si>
+  <si>
+    <t>History NCERT</t>
+  </si>
+  <si>
+    <t>History Spectrum</t>
+  </si>
+  <si>
+    <t>Hist- PostIndependence</t>
+  </si>
+  <si>
+    <t>World Hist</t>
+  </si>
+  <si>
+    <t>Art and Culture</t>
+  </si>
+  <si>
+    <t>Art class 11</t>
+  </si>
+  <si>
+    <t>Geo Ncert</t>
+  </si>
+  <si>
+    <t>Geo GC leong</t>
+  </si>
+  <si>
+    <t>Geo Mrunal</t>
+  </si>
+  <si>
+    <t>English</t>
+  </si>
+  <si>
+    <t>Geo PMF</t>
+  </si>
+  <si>
+    <t>Geo - Atlas</t>
+  </si>
+  <si>
+    <t>Polity PIB</t>
+  </si>
+  <si>
+    <t>Polity Laxmi</t>
+  </si>
+  <si>
+    <t>polity arc</t>
+  </si>
+  <si>
+    <t>polity Vision IAS</t>
+  </si>
+  <si>
+    <t>Goverenance- ARC report</t>
+  </si>
+  <si>
+    <t>Governance- Vision IAS</t>
+  </si>
+  <si>
+    <t>Social justice - Niti Ayog Acti</t>
+  </si>
+  <si>
+    <t>Budget and Economic survey</t>
+  </si>
+  <si>
+    <t>Inter Relations - Vision IAS'</t>
+  </si>
+  <si>
+    <t>Inter-relations - MEA website'</t>
+  </si>
+  <si>
+    <t>Economy - NCERT 9 to 12'</t>
+  </si>
+  <si>
+    <t>Economy - Ramesh Singh'</t>
+  </si>
+  <si>
+    <t>Environment - Shankar IAS'</t>
+  </si>
+  <si>
+    <t>Internal Security - Ashok kumar'</t>
+  </si>
+  <si>
+    <t>Disaster- ARC'</t>
+  </si>
+  <si>
+    <t>Disaster- NDMA'</t>
+  </si>
+  <si>
+    <t>Sci and Tech - Vision IAS'</t>
+  </si>
+  <si>
+    <t>Ethics -Arc'</t>
+  </si>
+  <si>
+    <t>Ethics - Lexicon'</t>
+  </si>
+  <si>
+    <t>Yojana</t>
+  </si>
+  <si>
+    <t>Kurukshetra</t>
+  </si>
+  <si>
+    <t>History - Vedic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dSc2SrY2ufE&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=12</t>
+  </si>
+  <si>
+    <t>Geophysical phenomenon- volcanism, Distribution of volcanos, Hot spot volcanos Basaltic vs andesite volcano, Intrusive landforms - batholith, dyke, sill, lacolith, phocolith, lopolith. Extrusive landforms - lava plateus, cones - Shield, cinder, composite. Parasite cones, fumoroles, crater, caldera, lavaplugs, geysers, hot springs. Geo-thermal energy</t>
+  </si>
+  <si>
+    <t>youtube.com/watch?v=WUCrFMD5j2w&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=35</t>
+  </si>
+  <si>
+    <t>British expansion policy - Conquest - Battle of Plassey, Buxsar, Mysore wars(4), Marathas, Sikhs, French. Subsiadary alliance - Nizam, Awadh Tanjore, Jodhpur, Doctrine of Lapse - Jhansi, Satara, Sambalpur, Udaypur. Misc- Mal Administration - Awadh , Dual government etc.</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AKHrn3pFRCg&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=36</t>
+  </si>
+  <si>
+    <t>Revolt of 1857: Immediate cause - Nana pension, Awadh &amp; jhansi annexed, Military low ranks and salaries, new rifles. Mangal Pandey 34th native infantry at Barrakpur, Sepoy mutany at Meerut. Social Causes: Raja Ram Mohan Roy - Brahmo Samaj, Atmiya Sabha, Sati, Samvad Kaumudi. Dayanand Saraswati - Arya Samaj, "Go back to the Vedas" Ved Bhasha, Ved bhasha Bhumika, Satyarth Prakash. Swami Vivekanand - Ram krishn mission, Udhbodhan and prabhudya</t>
+  </si>
+  <si>
+    <t>MEP visit to j&amp;k political blunder? Free trade over fair trade - Paul krugman and Milton friedman</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VCp-GHHgAss</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Fundamental rights:  Equality, freedom, protection exploitation, religion, culture and education, constitutional remedies. </t>
+  </si>
+  <si>
+    <t>Aquatic Ecosystem: Aquatic organisms- Neuston, Periphyton, Plankton, Nekton, Benthos. Factors limiting productivity of aquativ habitat- sunlight, Dissolved oxygen, Transperancy, Temperature. Eutrophication and it's effects and mitigation, Algal blooms. Wetland ecosystem, National wetland conservation programme, Ramsar convention, Montreux record. Eusatries. Mangroves. Coral reefs, coral bleeching. Coastal regulation zone and Island protection zone. National coastal zone management authority, State coastal zone management authority.</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="3" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -113,20 +271,71 @@
       <name val="Arial"/>
       <family val="2"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="1">
+  <borders count="4">
     <border>
       <left/>
       <right/>
       <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color theme="4"/>
+      </left>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
+      <bottom/>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color theme="4"/>
+      </right>
+      <top style="thin">
+        <color theme="4"/>
+      </top>
       <bottom/>
       <diagonal/>
     </border>
@@ -135,7 +344,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="19">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -148,12 +357,45 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="15">
+  <dxfs count="19">
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
+    <dxf>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+    </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -213,12 +455,72 @@
 </file>
 
 <file path=xl/tables/table1.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B2BAE34C-77C1-4262-B71A-C1297169CDE9}" name="Table112" displayName="Table112" ref="A1:F453" totalsRowShown="0">
+  <autoFilter ref="A1:F453" xr:uid="{0308A886-9249-4456-9015-FBC3CFDDA2B7}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{CC3A96BC-813C-4EA8-8F26-40FAAA4B1712}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{6CD284B6-66E6-44B9-A409-9E175D2FC82F}" name="Topic" dataDxfId="18"/>
+    <tableColumn id="6" xr3:uid="{3163F8E3-2FC8-49BB-8D3E-2879027D97F8}" name="Link" dataDxfId="17"/>
+    <tableColumn id="3" xr3:uid="{B690BDFD-B0E6-425E-9E1C-AABB8C36C09E}" name="Revision 1 date"/>
+    <tableColumn id="4" xr3:uid="{E373534B-5943-4FD6-870D-F772AE1C58FC}" name="Revision 2"/>
+    <tableColumn id="5" xr3:uid="{80CC353F-F109-4505-B33A-D32FBF238775}" name="Revision 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4D72BF4B-5688-4A0B-86A6-71381EE7C8F4}" name="Home"/>
+    <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{7FFD77F5-F30C-4E64-ABCB-C6AFA7A6A0AB}" name="Links" dataDxfId="4"/>
+    <tableColumn id="3" xr3:uid="{BE161DE1-B301-461E-A0E4-1342413876ED}" name="Revision 1 date"/>
+    <tableColumn id="4" xr3:uid="{B752DB69-437A-49C2-A027-295E0207B79B}" name="Revision 2"/>
+    <tableColumn id="5" xr3:uid="{7F042699-C4C5-499B-8177-B353C6235FD8}" name="Revision 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{63253F8D-73FD-4363-8179-10D8A673D8B2}" name="Table11110" displayName="Table11110" ref="A1:F14" totalsRowShown="0">
+  <autoFilter ref="A1:F14" xr:uid="{EC922FB9-6E04-4D95-9C6B-E911C0430319}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="Date"/>
+    <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="2"/>
+    <tableColumn id="3" xr3:uid="{7971D3C2-41C2-43FF-B1D2-094251D1D3BD}" name="Revision 1 date"/>
+    <tableColumn id="4" xr3:uid="{9D930CFB-099F-4F42-8D99-FA6E2CA034B1}" name="Revision 2"/>
+    <tableColumn id="5" xr3:uid="{B3002CD5-DB8D-41CA-B214-A885713735DA}" name="Revision 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table12.xml><?xml version="1.0" encoding="utf-8"?>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="13" xr:uid="{40036639-2637-4C6D-B061-7B5EEAA93B18}" name="Table114" displayName="Table114" ref="A1:F453" totalsRowShown="0">
+  <autoFilter ref="A1:F453" xr:uid="{5DE69645-29C0-42D7-9D34-50EA8BEE42CE}"/>
+  <tableColumns count="6">
+    <tableColumn id="1" xr3:uid="{4F61A443-28B4-4295-9B35-62126E644817}" name="Home"/>
+    <tableColumn id="2" xr3:uid="{BB88B54B-20C2-488A-8996-DB489BC908F5}" name="Topic" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D4F7BA35-15AD-4EF3-8BC8-C8175974438E}" name="Link" dataDxfId="0"/>
+    <tableColumn id="3" xr3:uid="{B2716FC7-6FC4-49CA-AFEF-B08223D99A89}" name="Revision 1 date"/>
+    <tableColumn id="4" xr3:uid="{C262B32F-1BEF-4A05-812E-8F59F9FE68EF}" name="Revision 2"/>
+    <tableColumn id="5" xr3:uid="{603D8DBA-7A2F-4B7C-A2D1-A68D3BC43E9D}" name="Revision 3"/>
+  </tableColumns>
+  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
+</table>
+</file>
+
+<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9087D908-A10B-4E60-AD38-F6A08012E9FB}" name="Table1" displayName="Table1" ref="A1:F453" totalsRowShown="0">
   <autoFilter ref="A1:F453" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4601D0EA-624B-4B5C-AC2A-2EEF46A5C460}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="16"/>
+    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{29CCEBD6-20E9-4B31-998D-5D304C0F996E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{20C313ED-C53A-4DB3-8845-8257BFB8EA42}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F814DE54-FA69-431E-9D4C-F00F685B123B}" name="Revision 3"/>
@@ -227,28 +529,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{63253F8D-73FD-4363-8179-10D8A673D8B2}" name="Table11110" displayName="Table11110" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{EC922FB9-6E04-4D95-9C6B-E911C0430319}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="0"/>
-    <tableColumn id="3" xr3:uid="{7971D3C2-41C2-43FF-B1D2-094251D1D3BD}" name="Revision 1 date"/>
-    <tableColumn id="4" xr3:uid="{9D930CFB-099F-4F42-8D99-FA6E2CA034B1}" name="Revision 2"/>
-    <tableColumn id="5" xr3:uid="{B3002CD5-DB8D-41CA-B214-A885713735DA}" name="Revision 3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44B23C92-BE49-41F7-94A6-3025F030922A}" name="Table13" displayName="Table13" ref="A1:F14" totalsRowShown="0">
   <autoFilter ref="A1:F14" xr:uid="{BC9C2C47-DCC1-4D84-8B2B-E6177ED79464}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{262B836A-3EE1-46B2-887C-BC31972B2F4A}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="14"/>
+    <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{734B2052-8E90-4356-8ED4-420360436E3E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{C14AF66D-D87E-4A80-89A5-5362494F0276}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{0CACE4E9-8EBB-4CCD-B216-9EE878785917}" name="Revision 3"/>
@@ -257,13 +544,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="4" xr:uid="{4462D794-0C0A-4D6F-BAEF-DF94282AD184}" name="Table15" displayName="Table15" ref="A1:F14" totalsRowShown="0">
   <autoFilter ref="A1:F14" xr:uid="{213D4D0F-F86E-44E4-BD87-98EF9D3D8787}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1F6E0EE7-758A-4021-BF3F-E08A7E603FF6}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="10"/>
-    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="9"/>
+    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="12"/>
+    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="11"/>
     <tableColumn id="3" xr3:uid="{463AD745-F6CD-40F5-8A61-78B956F741D9}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{4D9E87EA-88D8-46BD-8AB9-25D847E49C60}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{8F75F0B2-4EEE-4421-BF2C-831216466DDA}" name="Revision 3"/>
@@ -272,12 +559,12 @@
 </table>
 </file>
 
-<file path=xl/tables/table4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="3" xr:uid="{BCFFC9C5-CD42-45FE-B804-8C39167B1D36}" name="Table14" displayName="Table14" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{BCEDDA79-7C2A-4819-A1F5-02EACD137C01}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F5ED958F-8E73-4288-93BA-BC1212094472}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{88148940-2066-4016-AAD3-68E44286A0F2}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{D0A4A4CC-61E7-4D6D-9BB3-4A328695817F}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F4BFAFF6-B3DA-45FA-BF26-D5E8B5D81435}" name="Revision 3"/>
@@ -286,13 +573,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2E17EE99-DC8E-4915-81AA-8A905D81C102}" name="Table16" displayName="Table16" ref="A1:F14" totalsRowShown="0">
   <autoFilter ref="A1:F14" xr:uid="{EB794121-1F54-449C-A5CC-DB271346CB80}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{EE435F07-0195-4C3D-BCB5-3A901EFB042E}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic" dataDxfId="7"/>
-    <tableColumn id="6" xr3:uid="{E4DF8B2D-3A28-4C98-8990-91F29FCCE70B}" name="Link ?" dataDxfId="6"/>
+    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic" dataDxfId="9"/>
+    <tableColumn id="6" xr3:uid="{E4DF8B2D-3A28-4C98-8990-91F29FCCE70B}" name="Link ?" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{B9F6ACE1-4779-478D-B208-35095927818E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{0B73A869-3A63-4110-BBD3-C9F44AF0E310}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{E95DCAD6-56AA-4C6B-B9BF-BB3446C0103B}" name="Revision 3"/>
@@ -301,13 +588,13 @@
 </table>
 </file>
 
-<file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="6" xr:uid="{1F4B9AFE-9ADF-4E99-BFF1-E1EB2F7A55D0}" name="Table17" displayName="Table17" ref="A1:F14" totalsRowShown="0">
   <autoFilter ref="A1:F14" xr:uid="{8F46A23B-171E-462B-99D5-0BB947B5C8F0}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{59F25E5E-EEC4-472A-83D6-A443A5179B99}" name="Date"/>
     <tableColumn id="2" xr3:uid="{E79EC6E2-409B-4C44-BFB6-91CDB96716AB}" name="Topic"/>
-    <tableColumn id="6" xr3:uid="{9A887AF6-0034-4240-8CA0-08F962C3E0A3}" name="link" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{9A887AF6-0034-4240-8CA0-08F962C3E0A3}" name="link" dataDxfId="7"/>
     <tableColumn id="3" xr3:uid="{0178454D-EAC2-402A-8872-411A49177AB2}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{8716402F-8B65-4BBF-A7C2-8DB25F447ECA}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{B9FEC4D1-EF7C-4B10-9F48-10163264869A}" name="Revision 3"/>
@@ -316,7 +603,7 @@
 </table>
 </file>
 
-<file path=xl/tables/table7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="7" xr:uid="{BAB547E7-9246-484A-B675-9E51157D769F}" name="Table18" displayName="Table18" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{0858FD77-37F6-4174-B620-D21E16E43557}"/>
   <tableColumns count="5">
@@ -330,30 +617,15 @@
 </table>
 </file>
 
-<file path=xl/tables/table8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="8" xr:uid="{42BAAA0D-3C78-45BD-9033-5D5A454120E8}" name="Table19" displayName="Table19" ref="A1:E14" totalsRowShown="0">
   <autoFilter ref="A1:E14" xr:uid="{C3C28544-E79B-4A55-8FA4-B83277A64FA0}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{C05A5F49-46E5-4338-BB35-92DC223B2D3E}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{97CF3719-CF2F-4C45-AD28-0AEE02EB05C2}" name="Topic" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{97CF3719-CF2F-4C45-AD28-0AEE02EB05C2}" name="Topic" dataDxfId="6"/>
     <tableColumn id="3" xr3:uid="{7E92E76B-2B77-4404-90CF-6678A0DB5EAF}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{00C156EE-D8D7-4239-BEC1-6B3BD95EBAD2}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{055C306F-EE6F-4ECC-A2E9-8E304D580F31}" name="Revision 3"/>
-  </tableColumns>
-  <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
-</table>
-</file>
-
-<file path=xl/tables/table9.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
-  <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4D72BF4B-5688-4A0B-86A6-71381EE7C8F4}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{7FFD77F5-F30C-4E64-ABCB-C6AFA7A6A0AB}" name="Links" dataDxfId="2"/>
-    <tableColumn id="3" xr3:uid="{BE161DE1-B301-461E-A0E4-1342413876ED}" name="Revision 1 date"/>
-    <tableColumn id="4" xr3:uid="{B752DB69-437A-49C2-A027-295E0207B79B}" name="Revision 2"/>
-    <tableColumn id="5" xr3:uid="{7F042699-C4C5-499B-8177-B353C6235FD8}" name="Revision 3"/>
   </tableColumns>
   <tableStyleInfo name="TableStyleLight9" showFirstColumn="0" showLastColumn="0" showRowStripes="1" showColumnStripes="0"/>
 </table>
@@ -622,97 +894,270 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7EB74-F9F5-4EEB-B0CB-747CDB8CA83C}">
-  <dimension ref="G1"/>
+  <dimension ref="A1:B26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="25.6640625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.21875" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="7:7" x14ac:dyDescent="0.3">
-      <c r="G1" t="s">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
+      <c r="B2" s="15" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="B3" s="15" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>17</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B5" s="17" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="B6" s="15" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B7" s="15" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="B8" s="15" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B9" s="15" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B10" s="15" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B11" s="15" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
+        <v>26</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A21" s="4" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A22" s="4" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A23" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A25" s="15" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>39</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A2" location="'Economy - Mrunal'!A1" display="Economy-Mrunal" xr:uid="{32E1A48F-133E-4C81-A0EB-3EF4B4E3D92C}"/>
+    <hyperlink ref="A3" location="'Daily Hindu'!A1" display="Daily Hindu" xr:uid="{599828D9-B1DF-4BCB-AA51-44006D2FB3BC}"/>
+    <hyperlink ref="A4" location="Quora!A1" display="Quora" xr:uid="{56229CAD-D604-4EC8-A145-3331CBBCE367}"/>
+    <hyperlink ref="A5" location="HistoryNCERT!A1" display="History NCERT" xr:uid="{8E06B001-626A-4585-9C26-B36818A6F679}"/>
+    <hyperlink ref="A6" location="'Hist-Spectrum'!A1" display="History Spectrum" xr:uid="{98828DDC-BDD1-439F-936D-DE7D348841B7}"/>
+    <hyperlink ref="A7" location="'PostIndependence-Nitin Sangwan'!A1" display="Hist- PostIndependence" xr:uid="{79708E52-1D83-4B7C-9E9F-383762CF8D23}"/>
+    <hyperlink ref="A8" location="'WorldHist- VisianIAS'!A1" display="World Hist" xr:uid="{3065E6B7-EE71-46D8-B3C2-9A685DD3C555}"/>
+    <hyperlink ref="A9" location="'Art-Cult - Nitin Singhania'!A1" display="Art and Culture" xr:uid="{BC862BD3-F3D7-43F8-A1EB-89870FB393BA}"/>
+    <hyperlink ref="A10" location="'Art- Class11'!A1" display="Art class 11" xr:uid="{87AA3AAC-5594-4F55-BBFA-D164CB7872F2}"/>
+    <hyperlink ref="A11" location="'Geo NCERT11&amp;12'!A1" display="Geo Ncert" xr:uid="{BD167E0D-DEC1-47C4-A870-C15AD0C25951}"/>
+    <hyperlink ref="A12" location="'Geo - GC Leong'!A1" display="Geo GC leong" xr:uid="{241E6AD3-B7DE-4DDD-8B43-DC92391161AC}"/>
+    <hyperlink ref="A13" location="'Geo- Mrunal'!A1" display="Geo Mrunal" xr:uid="{59ED8BC3-7A70-4BAD-B16F-591332E56758}"/>
+    <hyperlink ref="A14" location="Eng!A1" display="English" xr:uid="{2C9DF933-878C-41F9-8F84-37828DDD422B}"/>
+    <hyperlink ref="A15" location="'Geo- PMF'!A1" display="Geo PMF" xr:uid="{E8E746CE-969F-4389-A8FA-11B54B06B460}"/>
+    <hyperlink ref="A16" location="'Geo - Atlas'!A1" display="'Geo - Atlas'!A1" xr:uid="{26CD9FC2-83FF-4E0E-971A-FC30C7F83A32}"/>
+    <hyperlink ref="A17" location="'Polity- PIB and PRS'!A1" display="Polity PIB" xr:uid="{722AC251-C6A8-4874-9F16-2C0F3B8D3804}"/>
+    <hyperlink ref="A18" location="'Polity- laxmi'!A1" display="Polity Laxmi" xr:uid="{B19F3276-ED18-4A4B-BF4A-92ACE9478D01}"/>
+    <hyperlink ref="A19" location="'Polity- ARC report'!A1" display="polity arc" xr:uid="{19594110-9DF7-4467-80BD-F2148A639913}"/>
+    <hyperlink ref="A20" location="'Polity - Vision Ias'!A1" display="polity Vision IAS" xr:uid="{B9F2CA11-FFFD-4A97-A485-43DB32683A0D}"/>
+    <hyperlink ref="A21" location="'Goverenance- ARC report'!A1" display="Goverenance- ARC report" xr:uid="{E60EB84C-25B8-4D93-9588-E6CC130DABB1}"/>
+    <hyperlink ref="A22" location="'Governance- Vision IAS'!A1" display="Governance- Vision IAS" xr:uid="{ED03A0B6-3F12-434E-9F05-5AD81B47F6E4}"/>
+    <hyperlink ref="A23" location="'Social justice - Niti Ayog Acti'!A1" display="Social justice - Niti Ayog Acti" xr:uid="{D96A216C-A0D3-49C5-98AE-F37926CC9D02}"/>
+    <hyperlink ref="A24" location="'Budget and Economic survey'!A1" display="'Budget and Economic survey'!A1" xr:uid="{EB1B0A0B-858C-46E2-A87E-2F481718EC3E}"/>
+    <hyperlink ref="A25" location="'Inter Relations - Vision IAS'!A1" display="'Inter Relations - Vision IAS'" xr:uid="{6BA0AADB-C178-4939-A51E-FCDD07D3F137}"/>
+    <hyperlink ref="A26" location="'Inter-relations - MEA website'!A1" display="'Inter-relations - MEA website'!A1" xr:uid="{61867742-3170-4D7A-A9E5-B591033FF1D8}"/>
+    <hyperlink ref="B2" location="'Economy - NCERT 9 to 12'!A1" display="'Economy - NCERT 9 to 12'" xr:uid="{6C6FD756-D509-4E62-990B-8DE373D62B57}"/>
+    <hyperlink ref="B3" location="'Economy - Ramesh Singh'!A1" display="'Economy - Ramesh Singh'" xr:uid="{CEB3CFDE-71E0-4C36-86C3-785D3F23B3ED}"/>
+    <hyperlink ref="B5" location="'Environment - Shankar IAS'!A1" display="'Environment - Shankar IAS'" xr:uid="{FF327105-25ED-4476-9EE7-209774E0FAFA}"/>
+    <hyperlink ref="B6" location="'Internal Security - Ashok kumar'!A1" display="'Internal Security - Ashok kumar'" xr:uid="{C1D78D91-8871-4428-9336-4E57CF5EF704}"/>
+    <hyperlink ref="B7" location="'Disaster- ARC'!A1" display="'Disaster- ARC'" xr:uid="{23CD294C-46D2-47A9-B9EA-AE64FFDEAF65}"/>
+    <hyperlink ref="B8" location="'Disaster- NDMA'!A1" display="'Disaster- NDMA'" xr:uid="{E2C16FCF-15B3-4DF7-951A-8271F0F370CC}"/>
+    <hyperlink ref="B9" location="'Sci and Tech - Vision IAS'!A1" display="'Sci and Tech - Vision IAS'" xr:uid="{7D38CED8-8125-488E-A2C3-E41952A3E87E}"/>
+    <hyperlink ref="B10" location="'Ethics -Arc'!A1" display="'Ethics -Arc'" xr:uid="{FA750472-7322-44FE-9E8A-6BA13097C294}"/>
+    <hyperlink ref="B11" location="'Ethics - Lexicon'!A1" display="'Ethics - Lexicon'" xr:uid="{F8310759-F41F-431E-ABBF-318A884AB5DF}"/>
+    <hyperlink ref="B12" location="Yojana!A1" display="Yojana" xr:uid="{44D47332-9213-44A4-9682-50767ECCFB1C}"/>
+    <hyperlink ref="B13" location="Kurukshetra!A1" display="Kurukshetra" xr:uid="{03570F46-8CB1-4137-B13F-704A293B491F}"/>
+    <hyperlink ref="B4" location="'History Vedic'!A1" display="History - Vedic" xr:uid="{DCFC1395-58A9-4F9C-A3F8-3941D42053D6}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F12"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B18" sqref="A1:XFD1048576"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="70.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="2" customWidth="1"/>
+    <col min="2" max="2" width="70.77734375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>5</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" s="1"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -723,6 +1168,310 @@
 </file>
 
 <file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
+  <dimension ref="A1:F6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="74" style="2" customWidth="1"/>
+    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="C2" s="4"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="4"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B093A3-08AD-4C6E-A23B-42579CAFD690}">
+  <dimension ref="A1:F4"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="77.44140625" customWidth="1"/>
+    <col min="3" max="3" width="52.33203125" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8307D7-CFCD-4379-9421-921A35A6E178}">
+  <dimension ref="A1:E1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E27" sqref="E27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="50.88671875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
+  <dimension ref="A1:E13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E29" sqref="E29"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="67.77734375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
+  <dimension ref="A1:F12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="70.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="39.109375" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{320BE95B-808B-4075-8A26-304880FA39FF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3852C280-F12C-4195-9930-8D54C2677C20}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83403EBF-35A0-46D6-914B-8481A514EC72}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -746,7 +1495,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC83EB28-B904-4728-8EE6-C29E47C604CC}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -828,13 +1577,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9311E76-2DC7-40B3-986C-2633EA95A7E8}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I27" sqref="I27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -842,7 +1589,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B27BEC-CCAE-4770-A888-58036A4D3E39}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -854,19 +1601,276 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1"/>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64904A22-8EE5-497D-9E05-7789FA782D5C}">
+  <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="62.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43769</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>15</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>43770</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>59</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10"/>
+      <c r="B4" s="11"/>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="10"/>
+      <c r="B5" s="11"/>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10"/>
+      <c r="B6" s="11"/>
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="10"/>
+      <c r="B7" s="11"/>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="10"/>
+      <c r="B8" s="11"/>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="10"/>
+      <c r="B9" s="11"/>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="10"/>
+      <c r="B10" s="11"/>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="10"/>
+      <c r="B11" s="11"/>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="10"/>
+      <c r="B12" s="11"/>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="10"/>
+      <c r="B13" s="11"/>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10"/>
+      <c r="B14" s="11"/>
+      <c r="C14" s="14"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10"/>
+      <c r="B15" s="11"/>
+      <c r="C15" s="14"/>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11"/>
+      <c r="C16" s="14"/>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11"/>
+      <c r="C17" s="14"/>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="11"/>
+      <c r="C18" s="14"/>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11"/>
+      <c r="C19" s="14"/>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11"/>
+      <c r="C20" s="14"/>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11"/>
+      <c r="C21" s="14"/>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11"/>
+      <c r="C22" s="14"/>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{D5A0FE31-76FF-4E4D-B3D9-5DB26AFD1067}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{25B26B40-BF70-42F8-82ED-325AF6BA5B4B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7DFF821D-794C-4DA3-AE99-99FDA83DAF73}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.5546875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43769</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>60</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{A06AE9D2-9989-46EC-AF3B-1BA012CE96A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6019475-EBF6-4229-92D0-55A2714CB4B1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -878,7 +1882,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259E504-D197-4591-BEBF-8FC89FF6F84A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -890,7 +1894,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA582211-4BB8-4F1C-B635-52AB5DC2DE12}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -904,7 +1908,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38EDEC-6912-45F4-9FBB-08C9E71DEFBF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -918,147 +1922,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B26" sqref="B26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="1" max="1" width="10.109375" customWidth="1"/>
-    <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
-    <col min="4" max="4" width="10.109375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="C15" s="4"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="C16" s="4"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="C17" s="4"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="C18" s="4"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="C19" s="4"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="C20" s="4"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="C21" s="4"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="C22" s="4"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="C23" s="4"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="C24" s="4"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="C25" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374539E4-7CF2-4F3F-9787-D7863CD828AC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1073,7 +1937,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D44057-A20E-416F-ADAE-EB28CDDF41C6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1087,7 +1951,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79CAE7F-8B70-40F9-9409-D3DD3B1AB4C1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1101,7 +1965,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E5530C-6B8D-4CA2-8B89-67D4E09E2843}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1115,7 +1979,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432A11B7-8944-4C91-BE01-35A0863531CC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1129,7 +1993,1877 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6DB33B-2212-47A2-B730-D0EAFF285240}">
+  <dimension ref="A1:F453"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I8" sqref="I8"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+      <c r="C26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+      <c r="C27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+      <c r="C28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+      <c r="C29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+      <c r="C30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+      <c r="C31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+      <c r="C32" s="2"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+      <c r="C33" s="2"/>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+      <c r="C34" s="2"/>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+      <c r="C35" s="2"/>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+      <c r="C36" s="2"/>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+      <c r="C37" s="2"/>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+      <c r="C38" s="2"/>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+      <c r="C39" s="2"/>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+      <c r="C40" s="2"/>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+      <c r="C41" s="2"/>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+      <c r="C42" s="2"/>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+      <c r="C43" s="2"/>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+      <c r="C44" s="2"/>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+      <c r="C45" s="2"/>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+      <c r="C46" s="2"/>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+      <c r="C47" s="2"/>
+    </row>
+    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+      <c r="C48" s="2"/>
+    </row>
+    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+      <c r="C49" s="2"/>
+    </row>
+    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+      <c r="C50" s="2"/>
+    </row>
+    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+      <c r="C51" s="2"/>
+    </row>
+    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+      <c r="C52" s="2"/>
+    </row>
+    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+      <c r="C53" s="2"/>
+    </row>
+    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+      <c r="C54" s="2"/>
+    </row>
+    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+      <c r="C55" s="2"/>
+    </row>
+    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+      <c r="C56" s="2"/>
+    </row>
+    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+      <c r="C57" s="2"/>
+    </row>
+    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+      <c r="C58" s="2"/>
+    </row>
+    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+      <c r="C59" s="2"/>
+    </row>
+    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+      <c r="C60" s="2"/>
+    </row>
+    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+      <c r="C61" s="2"/>
+    </row>
+    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+      <c r="C62" s="2"/>
+    </row>
+    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+      <c r="C63" s="2"/>
+    </row>
+    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+      <c r="C64" s="2"/>
+    </row>
+    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+      <c r="C65" s="2"/>
+    </row>
+    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+      <c r="C66" s="2"/>
+    </row>
+    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+      <c r="C67" s="2"/>
+    </row>
+    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+      <c r="C68" s="2"/>
+    </row>
+    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+      <c r="C69" s="2"/>
+    </row>
+    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+      <c r="C70" s="2"/>
+    </row>
+    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+      <c r="C71" s="2"/>
+    </row>
+    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+      <c r="C72" s="2"/>
+    </row>
+    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+      <c r="C73" s="2"/>
+    </row>
+    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+      <c r="C74" s="2"/>
+    </row>
+    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+      <c r="C75" s="2"/>
+    </row>
+    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+      <c r="C76" s="2"/>
+    </row>
+    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+      <c r="C77" s="2"/>
+    </row>
+    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+      <c r="C78" s="2"/>
+    </row>
+    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+      <c r="C79" s="2"/>
+    </row>
+    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+      <c r="C80" s="2"/>
+    </row>
+    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+      <c r="C81" s="2"/>
+    </row>
+    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+      <c r="C82" s="2"/>
+    </row>
+    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+      <c r="C83" s="2"/>
+    </row>
+    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+      <c r="C84" s="2"/>
+    </row>
+    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+      <c r="C85" s="2"/>
+    </row>
+    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+      <c r="C86" s="2"/>
+    </row>
+    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+      <c r="C87" s="2"/>
+    </row>
+    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+      <c r="C88" s="2"/>
+    </row>
+    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B89" s="2"/>
+      <c r="C89" s="2"/>
+    </row>
+    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B90" s="2"/>
+      <c r="C90" s="2"/>
+    </row>
+    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B91" s="2"/>
+      <c r="C91" s="2"/>
+    </row>
+    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B92" s="2"/>
+      <c r="C92" s="2"/>
+    </row>
+    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B93" s="2"/>
+      <c r="C93" s="2"/>
+    </row>
+    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
+      <c r="C94" s="2"/>
+    </row>
+    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+      <c r="C95" s="2"/>
+    </row>
+    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+      <c r="C96" s="2"/>
+    </row>
+    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+      <c r="C97" s="2"/>
+    </row>
+    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B98" s="2"/>
+      <c r="C98" s="2"/>
+    </row>
+    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+      <c r="C99" s="2"/>
+    </row>
+    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+      <c r="C100" s="2"/>
+    </row>
+    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+      <c r="C101" s="2"/>
+    </row>
+    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+      <c r="C102" s="2"/>
+    </row>
+    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B103" s="2"/>
+      <c r="C103" s="2"/>
+    </row>
+    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
+      <c r="C104" s="2"/>
+    </row>
+    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B105" s="2"/>
+      <c r="C105" s="2"/>
+    </row>
+    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+      <c r="C106" s="2"/>
+    </row>
+    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+      <c r="C107" s="2"/>
+    </row>
+    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+      <c r="C108" s="2"/>
+    </row>
+    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+      <c r="C109" s="2"/>
+    </row>
+    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+      <c r="C110" s="2"/>
+    </row>
+    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+      <c r="C111" s="2"/>
+    </row>
+    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+      <c r="C112" s="2"/>
+    </row>
+    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+      <c r="C113" s="2"/>
+    </row>
+    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+      <c r="C114" s="2"/>
+    </row>
+    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+      <c r="C115" s="2"/>
+    </row>
+    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+      <c r="C116" s="2"/>
+    </row>
+    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+      <c r="C117" s="2"/>
+    </row>
+    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+      <c r="C118" s="2"/>
+    </row>
+    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+      <c r="C119" s="2"/>
+    </row>
+    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+      <c r="C120" s="2"/>
+    </row>
+    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+      <c r="C121" s="2"/>
+    </row>
+    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B122" s="2"/>
+      <c r="C122" s="2"/>
+    </row>
+    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+      <c r="C123" s="2"/>
+    </row>
+    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B124" s="2"/>
+      <c r="C124" s="2"/>
+    </row>
+    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B125" s="2"/>
+      <c r="C125" s="2"/>
+    </row>
+    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B126" s="2"/>
+      <c r="C126" s="2"/>
+    </row>
+    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B127" s="2"/>
+      <c r="C127" s="2"/>
+    </row>
+    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B128" s="2"/>
+      <c r="C128" s="2"/>
+    </row>
+    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B129" s="2"/>
+      <c r="C129" s="2"/>
+    </row>
+    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B130" s="2"/>
+      <c r="C130" s="2"/>
+    </row>
+    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B131" s="2"/>
+      <c r="C131" s="2"/>
+    </row>
+    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B132" s="2"/>
+      <c r="C132" s="2"/>
+    </row>
+    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B133" s="2"/>
+      <c r="C133" s="2"/>
+    </row>
+    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B134" s="2"/>
+      <c r="C134" s="2"/>
+    </row>
+    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B135" s="2"/>
+      <c r="C135" s="2"/>
+    </row>
+    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B136" s="2"/>
+      <c r="C136" s="2"/>
+    </row>
+    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B137" s="2"/>
+      <c r="C137" s="2"/>
+    </row>
+    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B138" s="2"/>
+      <c r="C138" s="2"/>
+    </row>
+    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B139" s="2"/>
+      <c r="C139" s="2"/>
+    </row>
+    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B140" s="2"/>
+      <c r="C140" s="2"/>
+    </row>
+    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B141" s="2"/>
+      <c r="C141" s="2"/>
+    </row>
+    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B142" s="2"/>
+      <c r="C142" s="2"/>
+    </row>
+    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B143" s="2"/>
+      <c r="C143" s="2"/>
+    </row>
+    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B144" s="2"/>
+      <c r="C144" s="2"/>
+    </row>
+    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B145" s="2"/>
+      <c r="C145" s="2"/>
+    </row>
+    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B146" s="2"/>
+      <c r="C146" s="2"/>
+    </row>
+    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B147" s="2"/>
+      <c r="C147" s="2"/>
+    </row>
+    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B148" s="2"/>
+      <c r="C148" s="2"/>
+    </row>
+    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B149" s="2"/>
+      <c r="C149" s="2"/>
+    </row>
+    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B150" s="2"/>
+      <c r="C150" s="2"/>
+    </row>
+    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+      <c r="C151" s="2"/>
+    </row>
+    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B152" s="2"/>
+      <c r="C152" s="2"/>
+    </row>
+    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B153" s="2"/>
+      <c r="C153" s="2"/>
+    </row>
+    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B154" s="2"/>
+      <c r="C154" s="2"/>
+    </row>
+    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B155" s="2"/>
+      <c r="C155" s="2"/>
+    </row>
+    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B156" s="2"/>
+      <c r="C156" s="2"/>
+    </row>
+    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B157" s="2"/>
+      <c r="C157" s="2"/>
+    </row>
+    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B158" s="2"/>
+      <c r="C158" s="2"/>
+    </row>
+    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B159" s="2"/>
+      <c r="C159" s="2"/>
+    </row>
+    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B160" s="2"/>
+      <c r="C160" s="2"/>
+    </row>
+    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B161" s="2"/>
+      <c r="C161" s="2"/>
+    </row>
+    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B162" s="2"/>
+      <c r="C162" s="2"/>
+    </row>
+    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B163" s="2"/>
+      <c r="C163" s="2"/>
+    </row>
+    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B164" s="2"/>
+      <c r="C164" s="2"/>
+    </row>
+    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B165" s="2"/>
+      <c r="C165" s="2"/>
+    </row>
+    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B166" s="2"/>
+      <c r="C166" s="2"/>
+    </row>
+    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B167" s="2"/>
+      <c r="C167" s="2"/>
+    </row>
+    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B168" s="2"/>
+      <c r="C168" s="2"/>
+    </row>
+    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B169" s="2"/>
+      <c r="C169" s="2"/>
+    </row>
+    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B170" s="2"/>
+      <c r="C170" s="2"/>
+    </row>
+    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B171" s="2"/>
+      <c r="C171" s="2"/>
+    </row>
+    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B172" s="2"/>
+      <c r="C172" s="2"/>
+    </row>
+    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B173" s="2"/>
+      <c r="C173" s="2"/>
+    </row>
+    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B174" s="2"/>
+      <c r="C174" s="2"/>
+    </row>
+    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B175" s="2"/>
+      <c r="C175" s="2"/>
+    </row>
+    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B176" s="2"/>
+      <c r="C176" s="2"/>
+    </row>
+    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B177" s="2"/>
+      <c r="C177" s="2"/>
+    </row>
+    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B178" s="2"/>
+      <c r="C178" s="2"/>
+    </row>
+    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B179" s="2"/>
+      <c r="C179" s="2"/>
+    </row>
+    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B180" s="2"/>
+      <c r="C180" s="2"/>
+    </row>
+    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B181" s="2"/>
+      <c r="C181" s="2"/>
+    </row>
+    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B182" s="2"/>
+      <c r="C182" s="2"/>
+    </row>
+    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B183" s="2"/>
+      <c r="C183" s="2"/>
+    </row>
+    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B184" s="2"/>
+      <c r="C184" s="2"/>
+    </row>
+    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B185" s="2"/>
+      <c r="C185" s="2"/>
+    </row>
+    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B186" s="2"/>
+      <c r="C186" s="2"/>
+    </row>
+    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B187" s="2"/>
+      <c r="C187" s="2"/>
+    </row>
+    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B188" s="2"/>
+      <c r="C188" s="2"/>
+    </row>
+    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B189" s="2"/>
+      <c r="C189" s="2"/>
+    </row>
+    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B190" s="2"/>
+      <c r="C190" s="2"/>
+    </row>
+    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B191" s="2"/>
+      <c r="C191" s="2"/>
+    </row>
+    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B192" s="2"/>
+      <c r="C192" s="2"/>
+    </row>
+    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B193" s="2"/>
+      <c r="C193" s="2"/>
+    </row>
+    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B194" s="2"/>
+      <c r="C194" s="2"/>
+    </row>
+    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B195" s="2"/>
+      <c r="C195" s="2"/>
+    </row>
+    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B196" s="2"/>
+      <c r="C196" s="2"/>
+    </row>
+    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B197" s="2"/>
+      <c r="C197" s="2"/>
+    </row>
+    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B198" s="2"/>
+      <c r="C198" s="2"/>
+    </row>
+    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B199" s="2"/>
+      <c r="C199" s="2"/>
+    </row>
+    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B200" s="2"/>
+      <c r="C200" s="2"/>
+    </row>
+    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B201" s="2"/>
+      <c r="C201" s="2"/>
+    </row>
+    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B202" s="2"/>
+      <c r="C202" s="2"/>
+    </row>
+    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B203" s="2"/>
+      <c r="C203" s="2"/>
+    </row>
+    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B204" s="2"/>
+      <c r="C204" s="2"/>
+    </row>
+    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B205" s="2"/>
+      <c r="C205" s="2"/>
+    </row>
+    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B206" s="2"/>
+      <c r="C206" s="2"/>
+    </row>
+    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B207" s="2"/>
+      <c r="C207" s="2"/>
+    </row>
+    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B208" s="2"/>
+      <c r="C208" s="2"/>
+    </row>
+    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B209" s="2"/>
+      <c r="C209" s="2"/>
+    </row>
+    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B210" s="2"/>
+      <c r="C210" s="2"/>
+    </row>
+    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B211" s="2"/>
+      <c r="C211" s="2"/>
+    </row>
+    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B212" s="2"/>
+      <c r="C212" s="2"/>
+    </row>
+    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B213" s="2"/>
+      <c r="C213" s="2"/>
+    </row>
+    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B214" s="2"/>
+      <c r="C214" s="2"/>
+    </row>
+    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B215" s="2"/>
+      <c r="C215" s="2"/>
+    </row>
+    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B216" s="2"/>
+      <c r="C216" s="2"/>
+    </row>
+    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B217" s="2"/>
+      <c r="C217" s="2"/>
+    </row>
+    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B218" s="2"/>
+      <c r="C218" s="2"/>
+    </row>
+    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B219" s="2"/>
+      <c r="C219" s="2"/>
+    </row>
+    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B220" s="2"/>
+      <c r="C220" s="2"/>
+    </row>
+    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B221" s="2"/>
+      <c r="C221" s="2"/>
+    </row>
+    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B222" s="2"/>
+      <c r="C222" s="2"/>
+    </row>
+    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B223" s="2"/>
+      <c r="C223" s="2"/>
+    </row>
+    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B224" s="2"/>
+      <c r="C224" s="2"/>
+    </row>
+    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B225" s="2"/>
+      <c r="C225" s="2"/>
+    </row>
+    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B226" s="2"/>
+      <c r="C226" s="2"/>
+    </row>
+    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B227" s="2"/>
+      <c r="C227" s="2"/>
+    </row>
+    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B228" s="2"/>
+      <c r="C228" s="2"/>
+    </row>
+    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B229" s="2"/>
+      <c r="C229" s="2"/>
+    </row>
+    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B230" s="2"/>
+      <c r="C230" s="2"/>
+    </row>
+    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B231" s="2"/>
+      <c r="C231" s="2"/>
+    </row>
+    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B232" s="2"/>
+      <c r="C232" s="2"/>
+    </row>
+    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B233" s="2"/>
+      <c r="C233" s="2"/>
+    </row>
+    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B234" s="2"/>
+      <c r="C234" s="2"/>
+    </row>
+    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B235" s="2"/>
+      <c r="C235" s="2"/>
+    </row>
+    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B236" s="2"/>
+      <c r="C236" s="2"/>
+    </row>
+    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B237" s="2"/>
+      <c r="C237" s="2"/>
+    </row>
+    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B238" s="2"/>
+      <c r="C238" s="2"/>
+    </row>
+    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B239" s="2"/>
+      <c r="C239" s="2"/>
+    </row>
+    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B240" s="2"/>
+      <c r="C240" s="2"/>
+    </row>
+    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B241" s="2"/>
+      <c r="C241" s="2"/>
+    </row>
+    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B242" s="2"/>
+      <c r="C242" s="2"/>
+    </row>
+    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B243" s="2"/>
+      <c r="C243" s="2"/>
+    </row>
+    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B244" s="2"/>
+      <c r="C244" s="2"/>
+    </row>
+    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B245" s="2"/>
+      <c r="C245" s="2"/>
+    </row>
+    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B246" s="2"/>
+      <c r="C246" s="2"/>
+    </row>
+    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B247" s="2"/>
+      <c r="C247" s="2"/>
+    </row>
+    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B248" s="2"/>
+      <c r="C248" s="2"/>
+    </row>
+    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B249" s="2"/>
+      <c r="C249" s="2"/>
+    </row>
+    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B250" s="2"/>
+      <c r="C250" s="2"/>
+    </row>
+    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B251" s="2"/>
+      <c r="C251" s="2"/>
+    </row>
+    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B252" s="2"/>
+      <c r="C252" s="2"/>
+    </row>
+    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B253" s="2"/>
+      <c r="C253" s="2"/>
+    </row>
+    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B254" s="2"/>
+      <c r="C254" s="2"/>
+    </row>
+    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B255" s="2"/>
+      <c r="C255" s="2"/>
+    </row>
+    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B256" s="2"/>
+      <c r="C256" s="2"/>
+    </row>
+    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B257" s="2"/>
+      <c r="C257" s="2"/>
+    </row>
+    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B258" s="2"/>
+      <c r="C258" s="2"/>
+    </row>
+    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B259" s="2"/>
+      <c r="C259" s="2"/>
+    </row>
+    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B260" s="2"/>
+      <c r="C260" s="2"/>
+    </row>
+    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B261" s="2"/>
+      <c r="C261" s="2"/>
+    </row>
+    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B262" s="2"/>
+      <c r="C262" s="2"/>
+    </row>
+    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B263" s="2"/>
+      <c r="C263" s="2"/>
+    </row>
+    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B264" s="2"/>
+      <c r="C264" s="2"/>
+    </row>
+    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B265" s="2"/>
+      <c r="C265" s="2"/>
+    </row>
+    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B266" s="2"/>
+      <c r="C266" s="2"/>
+    </row>
+    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B267" s="2"/>
+      <c r="C267" s="2"/>
+    </row>
+    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B268" s="2"/>
+      <c r="C268" s="2"/>
+    </row>
+    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B269" s="2"/>
+      <c r="C269" s="2"/>
+    </row>
+    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B270" s="2"/>
+      <c r="C270" s="2"/>
+    </row>
+    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B271" s="2"/>
+      <c r="C271" s="2"/>
+    </row>
+    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B272" s="2"/>
+      <c r="C272" s="2"/>
+    </row>
+    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B273" s="2"/>
+      <c r="C273" s="2"/>
+    </row>
+    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B274" s="2"/>
+      <c r="C274" s="2"/>
+    </row>
+    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B275" s="2"/>
+      <c r="C275" s="2"/>
+    </row>
+    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B276" s="2"/>
+      <c r="C276" s="2"/>
+    </row>
+    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B277" s="2"/>
+      <c r="C277" s="2"/>
+    </row>
+    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B278" s="2"/>
+      <c r="C278" s="2"/>
+    </row>
+    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B279" s="2"/>
+      <c r="C279" s="2"/>
+    </row>
+    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B280" s="2"/>
+      <c r="C280" s="2"/>
+    </row>
+    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B281" s="2"/>
+      <c r="C281" s="2"/>
+    </row>
+    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B282" s="2"/>
+      <c r="C282" s="2"/>
+    </row>
+    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B283" s="2"/>
+      <c r="C283" s="2"/>
+    </row>
+    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B284" s="2"/>
+      <c r="C284" s="2"/>
+    </row>
+    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B285" s="2"/>
+      <c r="C285" s="2"/>
+    </row>
+    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B286" s="2"/>
+      <c r="C286" s="2"/>
+    </row>
+    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B287" s="2"/>
+      <c r="C287" s="2"/>
+    </row>
+    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B288" s="2"/>
+      <c r="C288" s="2"/>
+    </row>
+    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B289" s="2"/>
+      <c r="C289" s="2"/>
+    </row>
+    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B290" s="2"/>
+      <c r="C290" s="2"/>
+    </row>
+    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B291" s="2"/>
+      <c r="C291" s="2"/>
+    </row>
+    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B292" s="2"/>
+      <c r="C292" s="2"/>
+    </row>
+    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B293" s="2"/>
+      <c r="C293" s="2"/>
+    </row>
+    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B294" s="2"/>
+      <c r="C294" s="2"/>
+    </row>
+    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B295" s="2"/>
+      <c r="C295" s="2"/>
+    </row>
+    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B296" s="2"/>
+      <c r="C296" s="2"/>
+    </row>
+    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B297" s="2"/>
+      <c r="C297" s="2"/>
+    </row>
+    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B298" s="2"/>
+      <c r="C298" s="2"/>
+    </row>
+    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B299" s="2"/>
+      <c r="C299" s="2"/>
+    </row>
+    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B300" s="2"/>
+      <c r="C300" s="2"/>
+    </row>
+    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B301" s="2"/>
+      <c r="C301" s="2"/>
+    </row>
+    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B302" s="2"/>
+      <c r="C302" s="2"/>
+    </row>
+    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B303" s="2"/>
+      <c r="C303" s="2"/>
+    </row>
+    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B304" s="2"/>
+      <c r="C304" s="2"/>
+    </row>
+    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B305" s="2"/>
+      <c r="C305" s="2"/>
+    </row>
+    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B306" s="2"/>
+      <c r="C306" s="2"/>
+    </row>
+    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B307" s="2"/>
+      <c r="C307" s="2"/>
+    </row>
+    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B308" s="2"/>
+      <c r="C308" s="2"/>
+    </row>
+    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B309" s="2"/>
+      <c r="C309" s="2"/>
+    </row>
+    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B310" s="2"/>
+      <c r="C310" s="2"/>
+    </row>
+    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B311" s="2"/>
+      <c r="C311" s="2"/>
+    </row>
+    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B312" s="2"/>
+      <c r="C312" s="2"/>
+    </row>
+    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B313" s="2"/>
+      <c r="C313" s="2"/>
+    </row>
+    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B314" s="2"/>
+      <c r="C314" s="2"/>
+    </row>
+    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B315" s="2"/>
+      <c r="C315" s="2"/>
+    </row>
+    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B316" s="2"/>
+      <c r="C316" s="2"/>
+    </row>
+    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B317" s="2"/>
+      <c r="C317" s="2"/>
+    </row>
+    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B318" s="2"/>
+      <c r="C318" s="2"/>
+    </row>
+    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B319" s="2"/>
+      <c r="C319" s="2"/>
+    </row>
+    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B320" s="2"/>
+      <c r="C320" s="2"/>
+    </row>
+    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B321" s="2"/>
+      <c r="C321" s="2"/>
+    </row>
+    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B322" s="2"/>
+      <c r="C322" s="2"/>
+    </row>
+    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B323" s="2"/>
+      <c r="C323" s="2"/>
+    </row>
+    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B324" s="2"/>
+      <c r="C324" s="2"/>
+    </row>
+    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B325" s="2"/>
+      <c r="C325" s="2"/>
+    </row>
+    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B326" s="2"/>
+      <c r="C326" s="2"/>
+    </row>
+    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B327" s="2"/>
+      <c r="C327" s="2"/>
+    </row>
+    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B328" s="2"/>
+      <c r="C328" s="2"/>
+    </row>
+    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B329" s="2"/>
+      <c r="C329" s="2"/>
+    </row>
+    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B330" s="2"/>
+      <c r="C330" s="2"/>
+    </row>
+    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B331" s="2"/>
+      <c r="C331" s="2"/>
+    </row>
+    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B332" s="2"/>
+      <c r="C332" s="2"/>
+    </row>
+    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B333" s="2"/>
+      <c r="C333" s="2"/>
+    </row>
+    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B334" s="2"/>
+      <c r="C334" s="2"/>
+    </row>
+    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B335" s="2"/>
+      <c r="C335" s="2"/>
+    </row>
+    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B336" s="2"/>
+      <c r="C336" s="2"/>
+    </row>
+    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B337" s="2"/>
+      <c r="C337" s="2"/>
+    </row>
+    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B338" s="2"/>
+      <c r="C338" s="2"/>
+    </row>
+    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B339" s="2"/>
+      <c r="C339" s="2"/>
+    </row>
+    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B340" s="2"/>
+      <c r="C340" s="2"/>
+    </row>
+    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B341" s="2"/>
+      <c r="C341" s="2"/>
+    </row>
+    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B342" s="2"/>
+      <c r="C342" s="2"/>
+    </row>
+    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B343" s="2"/>
+      <c r="C343" s="2"/>
+    </row>
+    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B344" s="2"/>
+      <c r="C344" s="2"/>
+    </row>
+    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B345" s="2"/>
+      <c r="C345" s="2"/>
+    </row>
+    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B346" s="2"/>
+      <c r="C346" s="2"/>
+    </row>
+    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B347" s="2"/>
+      <c r="C347" s="2"/>
+    </row>
+    <row r="348" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B348" s="2"/>
+      <c r="C348" s="2"/>
+    </row>
+    <row r="349" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B349" s="2"/>
+      <c r="C349" s="2"/>
+    </row>
+    <row r="350" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B350" s="2"/>
+      <c r="C350" s="2"/>
+    </row>
+    <row r="351" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B351" s="2"/>
+      <c r="C351" s="2"/>
+    </row>
+    <row r="352" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B352" s="2"/>
+      <c r="C352" s="2"/>
+    </row>
+    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B353" s="2"/>
+      <c r="C353" s="2"/>
+    </row>
+    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B354" s="2"/>
+      <c r="C354" s="2"/>
+    </row>
+    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B355" s="2"/>
+      <c r="C355" s="2"/>
+    </row>
+    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B356" s="2"/>
+      <c r="C356" s="2"/>
+    </row>
+    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B357" s="2"/>
+      <c r="C357" s="2"/>
+    </row>
+    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B358" s="2"/>
+      <c r="C358" s="2"/>
+    </row>
+    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B359" s="2"/>
+      <c r="C359" s="2"/>
+    </row>
+    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B360" s="2"/>
+      <c r="C360" s="2"/>
+    </row>
+    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B361" s="2"/>
+      <c r="C361" s="2"/>
+    </row>
+    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B362" s="2"/>
+      <c r="C362" s="2"/>
+    </row>
+    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B363" s="2"/>
+      <c r="C363" s="2"/>
+    </row>
+    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B364" s="2"/>
+      <c r="C364" s="2"/>
+    </row>
+    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B365" s="2"/>
+      <c r="C365" s="2"/>
+    </row>
+    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B366" s="2"/>
+      <c r="C366" s="2"/>
+    </row>
+    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B367" s="2"/>
+      <c r="C367" s="2"/>
+    </row>
+    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B368" s="2"/>
+      <c r="C368" s="2"/>
+    </row>
+    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B369" s="2"/>
+      <c r="C369" s="2"/>
+    </row>
+    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B370" s="2"/>
+      <c r="C370" s="2"/>
+    </row>
+    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B371" s="2"/>
+      <c r="C371" s="2"/>
+    </row>
+    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B372" s="2"/>
+      <c r="C372" s="2"/>
+    </row>
+    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B373" s="2"/>
+      <c r="C373" s="2"/>
+    </row>
+    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B374" s="2"/>
+      <c r="C374" s="2"/>
+    </row>
+    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B375" s="2"/>
+      <c r="C375" s="2"/>
+    </row>
+    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B376" s="2"/>
+      <c r="C376" s="2"/>
+    </row>
+    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B377" s="2"/>
+      <c r="C377" s="2"/>
+    </row>
+    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B378" s="2"/>
+      <c r="C378" s="2"/>
+    </row>
+    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B379" s="2"/>
+      <c r="C379" s="2"/>
+    </row>
+    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B380" s="2"/>
+      <c r="C380" s="2"/>
+    </row>
+    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B381" s="2"/>
+      <c r="C381" s="2"/>
+    </row>
+    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B382" s="2"/>
+      <c r="C382" s="2"/>
+    </row>
+    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B383" s="2"/>
+      <c r="C383" s="2"/>
+    </row>
+    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B384" s="2"/>
+      <c r="C384" s="2"/>
+    </row>
+    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B385" s="2"/>
+      <c r="C385" s="2"/>
+    </row>
+    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B386" s="2"/>
+      <c r="C386" s="2"/>
+    </row>
+    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B387" s="2"/>
+      <c r="C387" s="2"/>
+    </row>
+    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B388" s="2"/>
+      <c r="C388" s="2"/>
+    </row>
+    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B389" s="2"/>
+      <c r="C389" s="2"/>
+    </row>
+    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B390" s="2"/>
+      <c r="C390" s="2"/>
+    </row>
+    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B391" s="2"/>
+      <c r="C391" s="2"/>
+    </row>
+    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B392" s="2"/>
+      <c r="C392" s="2"/>
+    </row>
+    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B393" s="2"/>
+      <c r="C393" s="2"/>
+    </row>
+    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B394" s="2"/>
+      <c r="C394" s="2"/>
+    </row>
+    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B395" s="2"/>
+      <c r="C395" s="2"/>
+    </row>
+    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B396" s="2"/>
+      <c r="C396" s="2"/>
+    </row>
+    <row r="397" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B397" s="2"/>
+      <c r="C397" s="2"/>
+    </row>
+    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B398" s="2"/>
+      <c r="C398" s="2"/>
+    </row>
+    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B399" s="2"/>
+      <c r="C399" s="2"/>
+    </row>
+    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B400" s="2"/>
+      <c r="C400" s="2"/>
+    </row>
+    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B401" s="2"/>
+      <c r="C401" s="2"/>
+    </row>
+    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B402" s="2"/>
+      <c r="C402" s="2"/>
+    </row>
+    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B403" s="2"/>
+      <c r="C403" s="2"/>
+    </row>
+    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B404" s="2"/>
+      <c r="C404" s="2"/>
+    </row>
+    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B405" s="2"/>
+      <c r="C405" s="2"/>
+    </row>
+    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B406" s="2"/>
+      <c r="C406" s="2"/>
+    </row>
+    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B407" s="2"/>
+      <c r="C407" s="2"/>
+    </row>
+    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B408" s="2"/>
+      <c r="C408" s="2"/>
+    </row>
+    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B409" s="2"/>
+      <c r="C409" s="2"/>
+    </row>
+    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B410" s="2"/>
+      <c r="C410" s="2"/>
+    </row>
+    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B411" s="2"/>
+      <c r="C411" s="2"/>
+    </row>
+    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B412" s="2"/>
+      <c r="C412" s="2"/>
+    </row>
+    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B413" s="2"/>
+      <c r="C413" s="2"/>
+    </row>
+    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B414" s="2"/>
+      <c r="C414" s="2"/>
+    </row>
+    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B415" s="2"/>
+      <c r="C415" s="2"/>
+    </row>
+    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B416" s="2"/>
+      <c r="C416" s="2"/>
+    </row>
+    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B417" s="2"/>
+      <c r="C417" s="2"/>
+    </row>
+    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B418" s="2"/>
+      <c r="C418" s="2"/>
+    </row>
+    <row r="419" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B419" s="2"/>
+      <c r="C419" s="2"/>
+    </row>
+    <row r="420" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B420" s="2"/>
+      <c r="C420" s="2"/>
+    </row>
+    <row r="421" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B421" s="2"/>
+      <c r="C421" s="2"/>
+    </row>
+    <row r="422" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B422" s="2"/>
+      <c r="C422" s="2"/>
+    </row>
+    <row r="423" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B423" s="2"/>
+      <c r="C423" s="2"/>
+    </row>
+    <row r="424" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B424" s="2"/>
+      <c r="C424" s="2"/>
+    </row>
+    <row r="425" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B425" s="2"/>
+      <c r="C425" s="2"/>
+    </row>
+    <row r="426" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B426" s="2"/>
+      <c r="C426" s="2"/>
+    </row>
+    <row r="427" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B427" s="2"/>
+      <c r="C427" s="2"/>
+    </row>
+    <row r="428" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B428" s="2"/>
+      <c r="C428" s="2"/>
+    </row>
+    <row r="429" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B429" s="2"/>
+      <c r="C429" s="2"/>
+    </row>
+    <row r="430" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B430" s="2"/>
+      <c r="C430" s="2"/>
+    </row>
+    <row r="431" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B431" s="2"/>
+      <c r="C431" s="2"/>
+    </row>
+    <row r="432" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B432" s="2"/>
+      <c r="C432" s="2"/>
+    </row>
+    <row r="433" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B433" s="2"/>
+      <c r="C433" s="2"/>
+    </row>
+    <row r="434" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B434" s="2"/>
+      <c r="C434" s="2"/>
+    </row>
+    <row r="435" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B435" s="2"/>
+      <c r="C435" s="2"/>
+    </row>
+    <row r="436" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B436" s="2"/>
+      <c r="C436" s="2"/>
+    </row>
+    <row r="437" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B437" s="2"/>
+      <c r="C437" s="2"/>
+    </row>
+    <row r="438" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B438" s="2"/>
+      <c r="C438" s="2"/>
+    </row>
+    <row r="439" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B439" s="2"/>
+      <c r="C439" s="2"/>
+    </row>
+    <row r="440" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B440" s="2"/>
+      <c r="C440" s="2"/>
+    </row>
+    <row r="441" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B441" s="2"/>
+      <c r="C441" s="2"/>
+    </row>
+    <row r="442" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B442" s="2"/>
+      <c r="C442" s="2"/>
+    </row>
+    <row r="443" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B443" s="2"/>
+      <c r="C443" s="2"/>
+    </row>
+    <row r="444" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B444" s="2"/>
+      <c r="C444" s="2"/>
+    </row>
+    <row r="445" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B445" s="2"/>
+      <c r="C445" s="2"/>
+    </row>
+    <row r="446" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B446" s="2"/>
+      <c r="C446" s="2"/>
+    </row>
+    <row r="447" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B447" s="2"/>
+      <c r="C447" s="2"/>
+    </row>
+    <row r="448" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B448" s="2"/>
+      <c r="C448" s="2"/>
+    </row>
+    <row r="449" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B449" s="2"/>
+      <c r="C449" s="2"/>
+    </row>
+    <row r="450" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B450" s="2"/>
+      <c r="C450" s="2"/>
+    </row>
+    <row r="451" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B451" s="2"/>
+      <c r="C451" s="2"/>
+    </row>
+    <row r="452" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B452" s="2"/>
+      <c r="C452" s="2"/>
+    </row>
+    <row r="453" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B453" s="2"/>
+      <c r="C453" s="2"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAED0BD-0D0C-444E-B89A-A383DC371162}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -1143,13 +3877,1515 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6473B6-9076-46E1-98BE-6DA60CB65AF7}">
+  <dimension ref="A1:F453"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="65.44140625" customWidth="1"/>
+    <col min="3" max="3" width="44.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43753</v>
+      </c>
+      <c r="B2" s="2"/>
+      <c r="C2" s="3" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{AA192E7E-7A53-4664-A6A0-0A3049366CFB}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{4A22AD34-3431-4046-BAAA-827DB2957184}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
+  <dimension ref="A1:E2"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B2" sqref="B2"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="90.6640625" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="86.4" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43771</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>61</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{31D8B863-3C3A-4393-8E8B-EAC949E5337B}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97DDFA-1565-4470-BB29-D5465D288895}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="K28" sqref="K28"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1157,8 +5393,20 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA657AA-1F22-477B-B7BC-F11318BA36EB}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BBE539-7C73-4D09-8E9A-C7D2A918577D}">
   <dimension ref="A1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
@@ -1171,11 +5419,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97DDFA-1565-4470-BB29-D5465D288895}">
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC9D91-1D03-4166-9423-6B7417BBFD57}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1183,11 +5433,13 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA657AA-1F22-477B-B7BC-F11318BA36EB}">
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32C370E-E6C2-42BF-B2D7-1840CA486DCC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L27" sqref="L27"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -1195,7 +5447,257 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF6E018-BD46-45F6-85A3-605BEB5FED4F}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F12" sqref="F12"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7735F19-EF15-48F6-B888-702112A6B03A}">
+  <dimension ref="A1:F3"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.88671875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="72" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43769</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="129.6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43769</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>56</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{98CE0ED6-AC6A-4D1C-9A57-E6997AD4D4BF}"/>
+    <hyperlink ref="C3" r:id="rId1" xr:uid="{478F9301-75E8-420B-BFDA-EF738A87381F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFCAE24-2413-43B5-9C67-C332C55714A6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F26" sqref="F26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39996B19-10BE-4E75-832B-E97AAB0846FA}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="E26" sqref="E26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:F25"/>
+  <sheetViews>
+    <sheetView topLeftCell="A425" workbookViewId="0">
+      <selection activeCell="B447" sqref="B447"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="1" width="10.109375" customWidth="1"/>
+    <col min="2" max="2" width="68.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="41.6640625" style="2" customWidth="1"/>
+    <col min="4" max="4" width="10.109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="C15" s="4"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="C16" s="4"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="C17" s="4"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="C18" s="4"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="C19" s="4"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="C20" s="4"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="C21" s="4"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="C22" s="4"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="C23" s="4"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="C24" s="4"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="C25" s="4"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
@@ -1273,63 +5775,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BBE539-7C73-4D09-8E9A-C7D2A918577D}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC9D91-1D03-4166-9423-6B7417BBFD57}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32C370E-E6C2-42BF-B2D7-1840CA486DCC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L27" sqref="L27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF6E018-BD46-45F6-85A3-605BEB5FED4F}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F12" sqref="F12"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
@@ -1411,270 +5857,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
-  <dimension ref="A1:E6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C28" sqref="C28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="70.77734375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
-  <dimension ref="A1:F6"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="74" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B093A3-08AD-4C6E-A23B-42579CAFD690}">
-  <dimension ref="A1:F4"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="77.44140625" customWidth="1"/>
-    <col min="3" max="3" width="52.33203125" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>8</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="4"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8307D7-CFCD-4379-9421-921A35A6E178}">
-  <dimension ref="A1:E1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E27" sqref="E27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="50.88671875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E29" sqref="E29"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="67.77734375" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7095F182-DCFF-461D-94F7-EF32934BDD98}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D60B5C1-E178-4DC9-BFA6-D943126615ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="28" activeTab="31" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="143" uniqueCount="62">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
   <si>
     <t>Date</t>
   </si>
@@ -243,6 +243,27 @@
   </si>
   <si>
     <t>Aquatic Ecosystem: Aquatic organisms- Neuston, Periphyton, Plankton, Nekton, Benthos. Factors limiting productivity of aquativ habitat- sunlight, Dissolved oxygen, Transperancy, Temperature. Eutrophication and it's effects and mitigation, Algal blooms. Wetland ecosystem, National wetland conservation programme, Ramsar convention, Montreux record. Eusatries. Mangroves. Coral reefs, coral bleeching. Coastal regulation zone and Island protection zone. National coastal zone management authority, State coastal zone management authority.</t>
+  </si>
+  <si>
+    <t>banking transation: e-Kuber, core banking solutions, card types, ATM types, NEFT, RTGS, ECS, NACH</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1HlNt3_uTpc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=7</t>
+  </si>
+  <si>
+    <t>BHIM, UPI, IMPS, USSD, NPCi and Mobile banking API, Direct carrier billing, Payment and settlement system act 2007</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NPI_k1FAbQs&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=13</t>
+  </si>
+  <si>
+    <t>Earthquake types and reasons. Shallofocus, intermediate focus , deep focus. Reasons - Divergent boundry , convergent boundry of plates, Transverse boundry, Craton - re-emergence of old factures,Human induced - Reservior induced seicmicity(RIS), Deep mining, Nuclear tests. TSUNAMI - speed 700kmph, Wavelength - 150km, with coast approaching wavelength decreases and height increases, 4th and 8th wave most destructive, time lapse between subsequent waves - 15-50 min. Indian preparedness - Tsunami early warning system , Headquarter - Indian national centre for ocean information science, Hyderabad, real time sea level sensors with bottom pressure recorder, High Frequency radars for coastal currents, Coastal tide gauge stations</t>
+  </si>
+  <si>
+    <t>post 370 changes in foreign policy - diplomatic missions sent , varied results, UN security council held closed meeting, European parliament held discussion, Angela markel's unsustainable remark, UN Human rights council Pak failed to get enough votes, UN general assembly, china malasia and turkey, thre tenets - 1. JK issue intrernationalised 2. Hyphenation with Pak. 3. Mediation by third party. Signals even from friends, Spill over effect - Brand India as responsible democracy Pluralistic country respected as rational power. other issues being combined as No first use of Nukes , NRC, POK getting back with military</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Prisons in india - 115% avg occupancy rate - Crime records bureau. Delhi UP Sikkim Chhatisgadh &gt; 140%. In 2007 - 140%, Tamilnadu - 61%. More than 68% incarcerated are under trails. Law commision - Inconsistanceis in Bail, expedating trails, freeing early, avoid needless arrest. </t>
   </si>
 </sst>
 </file>
@@ -474,8 +495,8 @@
   <autoFilter ref="A1:F14" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4D72BF4B-5688-4A0B-86A6-71381EE7C8F4}" name="Home"/>
-    <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{7FFD77F5-F30C-4E64-ABCB-C6AFA7A6A0AB}" name="Links" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{7FFD77F5-F30C-4E64-ABCB-C6AFA7A6A0AB}" name="Links" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{BE161DE1-B301-461E-A0E4-1342413876ED}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{B752DB69-437A-49C2-A027-295E0207B79B}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{7F042699-C4C5-499B-8177-B353C6235FD8}" name="Revision 3"/>
@@ -489,8 +510,8 @@
   <autoFilter ref="A1:F14" xr:uid="{EC922FB9-6E04-4D95-9C6B-E911C0430319}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{7971D3C2-41C2-43FF-B1D2-094251D1D3BD}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{9D930CFB-099F-4F42-8D99-FA6E2CA034B1}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{B3002CD5-DB8D-41CA-B214-A885713735DA}" name="Revision 3"/>
@@ -504,8 +525,8 @@
   <autoFilter ref="A1:F453" xr:uid="{5DE69645-29C0-42D7-9D34-50EA8BEE42CE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4F61A443-28B4-4295-9B35-62126E644817}" name="Home"/>
-    <tableColumn id="2" xr3:uid="{BB88B54B-20C2-488A-8996-DB489BC908F5}" name="Topic" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{D4F7BA35-15AD-4EF3-8BC8-C8175974438E}" name="Link" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{BB88B54B-20C2-488A-8996-DB489BC908F5}" name="Topic" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{D4F7BA35-15AD-4EF3-8BC8-C8175974438E}" name="Link" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{B2716FC7-6FC4-49CA-AFEF-B08223D99A89}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{C262B32F-1BEF-4A05-812E-8F59F9FE68EF}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{603D8DBA-7A2F-4B7C-A2D1-A68D3BC43E9D}" name="Revision 3"/>
@@ -897,7 +918,7 @@
   <dimension ref="A1:B26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1423,9 +1444,16 @@
         <v>52</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>65</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -1463,10 +1491,11 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{320BE95B-808B-4075-8A26-304880FA39FF}"/>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3852C280-F12C-4195-9930-8D54C2677C20}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{74AC1CFC-34E7-447A-9B2C-EB505DAFCE13}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1605,7 +1634,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64904A22-8EE5-497D-9E05-7789FA782D5C}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H4" sqref="H4"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1661,17 +1692,25 @@
       <c r="E3" s="12"/>
       <c r="F3" s="13"/>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10"/>
-      <c r="B4" s="11"/>
+    <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>43771</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>67</v>
+      </c>
       <c r="C4" s="14"/>
       <c r="D4" s="12"/>
       <c r="E4" s="12"/>
       <c r="F4" s="13"/>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="10"/>
-      <c r="B5" s="11"/>
+    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>43771</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>68</v>
+      </c>
       <c r="C5" s="14"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
@@ -3916,15 +3955,23 @@
       <c r="A2" s="1">
         <v>43753</v>
       </c>
-      <c r="B2" s="2"/>
+      <c r="B2" s="2" t="s">
+        <v>62</v>
+      </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43771</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>64</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>63</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -5324,10 +5371,11 @@
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{AA192E7E-7A53-4664-A6A0-0A3049366CFB}"/>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4A22AD34-3431-4046-BAAA-827DB2957184}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{4D64243A-0DCD-4B0B-8A76-39F76B758B4D}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId2"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5336,7 +5384,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
   <dimension ref="A1:E2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2"/>
     </sheetView>
   </sheetViews>

--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5D60B5C1-E178-4DC9-BFA6-D943126615ED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C4FC8A-F0B4-4B52-BCAB-F190AA4E48AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="150" uniqueCount="69">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
   <si>
     <t>Date</t>
   </si>
@@ -101,9 +101,6 @@
     <t>https://www.youtube.com/watch?v=I0wnYAic2zg&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=6</t>
   </si>
   <si>
-    <t>Daily Hindu</t>
-  </si>
-  <si>
     <t>Air Gapping- cyber attacks, CERT-In, National critical infra protection center, Defence Cyber Agency. CoastDEM. Competition commision of India, Uniform civil code</t>
   </si>
   <si>
@@ -264,6 +261,57 @@
   </si>
   <si>
     <t xml:space="preserve">Prisons in india - 115% avg occupancy rate - Crime records bureau. Delhi UP Sikkim Chhatisgadh &gt; 140%. In 2007 - 140%, Tamilnadu - 61%. More than 68% incarcerated are under trails. Law commision - Inconsistanceis in Bail, expedating trails, freeing early, avoid needless arrest. </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=42kPviUJGts&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=37</t>
+  </si>
+  <si>
+    <t>Governors and viceroys of british</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ryNXnY8Sje0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=8</t>
+  </si>
+  <si>
+    <t>GK Today</t>
+  </si>
+  <si>
+    <t>PT current affairs</t>
+  </si>
+  <si>
+    <t>Cash vs Digital, challenges to digital - POS , MDR, KYC, Interoperability, scams and regulatory structure.</t>
+  </si>
+  <si>
+    <t>Articles</t>
+  </si>
+  <si>
+    <t xml:space="preserve">First </t>
+  </si>
+  <si>
+    <t>zero</t>
+  </si>
+  <si>
+    <t>second</t>
+  </si>
+  <si>
+    <t>third</t>
+  </si>
+  <si>
+    <t>Armaco Saudi IPO,  Snooping Authorise hold to account, Greater Nagalim - Naga club, NNC,NSCN(nationalist socialist council of Nagaland)</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=G1LnI2Qj6fk&amp;list=PLt5ECl9fjK-uTZN_cLuXFi1VNkozKQVVS&amp;index=14</t>
+  </si>
+  <si>
+    <t>Plains and Important rivers : Yzngtze, euprates - tigris, Amazon, Mississipi-misouri, Murray-darling</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DPKrwa4CT1o&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=9&amp;t=0s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aqNiGBkKezs&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9iknh4UrZ_Y&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=14</t>
   </si>
 </sst>
 </file>
@@ -301,7 +349,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="7">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -320,8 +368,26 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B050"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="4">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -360,12 +426,27 @@
       <bottom/>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top style="thin">
+        <color indexed="64"/>
+      </top>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="19">
+  <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -399,6 +480,11 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="4" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -495,8 +581,8 @@
   <autoFilter ref="A1:F14" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4D72BF4B-5688-4A0B-86A6-71381EE7C8F4}" name="Home"/>
-    <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="1"/>
-    <tableColumn id="6" xr3:uid="{7FFD77F5-F30C-4E64-ABCB-C6AFA7A6A0AB}" name="Links" dataDxfId="0"/>
+    <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="5"/>
+    <tableColumn id="6" xr3:uid="{7FFD77F5-F30C-4E64-ABCB-C6AFA7A6A0AB}" name="Links" dataDxfId="4"/>
     <tableColumn id="3" xr3:uid="{BE161DE1-B301-461E-A0E4-1342413876ED}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{B752DB69-437A-49C2-A027-295E0207B79B}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{7F042699-C4C5-499B-8177-B353C6235FD8}" name="Revision 3"/>
@@ -510,8 +596,8 @@
   <autoFilter ref="A1:F14" xr:uid="{EC922FB9-6E04-4D95-9C6B-E911C0430319}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="5"/>
-    <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="4"/>
+    <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="3"/>
+    <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7971D3C2-41C2-43FF-B1D2-094251D1D3BD}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{9D930CFB-099F-4F42-8D99-FA6E2CA034B1}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{B3002CD5-DB8D-41CA-B214-A885713735DA}" name="Revision 3"/>
@@ -525,8 +611,8 @@
   <autoFilter ref="A1:F453" xr:uid="{5DE69645-29C0-42D7-9D34-50EA8BEE42CE}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4F61A443-28B4-4295-9B35-62126E644817}" name="Home"/>
-    <tableColumn id="2" xr3:uid="{BB88B54B-20C2-488A-8996-DB489BC908F5}" name="Topic" dataDxfId="3"/>
-    <tableColumn id="6" xr3:uid="{D4F7BA35-15AD-4EF3-8BC8-C8175974438E}" name="Link" dataDxfId="2"/>
+    <tableColumn id="2" xr3:uid="{BB88B54B-20C2-488A-8996-DB489BC908F5}" name="Topic" dataDxfId="1"/>
+    <tableColumn id="6" xr3:uid="{D4F7BA35-15AD-4EF3-8BC8-C8175974438E}" name="Link" dataDxfId="0"/>
     <tableColumn id="3" xr3:uid="{B2716FC7-6FC4-49CA-AFEF-B08223D99A89}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{C262B32F-1BEF-4A05-812E-8F59F9FE68EF}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{603D8DBA-7A2F-4B7C-A2D1-A68D3BC43E9D}" name="Revision 3"/>
@@ -915,10 +1001,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7EB74-F9F5-4EEB-B0CB-747CDB8CA83C}">
-  <dimension ref="A1:B26"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A3" sqref="A3"/>
+      <selection activeCell="A13" sqref="A13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -927,170 +1013,192 @@
     <col min="2" max="2" width="31.21875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" s="19" t="s">
+        <v>76</v>
+      </c>
+      <c r="F1" s="20"/>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A2" s="16" t="s">
         <v>10</v>
       </c>
       <c r="B2" s="15" t="s">
+        <v>39</v>
+      </c>
+      <c r="E2" s="19" t="s">
+        <v>75</v>
+      </c>
+      <c r="F2" s="21"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="16" t="s">
+        <v>74</v>
+      </c>
+      <c r="B3" s="15" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A3" s="16" t="s">
-        <v>14</v>
-      </c>
-      <c r="B3" s="15" t="s">
+      <c r="E3" s="19" t="s">
+        <v>77</v>
+      </c>
+      <c r="F3" s="22"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="16" t="s">
+        <v>16</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>50</v>
+      </c>
+      <c r="E4" s="19" t="s">
+        <v>78</v>
+      </c>
+      <c r="F4" s="23"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="B5" s="17" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A4" s="16" t="s">
-        <v>17</v>
-      </c>
-      <c r="B4" s="17" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B6" s="15" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="B6" s="15" t="s">
+      <c r="B7" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="4" t="s">
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="4" t="s">
         <v>20</v>
       </c>
-      <c r="B7" s="15" t="s">
+      <c r="B8" s="15" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="4" t="s">
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="4" t="s">
         <v>22</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="15" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="15" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="4" t="s">
         <v>24</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="4" t="s">
         <v>48</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="4" t="s">
         <v>49</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="16" t="s">
         <v>26</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="B14" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
+      <c r="B15" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="15" t="s">
         <v>28</v>
-      </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>29</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
     </row>
   </sheetData>
@@ -1405,7 +1513,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1438,10 +1548,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
@@ -1449,27 +1559,40 @@
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>65</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
+        <v>64</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>81</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>80</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="C5" s="4" t="s">
+        <v>82</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
+      <c r="C6" s="4" t="s">
+        <v>83</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="4" t="s">
+        <v>84</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
@@ -1492,10 +1615,14 @@
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{320BE95B-808B-4075-8A26-304880FA39FF}"/>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{3852C280-F12C-4195-9930-8D54C2677C20}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{74AC1CFC-34E7-447A-9B2C-EB505DAFCE13}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{22AB1EC6-A9B9-46C4-951E-15AB82A0945A}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{6556EC31-8C7E-4657-8411-2F8AED3CFBF3}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{3DA37AEE-036F-4B93-995E-6FEA07066A7A}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{C9B29A0B-9AE9-42AC-9803-647A5A046CF6}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1634,8 +1761,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64904A22-8EE5-497D-9E05-7789FA782D5C}">
   <dimension ref="A1:F22"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H4" sqref="H4"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1669,10 +1797,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
+        <v>14</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>15</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>16</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -1683,10 +1811,10 @@
         <v>43770</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>57</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>58</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>59</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1697,7 +1825,7 @@
         <v>43771</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="12"/>
@@ -1709,16 +1837,20 @@
         <v>43771</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="12"/>
       <c r="E5" s="12"/>
       <c r="F5" s="13"/>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10"/>
-      <c r="B6" s="11"/>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>43773</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>79</v>
+      </c>
       <c r="C6" s="14"/>
       <c r="D6" s="12"/>
       <c r="E6" s="12"/>
@@ -1864,7 +1996,7 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -1895,11 +2027,19 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>59</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -3956,7 +4096,7 @@
         <v>43753</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -3967,16 +4107,22 @@
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>63</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
+        <v>62</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>73</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>70</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
@@ -5372,10 +5518,11 @@
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{AA192E7E-7A53-4664-A6A0-0A3049366CFB}"/>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4A22AD34-3431-4046-BAAA-827DB2957184}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{4D64243A-0DCD-4B0B-8A76-39F76B758B4D}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{1FE44990-15F2-4221-B6C8-CB1E4200031B}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId4"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5415,7 +5562,7 @@
         <v>43771</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -5511,11 +5658,9 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7735F19-EF15-48F6-B888-702112A6B03A}">
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:F4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B11" sqref="B11"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5548,10 +5693,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -5562,16 +5707,28 @@
         <v>43769</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>69</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>68</v>
       </c>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{98CE0ED6-AC6A-4D1C-9A57-E6997AD4D4BF}"/>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{478F9301-75E8-420B-BFDA-EF738A87381F}"/>
+    <hyperlink ref="C4" r:id="rId2" xr:uid="{F802EC1E-2DDF-4B0E-97C3-B92D11D830E5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{18C4FC8A-F0B4-4B52-BCAB-F190AA4E48AC}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59537D2F-C20D-42CF-B523-DEDA55D5FCED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="10" activeTab="14" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
   <si>
     <t>Date</t>
   </si>
@@ -312,6 +312,42 @@
   </si>
   <si>
     <t>https://www.youtube.com/watch?v=9iknh4UrZ_Y&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=14</t>
+  </si>
+  <si>
+    <t>Indian national congress. Moderate phase, AO Hume, Bombay tejpal Sanskrit college, WC Banerjea, Dada Bhai Navroji, Gopal krishna Gokhale, Ranade, SN Banerjea, Badruddin Taybji</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Wkje33EsG_g&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=38</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Mountains - Fold and block. Grabben and Horst. Examples of both mountain type. </t>
+  </si>
+  <si>
+    <t>Police protest in Delhi and Police reforms, Economic slowdown will reduce carbon burdon on India, India lungs under extreame stress - morbidity - Acute respiratory infection is highest 69%,  Food safety and standards authority of India proposes ban on Ad, sale of junk food in schools</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IEHJww486M0&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=39</t>
+  </si>
+  <si>
+    <t>Partition of bengal, muslim league, surat split, delhi capital, revoked partition, lucknow pact, LAL-BAL-PAL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=b4Vzwr_6peY&amp;list=PL2g2m75o1rKLExyCRCKbI3WoOHQOzOllL&amp;index=40</t>
+  </si>
+  <si>
+    <t>Champaran, Ahmedabad, kheda satyagrah, Govt of India act 1919 Montengue-chelmsford reform, rowlatt act, 13th April - Jalianwalabagh, Rabindranath returned knighthood, Khilafat movement, 1920- Non co-operative movement, 1922- swaraj party in Congress, 1927- Simaon commision, 1929 - lahore session, 1930 - Civil disobidience movment - dandi march, 1st round table, Gandhi-Irwin pact, 1931- 2nd round table Gandhi+Sarojini Naidu, 1932- Macdownald communal award, Poona pact, 3rd round table, 1935 Govt of India act, 1937 elections, 1940 August offer - Dominion status, 1942 Cripps mission, Quit India movement, 1945 Shimla conference, Wavell plan, 1946 Cabinet mission plan - Alexander lawrence cripps, 1947 Mountbatten plan</t>
+  </si>
+  <si>
+    <t>At the altar of national security, the china factor in India's RCEP move</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=44HrMNxWyxs&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=9</t>
+  </si>
+  <si>
+    <t>Digital payment - Govt is not a role model, fragmented initiative, DIPYAN, Financial literacy , Budget provision, presumtive taxation, Lucky grahak, Conclusion</t>
+  </si>
+  <si>
+    <t>continue fundamental rights - Right Life and personal liberty, Right to Education, Right to protection against arrest and detention</t>
   </si>
 </sst>
 </file>
@@ -565,7 +601,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="11" xr:uid="{B2BAE34C-77C1-4262-B71A-C1297169CDE9}" name="Table112" displayName="Table112" ref="A1:F453" totalsRowShown="0">
   <autoFilter ref="A1:F453" xr:uid="{0308A886-9249-4456-9015-FBC3CFDDA2B7}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{CC3A96BC-813C-4EA8-8F26-40FAAA4B1712}" name="Date"/>
+    <tableColumn id="1" xr3:uid="{CC3A96BC-813C-4EA8-8F26-40FAAA4B1712}" name="Home"/>
     <tableColumn id="2" xr3:uid="{6CD284B6-66E6-44B9-A409-9E175D2FC82F}" name="Topic" dataDxfId="18"/>
     <tableColumn id="6" xr3:uid="{3163F8E3-2FC8-49BB-8D3E-2879027D97F8}" name="Link" dataDxfId="17"/>
     <tableColumn id="3" xr3:uid="{B690BDFD-B0E6-425E-9E1C-AABB8C36C09E}" name="Revision 1 date"/>
@@ -1004,7 +1040,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="A13" sqref="A13"/>
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1050,7 +1086,7 @@
       <c r="A4" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="21" t="s">
         <v>50</v>
       </c>
       <c r="E4" s="19" t="s">
@@ -1513,9 +1549,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1565,32 +1599,37 @@
         <v>64</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43774</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>81</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>80</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="4" t="s">
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="4" t="s">
+      <c r="C7" s="3" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1762,7 +1801,7 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A4" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1856,17 +1895,25 @@
       <c r="E6" s="12"/>
       <c r="F6" s="13"/>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="10"/>
-      <c r="B7" s="11"/>
+    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>43775</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>88</v>
+      </c>
       <c r="C7" s="14"/>
       <c r="D7" s="12"/>
       <c r="E7" s="12"/>
       <c r="F7" s="13"/>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="10"/>
-      <c r="B8" s="11"/>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>43719</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>93</v>
+      </c>
       <c r="C8" s="14"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
@@ -1996,13 +2043,15 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B7" sqref="B7"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="68.5546875" customWidth="1"/>
+    <col min="2" max="2" width="68.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -2039,6 +2088,14 @@
       </c>
       <c r="B3" s="11" t="s">
         <v>59</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -2176,15 +2233,13 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6DB33B-2212-47A2-B730-D0EAFF285240}">
   <dimension ref="A1:F453"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I8" sqref="I8"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -4035,6 +4090,9 @@
       <c r="C453" s="2"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9D36C6E4-FA1B-41F3-A901-B4C61BBFD5DF}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -4101,33 +4159,45 @@
       <c r="C2" s="3" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D2" s="1">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="D3" s="1">
+        <v>43779</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43773</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>73</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>70</v>
       </c>
     </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
+    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43778</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>95</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>94</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
@@ -5519,10 +5589,11 @@
     <hyperlink ref="C2" r:id="rId1" xr:uid="{4A22AD34-3431-4046-BAAA-827DB2957184}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{4D64243A-0DCD-4B0B-8A76-39F76B758B4D}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{1FE44990-15F2-4221-B6C8-CB1E4200031B}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{98CF3523-80A3-4108-AE30-D87CFF3CD480}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId4"/>
+    <tablePart r:id="rId5"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5658,14 +5729,17 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7735F19-EF15-48F6-B888-702112A6B03A}">
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:F7"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="48.88671875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="49.109375" customWidth="1"/>
+    <col min="3" max="3" width="49.109375" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -5695,7 +5769,7 @@
       <c r="B2" s="11" t="s">
         <v>54</v>
       </c>
-      <c r="C2" s="4" t="s">
+      <c r="C2" s="3" t="s">
         <v>53</v>
       </c>
       <c r="D2" s="12"/>
@@ -5709,19 +5783,52 @@
       <c r="B3" s="2" t="s">
         <v>56</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="C3" s="3" t="s">
         <v>55</v>
       </c>
     </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43773</v>
       </c>
       <c r="B4" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="4" t="s">
+      <c r="C4" s="3" t="s">
         <v>68</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43774</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>85</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>86</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>89</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43775</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>92</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>91</v>
       </c>
     </row>
   </sheetData>
@@ -5729,6 +5836,9 @@
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{98CE0ED6-AC6A-4D1C-9A57-E6997AD4D4BF}"/>
     <hyperlink ref="C3" r:id="rId1" xr:uid="{478F9301-75E8-420B-BFDA-EF738A87381F}"/>
     <hyperlink ref="C4" r:id="rId2" xr:uid="{F802EC1E-2DDF-4B0E-97C3-B92D11D830E5}"/>
+    <hyperlink ref="C5" r:id="rId3" xr:uid="{95A2AC43-5316-41BD-B651-6D8F20E86128}"/>
+    <hyperlink ref="C6" r:id="rId4" xr:uid="{EB37E678-8B0B-4E1D-B2AD-F405168C767F}"/>
+    <hyperlink ref="C7" r:id="rId5" xr:uid="{0624DB2A-B7F2-4CD6-891F-51D1E174A14F}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{59537D2F-C20D-42CF-B523-DEDA55D5FCED}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C6E57-04B4-41DA-8FB6-711776FC4001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
@@ -14,7 +14,7 @@
     <sheet name="History Vedic" sheetId="38" r:id="rId4"/>
     <sheet name="Kurukshetra" sheetId="37" r:id="rId5"/>
     <sheet name="Yojana" sheetId="36" r:id="rId6"/>
-    <sheet name="HistoryNCERT" sheetId="1" r:id="rId7"/>
+    <sheet name="AncientHistory" sheetId="1" r:id="rId7"/>
     <sheet name="Hist-Spectrum" sheetId="2" r:id="rId8"/>
     <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId9"/>
     <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId10"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="179" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
   <si>
     <t>Date</t>
   </si>
@@ -110,9 +110,6 @@
     <t>Quora</t>
   </si>
   <si>
-    <t>History NCERT</t>
-  </si>
-  <si>
     <t>History Spectrum</t>
   </si>
   <si>
@@ -348,6 +345,33 @@
   </si>
   <si>
     <t>continue fundamental rights - Right Life and personal liberty, Right to Education, Right to protection against arrest and detention</t>
+  </si>
+  <si>
+    <t>History Ancient</t>
+  </si>
+  <si>
+    <t>Significance of Ancient indian history, Modern historians</t>
+  </si>
+  <si>
+    <t>Plataues of the world, Formation - lava, wind, glaciear, time of mountain formation</t>
+  </si>
+  <si>
+    <t>IIP report - 3 sectors, Suranga bawdi, New national water policy,</t>
+  </si>
+  <si>
+    <t>Continued modern Historians</t>
+  </si>
+  <si>
+    <t>Continue fundamental rights - cultural and educational rights, right against exploitation, Right to constitutional remedy, Right to proprty, Arm forces article 33, Martail law, Emergency, Critisim and features</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_4n46Nwvs_M&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=10</t>
+  </si>
+  <si>
+    <t>Answer writing Digital payment</t>
+  </si>
+  <si>
+    <t>urban areas require different approach to end open defecation, On the loose justice misunderstood, Treate the disease.</t>
   </si>
 </sst>
 </file>
@@ -661,7 +685,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="1" xr:uid="{9087D908-A10B-4E60-AD38-F6A08012E9FB}" name="Table1" displayName="Table1" ref="A1:F453" totalsRowShown="0">
   <autoFilter ref="A1:F453" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{4601D0EA-624B-4B5C-AC2A-2EEF46A5C460}" name="Date"/>
+    <tableColumn id="1" xr3:uid="{4601D0EA-624B-4B5C-AC2A-2EEF46A5C460}" name="Home"/>
     <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="16"/>
     <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="15"/>
     <tableColumn id="3" xr3:uid="{29CCEBD6-20E9-4B31-998D-5D304C0F996E}" name="Revision 1 date"/>
@@ -1039,8 +1063,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7EB74-F9F5-4EEB-B0CB-747CDB8CA83C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A27" sqref="A27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1054,7 +1078,7 @@
         <v>12</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F1" s="20"/>
     </row>
@@ -1063,22 +1087,22 @@
         <v>10</v>
       </c>
       <c r="B2" s="15" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="B3" s="15" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F3" s="22"/>
     </row>
@@ -1087,154 +1111,154 @@
         <v>16</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="4" t="s">
-        <v>17</v>
+      <c r="A5" s="16" t="s">
+        <v>96</v>
       </c>
       <c r="B5" s="17" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A6" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B6" s="15" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B7" s="15" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B8" s="15" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B9" s="15" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B10" s="15" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B11" s="15" t="s">
-        <v>47</v>
+        <v>46</v>
       </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A13" s="16" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A14" s="16" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B14" t="s">
-        <v>71</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A17" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A18" s="16" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
     </row>
     <row r="19" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A19" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
     </row>
     <row r="20" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A20" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
     </row>
     <row r="21" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A21" s="4" t="s">
-        <v>33</v>
+        <v>32</v>
       </c>
     </row>
     <row r="22" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A22" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A23" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
     </row>
     <row r="24" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A24" s="15" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
     </row>
     <row r="25" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A25" s="15" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
     </row>
     <row r="26" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A26" s="15" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1242,7 +1266,7 @@
     <hyperlink ref="A2" location="'Economy - Mrunal'!A1" display="Economy-Mrunal" xr:uid="{32E1A48F-133E-4C81-A0EB-3EF4B4E3D92C}"/>
     <hyperlink ref="A3" location="'Daily Hindu'!A1" display="Daily Hindu" xr:uid="{599828D9-B1DF-4BCB-AA51-44006D2FB3BC}"/>
     <hyperlink ref="A4" location="Quora!A1" display="Quora" xr:uid="{56229CAD-D604-4EC8-A145-3331CBBCE367}"/>
-    <hyperlink ref="A5" location="HistoryNCERT!A1" display="History NCERT" xr:uid="{8E06B001-626A-4585-9C26-B36818A6F679}"/>
+    <hyperlink ref="A5" location="AncientHistory!A1" display="History Ancient" xr:uid="{8E06B001-626A-4585-9C26-B36818A6F679}"/>
     <hyperlink ref="A6" location="'Hist-Spectrum'!A1" display="History Spectrum" xr:uid="{98828DDC-BDD1-439F-936D-DE7D348841B7}"/>
     <hyperlink ref="A7" location="'PostIndependence-Nitin Sangwan'!A1" display="Hist- PostIndependence" xr:uid="{79708E52-1D83-4B7C-9E9F-383762CF8D23}"/>
     <hyperlink ref="A8" location="'WorldHist- VisianIAS'!A1" display="World Hist" xr:uid="{3065E6B7-EE71-46D8-B3C2-9A685DD3C555}"/>
@@ -1549,7 +1573,10 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
   <dimension ref="A1:F12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1582,10 +1609,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
@@ -1593,10 +1620,10 @@
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1604,10 +1631,10 @@
         <v>43774</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -1615,22 +1642,27 @@
         <v>43775</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="C5" s="3" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>98</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>82</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="3" t="s">
-        <v>83</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
       <c r="C7" s="3" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
@@ -1850,10 +1882,10 @@
         <v>43770</v>
       </c>
       <c r="B3" s="11" t="s">
+        <v>56</v>
+      </c>
+      <c r="C3" s="18" t="s">
         <v>57</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>58</v>
       </c>
       <c r="D3" s="12"/>
       <c r="E3" s="12"/>
@@ -1864,7 +1896,7 @@
         <v>43771</v>
       </c>
       <c r="B4" s="11" t="s">
-        <v>66</v>
+        <v>65</v>
       </c>
       <c r="C4" s="14"/>
       <c r="D4" s="12"/>
@@ -1876,7 +1908,7 @@
         <v>43771</v>
       </c>
       <c r="B5" s="11" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="C5" s="14"/>
       <c r="D5" s="12"/>
@@ -1888,7 +1920,7 @@
         <v>43773</v>
       </c>
       <c r="B6" s="11" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="C6" s="14"/>
       <c r="D6" s="12"/>
@@ -1900,7 +1932,7 @@
         <v>43775</v>
       </c>
       <c r="B7" s="11" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="C7" s="14"/>
       <c r="D7" s="12"/>
@@ -1912,24 +1944,32 @@
         <v>43719</v>
       </c>
       <c r="B8" s="11" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="C8" s="14"/>
       <c r="D8" s="12"/>
       <c r="E8" s="12"/>
       <c r="F8" s="13"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="10"/>
-      <c r="B9" s="11"/>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>43781</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>99</v>
+      </c>
       <c r="C9" s="14"/>
       <c r="D9" s="12"/>
       <c r="E9" s="12"/>
       <c r="F9" s="13"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="10"/>
-      <c r="B10" s="11"/>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>43782</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>104</v>
+      </c>
       <c r="C10" s="14"/>
       <c r="D10" s="12"/>
       <c r="E10" s="12"/>
@@ -2043,11 +2083,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E5"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2076,7 +2114,7 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2087,7 +2125,7 @@
         <v>43773</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2095,7 +2133,15 @@
         <v>43779</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>96</v>
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
       </c>
     </row>
   </sheetData>
@@ -2236,6 +2282,9 @@
     <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
@@ -2258,7 +2307,9 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>43782</v>
+      </c>
       <c r="B2" s="2"/>
       <c r="C2" s="2"/>
     </row>
@@ -4154,7 +4205,7 @@
         <v>43753</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="C2" s="3" t="s">
         <v>13</v>
@@ -4168,10 +4219,10 @@
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="D3" s="1">
         <v>43779</v>
@@ -4182,10 +4233,10 @@
         <v>43773</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>70</v>
+        <v>69</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -4193,16 +4244,22 @@
         <v>43778</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>103</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>102</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
@@ -5590,10 +5647,11 @@
     <hyperlink ref="C3" r:id="rId2" xr:uid="{4D64243A-0DCD-4B0B-8A76-39F76B758B4D}"/>
     <hyperlink ref="C4" r:id="rId3" xr:uid="{1FE44990-15F2-4221-B6C8-CB1E4200031B}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{98CF3523-80A3-4108-AE30-D87CFF3CD480}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{12E8B79C-FEF2-496E-95E4-6EC431575902}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId5"/>
+    <tablePart r:id="rId6"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5633,7 +5691,7 @@
         <v>43771</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -5767,10 +5825,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -5781,10 +5839,10 @@
         <v>43769</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5792,10 +5850,10 @@
         <v>43773</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -5803,10 +5861,10 @@
         <v>43774</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>84</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>85</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>86</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -5814,10 +5872,10 @@
         <v>43775</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
@@ -5825,10 +5883,10 @@
         <v>43775</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
     </row>
   </sheetData>
@@ -5876,9 +5934,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F25"/>
   <sheetViews>
-    <sheetView topLeftCell="A425" workbookViewId="0">
-      <selection activeCell="B447" sqref="B447"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5889,8 +5945,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -5909,10 +5965,20 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
+      <c r="A2" s="1">
+        <v>43781</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>97</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
+      <c r="A3" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>100</v>
+      </c>
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
@@ -6004,6 +6070,9 @@
       <c r="C25" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{D353D55F-6669-4392-A8B2-F08165D05C29}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
   <tableParts count="1">

--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A45C6E57-04B4-41DA-8FB6-711776FC4001}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA3B49-3E60-4E9C-8249-8B5F6AD052C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="187" uniqueCount="105">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
   <si>
     <t>Date</t>
   </si>
@@ -372,6 +372,63 @@
   </si>
   <si>
     <t>urban areas require different approach to end open defecation, On the loose justice misunderstood, Treate the disease.</t>
+  </si>
+  <si>
+    <t>islands types, coral reefs , marine pollution</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tq26g_ByQGI&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=13</t>
+  </si>
+  <si>
+    <t>https://www.drishtiias.com/daily-updates/daily-news-editorials/nia-amendment-bill-2019</t>
+  </si>
+  <si>
+    <t>NIA Amendment</t>
+  </si>
+  <si>
+    <t>https://iasscore.in/current-affairs/mains/national-investigation-agency-amendment-bill-2019</t>
+  </si>
+  <si>
+    <t>Only appropriate data,Act east- north east: Border of hope</t>
+  </si>
+  <si>
+    <t>Ocean resources, polymatalic nodules, petrolium reserves</t>
+  </si>
+  <si>
+    <t>Ocean currents</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=_-_d_lAO4IY&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=15</t>
+  </si>
+  <si>
+    <t>Nature of resources and historical construction</t>
+  </si>
+  <si>
+    <t>Geographical setting</t>
+  </si>
+  <si>
+    <t>Ecology and environment</t>
+  </si>
+  <si>
+    <t>The linguistic background</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Soil pollution, Noise pollution, Radioactive polution, </t>
+  </si>
+  <si>
+    <t>Bhutan levy, Cartosat-3, Pradhan matri matru vandana yojana, BRICS on the ball?</t>
+  </si>
+  <si>
+    <t>NATGRID, House not in order, Iran on the boil, turning policy focus on child undernutrition</t>
+  </si>
+  <si>
+    <t>Paleilithic age, old and new stone age, mesolithic, neolithic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=LUJSr7DnWlM&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=16</t>
+  </si>
+  <si>
+    <t>Tides - 12.26 , ebb, flow, syzygy, spring tide, neap tide, tidal bores</t>
   </si>
 </sst>
 </file>
@@ -1064,7 +1121,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A27" sqref="A27"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1574,7 +1631,7 @@
   <dimension ref="A1:F12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1660,20 +1717,48 @@
       </c>
     </row>
     <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>105</v>
+      </c>
       <c r="C7" s="3" t="s">
         <v>83</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>106</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43787</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>112</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>113</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>43789</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>122</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
@@ -1690,10 +1775,13 @@
     <hyperlink ref="C5" r:id="rId4" xr:uid="{6556EC31-8C7E-4657-8411-2F8AED3CFBF3}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{3DA37AEE-036F-4B93-995E-6FEA07066A7A}"/>
     <hyperlink ref="C7" r:id="rId6" xr:uid="{C9B29A0B-9AE9-42AC-9803-647A5A046CF6}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{B72E9A71-7280-4DC7-A3E4-7035419ABF21}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{3077E262-B944-4CC2-8380-FED6825FA11A}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{F24A8E5C-2C83-4AB8-B24B-A7C647D6DC59}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId7"/>
+    <tablePart r:id="rId10"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1833,8 +1921,8 @@
   <dimension ref="A1:F22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A5" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
+      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1941,7 +2029,7 @@
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="10">
-        <v>43719</v>
+        <v>43778</v>
       </c>
       <c r="B8" s="11" t="s">
         <v>92</v>
@@ -1975,25 +2063,37 @@
       <c r="E10" s="12"/>
       <c r="F10" s="13"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="10"/>
-      <c r="B11" s="11"/>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>43783</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>110</v>
+      </c>
       <c r="C11" s="14"/>
       <c r="D11" s="12"/>
       <c r="E11" s="12"/>
       <c r="F11" s="13"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="10"/>
-      <c r="B12" s="11"/>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>43788</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>119</v>
+      </c>
       <c r="C12" s="14"/>
       <c r="D12" s="12"/>
       <c r="E12" s="12"/>
       <c r="F12" s="13"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="10"/>
-      <c r="B13" s="11"/>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>43789</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>120</v>
+      </c>
       <c r="C13" s="14"/>
       <c r="D13" s="12"/>
       <c r="E13" s="12"/>
@@ -2208,9 +2308,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374539E4-7CF2-4F3F-9787-D7863CD828AC}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E19" sqref="E19"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -2279,11 +2377,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6DB33B-2212-47A2-B730-D0EAFF285240}">
   <dimension ref="A1:F453"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -2306,17 +2407,27 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
-        <v>43782</v>
-      </c>
-      <c r="B2" s="2"/>
-      <c r="C2" s="2"/>
+        <v>43783</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="B3" s="2"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
@@ -2376,1777 +2487,1351 @@
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
-      <c r="C15" s="4"/>
+      <c r="C15" s="3"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
-      <c r="C16" s="4"/>
+      <c r="C16" s="3"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
       <c r="B17" s="2"/>
-      <c r="C17" s="4"/>
+      <c r="C17" s="3"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="1"/>
       <c r="B18" s="2"/>
-      <c r="C18" s="4"/>
+      <c r="C18" s="3"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A19" s="1"/>
       <c r="B19" s="2"/>
-      <c r="C19" s="4"/>
+      <c r="C19" s="3"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A20" s="1"/>
       <c r="B20" s="2"/>
-      <c r="C20" s="4"/>
+      <c r="C20" s="3"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A21" s="1"/>
       <c r="B21" s="2"/>
-      <c r="C21" s="4"/>
+      <c r="C21" s="3"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A22" s="1"/>
       <c r="B22" s="2"/>
-      <c r="C22" s="4"/>
+      <c r="C22" s="3"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A23" s="1"/>
       <c r="B23" s="2"/>
-      <c r="C23" s="4"/>
+      <c r="C23" s="3"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A24" s="1"/>
       <c r="B24" s="2"/>
-      <c r="C24" s="4"/>
+      <c r="C24" s="3"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A25" s="1"/>
       <c r="B25" s="2"/>
-      <c r="C25" s="4"/>
+      <c r="C25" s="3"/>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B26" s="2"/>
-      <c r="C26" s="2"/>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B27" s="2"/>
-      <c r="C27" s="2"/>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B28" s="2"/>
-      <c r="C28" s="2"/>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B29" s="2"/>
-      <c r="C29" s="2"/>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B30" s="2"/>
-      <c r="C30" s="2"/>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B31" s="2"/>
-      <c r="C31" s="2"/>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B32" s="2"/>
-      <c r="C32" s="2"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
-      <c r="C33" s="2"/>
-    </row>
-    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B34" s="2"/>
-      <c r="C34" s="2"/>
-    </row>
-    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B35" s="2"/>
-      <c r="C35" s="2"/>
-    </row>
-    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B36" s="2"/>
-      <c r="C36" s="2"/>
-    </row>
-    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B37" s="2"/>
-      <c r="C37" s="2"/>
-    </row>
-    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B38" s="2"/>
-      <c r="C38" s="2"/>
-    </row>
-    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B39" s="2"/>
-      <c r="C39" s="2"/>
-    </row>
-    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B40" s="2"/>
-      <c r="C40" s="2"/>
-    </row>
-    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B41" s="2"/>
-      <c r="C41" s="2"/>
-    </row>
-    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B42" s="2"/>
-      <c r="C42" s="2"/>
-    </row>
-    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B43" s="2"/>
-      <c r="C43" s="2"/>
-    </row>
-    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B44" s="2"/>
-      <c r="C44" s="2"/>
-    </row>
-    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B45" s="2"/>
-      <c r="C45" s="2"/>
-    </row>
-    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B46" s="2"/>
-      <c r="C46" s="2"/>
-    </row>
-    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B47" s="2"/>
-      <c r="C47" s="2"/>
-    </row>
-    <row r="48" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B48" s="2"/>
-      <c r="C48" s="2"/>
-    </row>
-    <row r="49" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B49" s="2"/>
-      <c r="C49" s="2"/>
-    </row>
-    <row r="50" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B50" s="2"/>
-      <c r="C50" s="2"/>
-    </row>
-    <row r="51" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
-      <c r="C51" s="2"/>
-    </row>
-    <row r="52" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B52" s="2"/>
-      <c r="C52" s="2"/>
-    </row>
-    <row r="53" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
-      <c r="C53" s="2"/>
-    </row>
-    <row r="54" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
-      <c r="C54" s="2"/>
-    </row>
-    <row r="55" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
-      <c r="C55" s="2"/>
-    </row>
-    <row r="56" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
-      <c r="C56" s="2"/>
-    </row>
-    <row r="57" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
-      <c r="C57" s="2"/>
-    </row>
-    <row r="58" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
-      <c r="C58" s="2"/>
-    </row>
-    <row r="59" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
-      <c r="C59" s="2"/>
-    </row>
-    <row r="60" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
-      <c r="C60" s="2"/>
-    </row>
-    <row r="61" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
-      <c r="C61" s="2"/>
-    </row>
-    <row r="62" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
-      <c r="C62" s="2"/>
-    </row>
-    <row r="63" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
-      <c r="C63" s="2"/>
-    </row>
-    <row r="64" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
-      <c r="C64" s="2"/>
-    </row>
-    <row r="65" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B65" s="2"/>
-      <c r="C65" s="2"/>
-    </row>
-    <row r="66" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B66" s="2"/>
-      <c r="C66" s="2"/>
-    </row>
-    <row r="67" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B67" s="2"/>
-      <c r="C67" s="2"/>
-    </row>
-    <row r="68" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B68" s="2"/>
-      <c r="C68" s="2"/>
-    </row>
-    <row r="69" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B69" s="2"/>
-      <c r="C69" s="2"/>
-    </row>
-    <row r="70" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B70" s="2"/>
-      <c r="C70" s="2"/>
-    </row>
-    <row r="71" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B71" s="2"/>
-      <c r="C71" s="2"/>
-    </row>
-    <row r="72" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B72" s="2"/>
-      <c r="C72" s="2"/>
-    </row>
-    <row r="73" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B73" s="2"/>
-      <c r="C73" s="2"/>
-    </row>
-    <row r="74" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B74" s="2"/>
-      <c r="C74" s="2"/>
-    </row>
-    <row r="75" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B75" s="2"/>
-      <c r="C75" s="2"/>
-    </row>
-    <row r="76" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B76" s="2"/>
-      <c r="C76" s="2"/>
-    </row>
-    <row r="77" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B77" s="2"/>
-      <c r="C77" s="2"/>
-    </row>
-    <row r="78" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B78" s="2"/>
-      <c r="C78" s="2"/>
-    </row>
-    <row r="79" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B79" s="2"/>
-      <c r="C79" s="2"/>
-    </row>
-    <row r="80" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B80" s="2"/>
-      <c r="C80" s="2"/>
-    </row>
-    <row r="81" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B81" s="2"/>
-      <c r="C81" s="2"/>
-    </row>
-    <row r="82" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B82" s="2"/>
-      <c r="C82" s="2"/>
-    </row>
-    <row r="83" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B83" s="2"/>
-      <c r="C83" s="2"/>
-    </row>
-    <row r="84" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B84" s="2"/>
-      <c r="C84" s="2"/>
-    </row>
-    <row r="85" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B85" s="2"/>
-      <c r="C85" s="2"/>
-    </row>
-    <row r="86" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B86" s="2"/>
-      <c r="C86" s="2"/>
-    </row>
-    <row r="87" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B87" s="2"/>
-      <c r="C87" s="2"/>
-    </row>
-    <row r="88" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B88" s="2"/>
-      <c r="C88" s="2"/>
-    </row>
-    <row r="89" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B89" s="2"/>
-      <c r="C89" s="2"/>
-    </row>
-    <row r="90" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B90" s="2"/>
-      <c r="C90" s="2"/>
-    </row>
-    <row r="91" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B91" s="2"/>
-      <c r="C91" s="2"/>
-    </row>
-    <row r="92" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B92" s="2"/>
-      <c r="C92" s="2"/>
-    </row>
-    <row r="93" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B93" s="2"/>
-      <c r="C93" s="2"/>
-    </row>
-    <row r="94" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B94" s="2"/>
-      <c r="C94" s="2"/>
-    </row>
-    <row r="95" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B95" s="2"/>
-      <c r="C95" s="2"/>
-    </row>
-    <row r="96" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B96" s="2"/>
-      <c r="C96" s="2"/>
-    </row>
-    <row r="97" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B97" s="2"/>
-      <c r="C97" s="2"/>
-    </row>
-    <row r="98" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B98" s="2"/>
-      <c r="C98" s="2"/>
-    </row>
-    <row r="99" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B99" s="2"/>
-      <c r="C99" s="2"/>
-    </row>
-    <row r="100" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B100" s="2"/>
-      <c r="C100" s="2"/>
-    </row>
-    <row r="101" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B101" s="2"/>
-      <c r="C101" s="2"/>
-    </row>
-    <row r="102" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B102" s="2"/>
-      <c r="C102" s="2"/>
-    </row>
-    <row r="103" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B103" s="2"/>
-      <c r="C103" s="2"/>
-    </row>
-    <row r="104" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B104" s="2"/>
-      <c r="C104" s="2"/>
-    </row>
-    <row r="105" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B105" s="2"/>
-      <c r="C105" s="2"/>
-    </row>
-    <row r="106" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B106" s="2"/>
-      <c r="C106" s="2"/>
-    </row>
-    <row r="107" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B107" s="2"/>
-      <c r="C107" s="2"/>
-    </row>
-    <row r="108" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B108" s="2"/>
-      <c r="C108" s="2"/>
-    </row>
-    <row r="109" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B109" s="2"/>
-      <c r="C109" s="2"/>
-    </row>
-    <row r="110" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B110" s="2"/>
-      <c r="C110" s="2"/>
-    </row>
-    <row r="111" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B111" s="2"/>
-      <c r="C111" s="2"/>
-    </row>
-    <row r="112" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B112" s="2"/>
-      <c r="C112" s="2"/>
-    </row>
-    <row r="113" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B113" s="2"/>
-      <c r="C113" s="2"/>
-    </row>
-    <row r="114" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B114" s="2"/>
-      <c r="C114" s="2"/>
-    </row>
-    <row r="115" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B115" s="2"/>
-      <c r="C115" s="2"/>
-    </row>
-    <row r="116" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B116" s="2"/>
-      <c r="C116" s="2"/>
-    </row>
-    <row r="117" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B117" s="2"/>
-      <c r="C117" s="2"/>
-    </row>
-    <row r="118" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B118" s="2"/>
-      <c r="C118" s="2"/>
-    </row>
-    <row r="119" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B119" s="2"/>
-      <c r="C119" s="2"/>
-    </row>
-    <row r="120" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B120" s="2"/>
-      <c r="C120" s="2"/>
-    </row>
-    <row r="121" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B121" s="2"/>
-      <c r="C121" s="2"/>
-    </row>
-    <row r="122" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B122" s="2"/>
-      <c r="C122" s="2"/>
-    </row>
-    <row r="123" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B123" s="2"/>
-      <c r="C123" s="2"/>
-    </row>
-    <row r="124" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B124" s="2"/>
-      <c r="C124" s="2"/>
-    </row>
-    <row r="125" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B125" s="2"/>
-      <c r="C125" s="2"/>
-    </row>
-    <row r="126" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B126" s="2"/>
-      <c r="C126" s="2"/>
-    </row>
-    <row r="127" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B127" s="2"/>
-      <c r="C127" s="2"/>
-    </row>
-    <row r="128" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B128" s="2"/>
-      <c r="C128" s="2"/>
-    </row>
-    <row r="129" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B129" s="2"/>
-      <c r="C129" s="2"/>
-    </row>
-    <row r="130" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B130" s="2"/>
-      <c r="C130" s="2"/>
-    </row>
-    <row r="131" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B131" s="2"/>
-      <c r="C131" s="2"/>
-    </row>
-    <row r="132" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B132" s="2"/>
-      <c r="C132" s="2"/>
-    </row>
-    <row r="133" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B133" s="2"/>
-      <c r="C133" s="2"/>
-    </row>
-    <row r="134" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B134" s="2"/>
-      <c r="C134" s="2"/>
-    </row>
-    <row r="135" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B135" s="2"/>
-      <c r="C135" s="2"/>
-    </row>
-    <row r="136" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B136" s="2"/>
-      <c r="C136" s="2"/>
-    </row>
-    <row r="137" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B137" s="2"/>
-      <c r="C137" s="2"/>
-    </row>
-    <row r="138" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B138" s="2"/>
-      <c r="C138" s="2"/>
-    </row>
-    <row r="139" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B139" s="2"/>
-      <c r="C139" s="2"/>
-    </row>
-    <row r="140" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B140" s="2"/>
-      <c r="C140" s="2"/>
-    </row>
-    <row r="141" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B141" s="2"/>
-      <c r="C141" s="2"/>
-    </row>
-    <row r="142" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B142" s="2"/>
-      <c r="C142" s="2"/>
-    </row>
-    <row r="143" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B143" s="2"/>
-      <c r="C143" s="2"/>
-    </row>
-    <row r="144" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B144" s="2"/>
-      <c r="C144" s="2"/>
-    </row>
-    <row r="145" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B145" s="2"/>
-      <c r="C145" s="2"/>
-    </row>
-    <row r="146" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B146" s="2"/>
-      <c r="C146" s="2"/>
-    </row>
-    <row r="147" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B147" s="2"/>
-      <c r="C147" s="2"/>
-    </row>
-    <row r="148" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B148" s="2"/>
-      <c r="C148" s="2"/>
-    </row>
-    <row r="149" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B149" s="2"/>
-      <c r="C149" s="2"/>
-    </row>
-    <row r="150" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B150" s="2"/>
-      <c r="C150" s="2"/>
-    </row>
-    <row r="151" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B151" s="2"/>
-      <c r="C151" s="2"/>
-    </row>
-    <row r="152" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B152" s="2"/>
-      <c r="C152" s="2"/>
-    </row>
-    <row r="153" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B153" s="2"/>
-      <c r="C153" s="2"/>
-    </row>
-    <row r="154" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B154" s="2"/>
-      <c r="C154" s="2"/>
-    </row>
-    <row r="155" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B155" s="2"/>
-      <c r="C155" s="2"/>
-    </row>
-    <row r="156" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B156" s="2"/>
-      <c r="C156" s="2"/>
-    </row>
-    <row r="157" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B157" s="2"/>
-      <c r="C157" s="2"/>
-    </row>
-    <row r="158" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B158" s="2"/>
-      <c r="C158" s="2"/>
-    </row>
-    <row r="159" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B159" s="2"/>
-      <c r="C159" s="2"/>
-    </row>
-    <row r="160" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B160" s="2"/>
-      <c r="C160" s="2"/>
-    </row>
-    <row r="161" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B161" s="2"/>
-      <c r="C161" s="2"/>
-    </row>
-    <row r="162" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B162" s="2"/>
-      <c r="C162" s="2"/>
-    </row>
-    <row r="163" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B163" s="2"/>
-      <c r="C163" s="2"/>
-    </row>
-    <row r="164" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B164" s="2"/>
-      <c r="C164" s="2"/>
-    </row>
-    <row r="165" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B165" s="2"/>
-      <c r="C165" s="2"/>
-    </row>
-    <row r="166" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B166" s="2"/>
-      <c r="C166" s="2"/>
-    </row>
-    <row r="167" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B167" s="2"/>
-      <c r="C167" s="2"/>
-    </row>
-    <row r="168" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B168" s="2"/>
-      <c r="C168" s="2"/>
-    </row>
-    <row r="169" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B169" s="2"/>
-      <c r="C169" s="2"/>
-    </row>
-    <row r="170" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B170" s="2"/>
-      <c r="C170" s="2"/>
-    </row>
-    <row r="171" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B171" s="2"/>
-      <c r="C171" s="2"/>
-    </row>
-    <row r="172" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B172" s="2"/>
-      <c r="C172" s="2"/>
-    </row>
-    <row r="173" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B173" s="2"/>
-      <c r="C173" s="2"/>
-    </row>
-    <row r="174" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B174" s="2"/>
-      <c r="C174" s="2"/>
-    </row>
-    <row r="175" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B175" s="2"/>
-      <c r="C175" s="2"/>
-    </row>
-    <row r="176" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B176" s="2"/>
-      <c r="C176" s="2"/>
-    </row>
-    <row r="177" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B177" s="2"/>
-      <c r="C177" s="2"/>
-    </row>
-    <row r="178" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B178" s="2"/>
-      <c r="C178" s="2"/>
-    </row>
-    <row r="179" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B179" s="2"/>
-      <c r="C179" s="2"/>
-    </row>
-    <row r="180" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B180" s="2"/>
-      <c r="C180" s="2"/>
-    </row>
-    <row r="181" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B181" s="2"/>
-      <c r="C181" s="2"/>
-    </row>
-    <row r="182" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B182" s="2"/>
-      <c r="C182" s="2"/>
-    </row>
-    <row r="183" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B183" s="2"/>
-      <c r="C183" s="2"/>
-    </row>
-    <row r="184" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B184" s="2"/>
-      <c r="C184" s="2"/>
-    </row>
-    <row r="185" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B185" s="2"/>
-      <c r="C185" s="2"/>
-    </row>
-    <row r="186" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B186" s="2"/>
-      <c r="C186" s="2"/>
-    </row>
-    <row r="187" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B187" s="2"/>
-      <c r="C187" s="2"/>
-    </row>
-    <row r="188" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B188" s="2"/>
-      <c r="C188" s="2"/>
-    </row>
-    <row r="189" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B189" s="2"/>
-      <c r="C189" s="2"/>
-    </row>
-    <row r="190" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B190" s="2"/>
-      <c r="C190" s="2"/>
-    </row>
-    <row r="191" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B191" s="2"/>
-      <c r="C191" s="2"/>
-    </row>
-    <row r="192" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B192" s="2"/>
-      <c r="C192" s="2"/>
-    </row>
-    <row r="193" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B193" s="2"/>
-      <c r="C193" s="2"/>
-    </row>
-    <row r="194" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B194" s="2"/>
-      <c r="C194" s="2"/>
-    </row>
-    <row r="195" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B195" s="2"/>
-      <c r="C195" s="2"/>
-    </row>
-    <row r="196" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B196" s="2"/>
-      <c r="C196" s="2"/>
-    </row>
-    <row r="197" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B197" s="2"/>
-      <c r="C197" s="2"/>
-    </row>
-    <row r="198" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B198" s="2"/>
-      <c r="C198" s="2"/>
-    </row>
-    <row r="199" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B199" s="2"/>
-      <c r="C199" s="2"/>
-    </row>
-    <row r="200" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B200" s="2"/>
-      <c r="C200" s="2"/>
-    </row>
-    <row r="201" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B201" s="2"/>
-      <c r="C201" s="2"/>
-    </row>
-    <row r="202" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B202" s="2"/>
-      <c r="C202" s="2"/>
-    </row>
-    <row r="203" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B203" s="2"/>
-      <c r="C203" s="2"/>
-    </row>
-    <row r="204" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B204" s="2"/>
-      <c r="C204" s="2"/>
-    </row>
-    <row r="205" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B205" s="2"/>
-      <c r="C205" s="2"/>
-    </row>
-    <row r="206" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B206" s="2"/>
-      <c r="C206" s="2"/>
-    </row>
-    <row r="207" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B207" s="2"/>
-      <c r="C207" s="2"/>
-    </row>
-    <row r="208" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B208" s="2"/>
-      <c r="C208" s="2"/>
-    </row>
-    <row r="209" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B209" s="2"/>
-      <c r="C209" s="2"/>
-    </row>
-    <row r="210" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B210" s="2"/>
-      <c r="C210" s="2"/>
-    </row>
-    <row r="211" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B211" s="2"/>
-      <c r="C211" s="2"/>
-    </row>
-    <row r="212" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B212" s="2"/>
-      <c r="C212" s="2"/>
-    </row>
-    <row r="213" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B213" s="2"/>
-      <c r="C213" s="2"/>
-    </row>
-    <row r="214" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B214" s="2"/>
-      <c r="C214" s="2"/>
-    </row>
-    <row r="215" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B215" s="2"/>
-      <c r="C215" s="2"/>
-    </row>
-    <row r="216" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B216" s="2"/>
-      <c r="C216" s="2"/>
-    </row>
-    <row r="217" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B217" s="2"/>
-      <c r="C217" s="2"/>
-    </row>
-    <row r="218" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B218" s="2"/>
-      <c r="C218" s="2"/>
-    </row>
-    <row r="219" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B219" s="2"/>
-      <c r="C219" s="2"/>
-    </row>
-    <row r="220" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B220" s="2"/>
-      <c r="C220" s="2"/>
-    </row>
-    <row r="221" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B221" s="2"/>
-      <c r="C221" s="2"/>
-    </row>
-    <row r="222" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B222" s="2"/>
-      <c r="C222" s="2"/>
-    </row>
-    <row r="223" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B223" s="2"/>
-      <c r="C223" s="2"/>
-    </row>
-    <row r="224" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B224" s="2"/>
-      <c r="C224" s="2"/>
-    </row>
-    <row r="225" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B225" s="2"/>
-      <c r="C225" s="2"/>
-    </row>
-    <row r="226" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B226" s="2"/>
-      <c r="C226" s="2"/>
-    </row>
-    <row r="227" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B227" s="2"/>
-      <c r="C227" s="2"/>
-    </row>
-    <row r="228" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B228" s="2"/>
-      <c r="C228" s="2"/>
-    </row>
-    <row r="229" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B229" s="2"/>
-      <c r="C229" s="2"/>
-    </row>
-    <row r="230" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B230" s="2"/>
-      <c r="C230" s="2"/>
-    </row>
-    <row r="231" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B231" s="2"/>
-      <c r="C231" s="2"/>
-    </row>
-    <row r="232" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B232" s="2"/>
-      <c r="C232" s="2"/>
-    </row>
-    <row r="233" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B233" s="2"/>
-      <c r="C233" s="2"/>
-    </row>
-    <row r="234" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B234" s="2"/>
-      <c r="C234" s="2"/>
-    </row>
-    <row r="235" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B235" s="2"/>
-      <c r="C235" s="2"/>
-    </row>
-    <row r="236" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B236" s="2"/>
-      <c r="C236" s="2"/>
-    </row>
-    <row r="237" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B237" s="2"/>
-      <c r="C237" s="2"/>
-    </row>
-    <row r="238" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B238" s="2"/>
-      <c r="C238" s="2"/>
-    </row>
-    <row r="239" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B239" s="2"/>
-      <c r="C239" s="2"/>
-    </row>
-    <row r="240" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B240" s="2"/>
-      <c r="C240" s="2"/>
-    </row>
-    <row r="241" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B241" s="2"/>
-      <c r="C241" s="2"/>
-    </row>
-    <row r="242" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B242" s="2"/>
-      <c r="C242" s="2"/>
-    </row>
-    <row r="243" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B243" s="2"/>
-      <c r="C243" s="2"/>
-    </row>
-    <row r="244" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B244" s="2"/>
-      <c r="C244" s="2"/>
-    </row>
-    <row r="245" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B245" s="2"/>
-      <c r="C245" s="2"/>
-    </row>
-    <row r="246" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B246" s="2"/>
-      <c r="C246" s="2"/>
-    </row>
-    <row r="247" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B247" s="2"/>
-      <c r="C247" s="2"/>
-    </row>
-    <row r="248" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B248" s="2"/>
-      <c r="C248" s="2"/>
-    </row>
-    <row r="249" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B249" s="2"/>
-      <c r="C249" s="2"/>
-    </row>
-    <row r="250" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B250" s="2"/>
-      <c r="C250" s="2"/>
-    </row>
-    <row r="251" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B251" s="2"/>
-      <c r="C251" s="2"/>
-    </row>
-    <row r="252" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B252" s="2"/>
-      <c r="C252" s="2"/>
-    </row>
-    <row r="253" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B253" s="2"/>
-      <c r="C253" s="2"/>
-    </row>
-    <row r="254" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B254" s="2"/>
-      <c r="C254" s="2"/>
-    </row>
-    <row r="255" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B255" s="2"/>
-      <c r="C255" s="2"/>
-    </row>
-    <row r="256" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B256" s="2"/>
-      <c r="C256" s="2"/>
-    </row>
-    <row r="257" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B257" s="2"/>
-      <c r="C257" s="2"/>
-    </row>
-    <row r="258" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B258" s="2"/>
-      <c r="C258" s="2"/>
-    </row>
-    <row r="259" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B259" s="2"/>
-      <c r="C259" s="2"/>
-    </row>
-    <row r="260" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B260" s="2"/>
-      <c r="C260" s="2"/>
-    </row>
-    <row r="261" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B261" s="2"/>
-      <c r="C261" s="2"/>
-    </row>
-    <row r="262" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B262" s="2"/>
-      <c r="C262" s="2"/>
-    </row>
-    <row r="263" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B263" s="2"/>
-      <c r="C263" s="2"/>
-    </row>
-    <row r="264" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B264" s="2"/>
-      <c r="C264" s="2"/>
-    </row>
-    <row r="265" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B265" s="2"/>
-      <c r="C265" s="2"/>
-    </row>
-    <row r="266" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B266" s="2"/>
-      <c r="C266" s="2"/>
-    </row>
-    <row r="267" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B267" s="2"/>
-      <c r="C267" s="2"/>
-    </row>
-    <row r="268" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B268" s="2"/>
-      <c r="C268" s="2"/>
-    </row>
-    <row r="269" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B269" s="2"/>
-      <c r="C269" s="2"/>
-    </row>
-    <row r="270" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B270" s="2"/>
-      <c r="C270" s="2"/>
-    </row>
-    <row r="271" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B271" s="2"/>
-      <c r="C271" s="2"/>
-    </row>
-    <row r="272" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B272" s="2"/>
-      <c r="C272" s="2"/>
-    </row>
-    <row r="273" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B273" s="2"/>
-      <c r="C273" s="2"/>
-    </row>
-    <row r="274" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B274" s="2"/>
-      <c r="C274" s="2"/>
-    </row>
-    <row r="275" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B275" s="2"/>
-      <c r="C275" s="2"/>
-    </row>
-    <row r="276" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B276" s="2"/>
-      <c r="C276" s="2"/>
-    </row>
-    <row r="277" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B277" s="2"/>
-      <c r="C277" s="2"/>
-    </row>
-    <row r="278" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B278" s="2"/>
-      <c r="C278" s="2"/>
-    </row>
-    <row r="279" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B279" s="2"/>
-      <c r="C279" s="2"/>
-    </row>
-    <row r="280" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B280" s="2"/>
-      <c r="C280" s="2"/>
-    </row>
-    <row r="281" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B281" s="2"/>
-      <c r="C281" s="2"/>
-    </row>
-    <row r="282" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B282" s="2"/>
-      <c r="C282" s="2"/>
-    </row>
-    <row r="283" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B283" s="2"/>
-      <c r="C283" s="2"/>
-    </row>
-    <row r="284" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B284" s="2"/>
-      <c r="C284" s="2"/>
-    </row>
-    <row r="285" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B285" s="2"/>
-      <c r="C285" s="2"/>
-    </row>
-    <row r="286" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B286" s="2"/>
-      <c r="C286" s="2"/>
-    </row>
-    <row r="287" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B287" s="2"/>
-      <c r="C287" s="2"/>
-    </row>
-    <row r="288" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B288" s="2"/>
-      <c r="C288" s="2"/>
-    </row>
-    <row r="289" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B289" s="2"/>
-      <c r="C289" s="2"/>
-    </row>
-    <row r="290" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B290" s="2"/>
-      <c r="C290" s="2"/>
-    </row>
-    <row r="291" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B291" s="2"/>
-      <c r="C291" s="2"/>
-    </row>
-    <row r="292" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B292" s="2"/>
-      <c r="C292" s="2"/>
-    </row>
-    <row r="293" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B293" s="2"/>
-      <c r="C293" s="2"/>
-    </row>
-    <row r="294" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B294" s="2"/>
-      <c r="C294" s="2"/>
-    </row>
-    <row r="295" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B295" s="2"/>
-      <c r="C295" s="2"/>
-    </row>
-    <row r="296" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B296" s="2"/>
-      <c r="C296" s="2"/>
-    </row>
-    <row r="297" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B297" s="2"/>
-      <c r="C297" s="2"/>
-    </row>
-    <row r="298" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B298" s="2"/>
-      <c r="C298" s="2"/>
-    </row>
-    <row r="299" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B299" s="2"/>
-      <c r="C299" s="2"/>
-    </row>
-    <row r="300" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B300" s="2"/>
-      <c r="C300" s="2"/>
-    </row>
-    <row r="301" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B301" s="2"/>
-      <c r="C301" s="2"/>
-    </row>
-    <row r="302" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B302" s="2"/>
-      <c r="C302" s="2"/>
-    </row>
-    <row r="303" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B303" s="2"/>
-      <c r="C303" s="2"/>
-    </row>
-    <row r="304" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B304" s="2"/>
-      <c r="C304" s="2"/>
-    </row>
-    <row r="305" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B305" s="2"/>
-      <c r="C305" s="2"/>
-    </row>
-    <row r="306" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B306" s="2"/>
-      <c r="C306" s="2"/>
-    </row>
-    <row r="307" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B307" s="2"/>
-      <c r="C307" s="2"/>
-    </row>
-    <row r="308" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B308" s="2"/>
-      <c r="C308" s="2"/>
-    </row>
-    <row r="309" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B309" s="2"/>
-      <c r="C309" s="2"/>
-    </row>
-    <row r="310" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B310" s="2"/>
-      <c r="C310" s="2"/>
-    </row>
-    <row r="311" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B311" s="2"/>
-      <c r="C311" s="2"/>
-    </row>
-    <row r="312" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B312" s="2"/>
-      <c r="C312" s="2"/>
-    </row>
-    <row r="313" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B313" s="2"/>
-      <c r="C313" s="2"/>
-    </row>
-    <row r="314" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B314" s="2"/>
-      <c r="C314" s="2"/>
-    </row>
-    <row r="315" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B315" s="2"/>
-      <c r="C315" s="2"/>
-    </row>
-    <row r="316" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B316" s="2"/>
-      <c r="C316" s="2"/>
-    </row>
-    <row r="317" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B317" s="2"/>
-      <c r="C317" s="2"/>
-    </row>
-    <row r="318" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B318" s="2"/>
-      <c r="C318" s="2"/>
-    </row>
-    <row r="319" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B319" s="2"/>
-      <c r="C319" s="2"/>
-    </row>
-    <row r="320" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B320" s="2"/>
-      <c r="C320" s="2"/>
-    </row>
-    <row r="321" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B321" s="2"/>
-      <c r="C321" s="2"/>
-    </row>
-    <row r="322" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B322" s="2"/>
-      <c r="C322" s="2"/>
-    </row>
-    <row r="323" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B323" s="2"/>
-      <c r="C323" s="2"/>
-    </row>
-    <row r="324" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B324" s="2"/>
-      <c r="C324" s="2"/>
-    </row>
-    <row r="325" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B325" s="2"/>
-      <c r="C325" s="2"/>
-    </row>
-    <row r="326" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B326" s="2"/>
-      <c r="C326" s="2"/>
-    </row>
-    <row r="327" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B327" s="2"/>
-      <c r="C327" s="2"/>
-    </row>
-    <row r="328" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B328" s="2"/>
-      <c r="C328" s="2"/>
-    </row>
-    <row r="329" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B329" s="2"/>
-      <c r="C329" s="2"/>
-    </row>
-    <row r="330" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B330" s="2"/>
-      <c r="C330" s="2"/>
-    </row>
-    <row r="331" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B331" s="2"/>
-      <c r="C331" s="2"/>
-    </row>
-    <row r="332" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B332" s="2"/>
-      <c r="C332" s="2"/>
-    </row>
-    <row r="333" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B333" s="2"/>
-      <c r="C333" s="2"/>
-    </row>
-    <row r="334" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B334" s="2"/>
-      <c r="C334" s="2"/>
-    </row>
-    <row r="335" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B335" s="2"/>
-      <c r="C335" s="2"/>
-    </row>
-    <row r="336" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B336" s="2"/>
-      <c r="C336" s="2"/>
-    </row>
-    <row r="337" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B337" s="2"/>
-      <c r="C337" s="2"/>
-    </row>
-    <row r="338" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B338" s="2"/>
-      <c r="C338" s="2"/>
-    </row>
-    <row r="339" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B339" s="2"/>
-      <c r="C339" s="2"/>
-    </row>
-    <row r="340" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B340" s="2"/>
-      <c r="C340" s="2"/>
-    </row>
-    <row r="341" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B341" s="2"/>
-      <c r="C341" s="2"/>
-    </row>
-    <row r="342" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B342" s="2"/>
-      <c r="C342" s="2"/>
-    </row>
-    <row r="343" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B343" s="2"/>
-      <c r="C343" s="2"/>
-    </row>
-    <row r="344" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B344" s="2"/>
-      <c r="C344" s="2"/>
-    </row>
-    <row r="345" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B345" s="2"/>
-      <c r="C345" s="2"/>
-    </row>
-    <row r="346" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B346" s="2"/>
-      <c r="C346" s="2"/>
-    </row>
-    <row r="347" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B347" s="2"/>
-      <c r="C347" s="2"/>
-    </row>
-    <row r="348" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B348" s="2"/>
-      <c r="C348" s="2"/>
-    </row>
-    <row r="349" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B349" s="2"/>
-      <c r="C349" s="2"/>
-    </row>
-    <row r="350" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B350" s="2"/>
-      <c r="C350" s="2"/>
-    </row>
-    <row r="351" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B351" s="2"/>
-      <c r="C351" s="2"/>
-    </row>
-    <row r="352" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B352" s="2"/>
-      <c r="C352" s="2"/>
-    </row>
-    <row r="353" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B353" s="2"/>
-      <c r="C353" s="2"/>
-    </row>
-    <row r="354" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B354" s="2"/>
-      <c r="C354" s="2"/>
-    </row>
-    <row r="355" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B355" s="2"/>
-      <c r="C355" s="2"/>
-    </row>
-    <row r="356" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B356" s="2"/>
-      <c r="C356" s="2"/>
-    </row>
-    <row r="357" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B357" s="2"/>
-      <c r="C357" s="2"/>
-    </row>
-    <row r="358" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B358" s="2"/>
-      <c r="C358" s="2"/>
-    </row>
-    <row r="359" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B359" s="2"/>
-      <c r="C359" s="2"/>
-    </row>
-    <row r="360" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B360" s="2"/>
-      <c r="C360" s="2"/>
-    </row>
-    <row r="361" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B361" s="2"/>
-      <c r="C361" s="2"/>
-    </row>
-    <row r="362" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B362" s="2"/>
-      <c r="C362" s="2"/>
-    </row>
-    <row r="363" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B363" s="2"/>
-      <c r="C363" s="2"/>
-    </row>
-    <row r="364" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B364" s="2"/>
-      <c r="C364" s="2"/>
-    </row>
-    <row r="365" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B365" s="2"/>
-      <c r="C365" s="2"/>
-    </row>
-    <row r="366" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B366" s="2"/>
-      <c r="C366" s="2"/>
-    </row>
-    <row r="367" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B367" s="2"/>
-      <c r="C367" s="2"/>
-    </row>
-    <row r="368" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B368" s="2"/>
-      <c r="C368" s="2"/>
-    </row>
-    <row r="369" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B369" s="2"/>
-      <c r="C369" s="2"/>
-    </row>
-    <row r="370" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B370" s="2"/>
-      <c r="C370" s="2"/>
-    </row>
-    <row r="371" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B371" s="2"/>
-      <c r="C371" s="2"/>
-    </row>
-    <row r="372" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B372" s="2"/>
-      <c r="C372" s="2"/>
-    </row>
-    <row r="373" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B373" s="2"/>
-      <c r="C373" s="2"/>
-    </row>
-    <row r="374" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B374" s="2"/>
-      <c r="C374" s="2"/>
-    </row>
-    <row r="375" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B375" s="2"/>
-      <c r="C375" s="2"/>
-    </row>
-    <row r="376" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B376" s="2"/>
-      <c r="C376" s="2"/>
-    </row>
-    <row r="377" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B377" s="2"/>
-      <c r="C377" s="2"/>
-    </row>
-    <row r="378" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B378" s="2"/>
-      <c r="C378" s="2"/>
-    </row>
-    <row r="379" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B379" s="2"/>
-      <c r="C379" s="2"/>
-    </row>
-    <row r="380" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B380" s="2"/>
-      <c r="C380" s="2"/>
-    </row>
-    <row r="381" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B381" s="2"/>
-      <c r="C381" s="2"/>
-    </row>
-    <row r="382" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B382" s="2"/>
-      <c r="C382" s="2"/>
-    </row>
-    <row r="383" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B383" s="2"/>
-      <c r="C383" s="2"/>
-    </row>
-    <row r="384" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B384" s="2"/>
-      <c r="C384" s="2"/>
-    </row>
-    <row r="385" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B385" s="2"/>
-      <c r="C385" s="2"/>
-    </row>
-    <row r="386" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B386" s="2"/>
-      <c r="C386" s="2"/>
-    </row>
-    <row r="387" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B387" s="2"/>
-      <c r="C387" s="2"/>
-    </row>
-    <row r="388" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B388" s="2"/>
-      <c r="C388" s="2"/>
-    </row>
-    <row r="389" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B389" s="2"/>
-      <c r="C389" s="2"/>
-    </row>
-    <row r="390" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B390" s="2"/>
-      <c r="C390" s="2"/>
-    </row>
-    <row r="391" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B391" s="2"/>
-      <c r="C391" s="2"/>
-    </row>
-    <row r="392" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B392" s="2"/>
-      <c r="C392" s="2"/>
-    </row>
-    <row r="393" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B393" s="2"/>
-      <c r="C393" s="2"/>
-    </row>
-    <row r="394" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B394" s="2"/>
-      <c r="C394" s="2"/>
-    </row>
-    <row r="395" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B395" s="2"/>
-      <c r="C395" s="2"/>
-    </row>
-    <row r="396" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B396" s="2"/>
-      <c r="C396" s="2"/>
-    </row>
-    <row r="397" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B397" s="2"/>
-      <c r="C397" s="2"/>
-    </row>
-    <row r="398" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B398" s="2"/>
-      <c r="C398" s="2"/>
-    </row>
-    <row r="399" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B399" s="2"/>
-      <c r="C399" s="2"/>
-    </row>
-    <row r="400" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B400" s="2"/>
-      <c r="C400" s="2"/>
-    </row>
-    <row r="401" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B401" s="2"/>
-      <c r="C401" s="2"/>
-    </row>
-    <row r="402" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B402" s="2"/>
-      <c r="C402" s="2"/>
-    </row>
-    <row r="403" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B403" s="2"/>
-      <c r="C403" s="2"/>
-    </row>
-    <row r="404" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B404" s="2"/>
-      <c r="C404" s="2"/>
-    </row>
-    <row r="405" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B405" s="2"/>
-      <c r="C405" s="2"/>
-    </row>
-    <row r="406" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B406" s="2"/>
-      <c r="C406" s="2"/>
-    </row>
-    <row r="407" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B407" s="2"/>
-      <c r="C407" s="2"/>
-    </row>
-    <row r="408" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B408" s="2"/>
-      <c r="C408" s="2"/>
-    </row>
-    <row r="409" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B409" s="2"/>
-      <c r="C409" s="2"/>
-    </row>
-    <row r="410" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B410" s="2"/>
-      <c r="C410" s="2"/>
-    </row>
-    <row r="411" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B411" s="2"/>
-      <c r="C411" s="2"/>
-    </row>
-    <row r="412" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B412" s="2"/>
-      <c r="C412" s="2"/>
-    </row>
-    <row r="413" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B413" s="2"/>
-      <c r="C413" s="2"/>
-    </row>
-    <row r="414" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B414" s="2"/>
-      <c r="C414" s="2"/>
-    </row>
-    <row r="415" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B415" s="2"/>
-      <c r="C415" s="2"/>
-    </row>
-    <row r="416" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B416" s="2"/>
-      <c r="C416" s="2"/>
-    </row>
-    <row r="417" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B417" s="2"/>
-      <c r="C417" s="2"/>
-    </row>
-    <row r="418" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B418" s="2"/>
-      <c r="C418" s="2"/>
-    </row>
-    <row r="419" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B419" s="2"/>
-      <c r="C419" s="2"/>
-    </row>
-    <row r="420" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B420" s="2"/>
-      <c r="C420" s="2"/>
-    </row>
-    <row r="421" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B421" s="2"/>
-      <c r="C421" s="2"/>
-    </row>
-    <row r="422" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B422" s="2"/>
-      <c r="C422" s="2"/>
-    </row>
-    <row r="423" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B423" s="2"/>
-      <c r="C423" s="2"/>
-    </row>
-    <row r="424" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B424" s="2"/>
-      <c r="C424" s="2"/>
-    </row>
-    <row r="425" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B425" s="2"/>
-      <c r="C425" s="2"/>
-    </row>
-    <row r="426" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B426" s="2"/>
-      <c r="C426" s="2"/>
-    </row>
-    <row r="427" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B427" s="2"/>
-      <c r="C427" s="2"/>
-    </row>
-    <row r="428" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B428" s="2"/>
-      <c r="C428" s="2"/>
-    </row>
-    <row r="429" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B429" s="2"/>
-      <c r="C429" s="2"/>
-    </row>
-    <row r="430" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B430" s="2"/>
-      <c r="C430" s="2"/>
-    </row>
-    <row r="431" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B431" s="2"/>
-      <c r="C431" s="2"/>
-    </row>
-    <row r="432" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B432" s="2"/>
-      <c r="C432" s="2"/>
-    </row>
-    <row r="433" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B433" s="2"/>
-      <c r="C433" s="2"/>
-    </row>
-    <row r="434" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B434" s="2"/>
-      <c r="C434" s="2"/>
-    </row>
-    <row r="435" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B435" s="2"/>
-      <c r="C435" s="2"/>
-    </row>
-    <row r="436" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B436" s="2"/>
-      <c r="C436" s="2"/>
-    </row>
-    <row r="437" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B437" s="2"/>
-      <c r="C437" s="2"/>
-    </row>
-    <row r="438" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B438" s="2"/>
-      <c r="C438" s="2"/>
-    </row>
-    <row r="439" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B439" s="2"/>
-      <c r="C439" s="2"/>
-    </row>
-    <row r="440" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B440" s="2"/>
-      <c r="C440" s="2"/>
-    </row>
-    <row r="441" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B441" s="2"/>
-      <c r="C441" s="2"/>
-    </row>
-    <row r="442" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B442" s="2"/>
-      <c r="C442" s="2"/>
-    </row>
-    <row r="443" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B443" s="2"/>
-      <c r="C443" s="2"/>
-    </row>
-    <row r="444" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B444" s="2"/>
-      <c r="C444" s="2"/>
-    </row>
-    <row r="445" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B445" s="2"/>
-      <c r="C445" s="2"/>
-    </row>
-    <row r="446" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B446" s="2"/>
-      <c r="C446" s="2"/>
-    </row>
-    <row r="447" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B447" s="2"/>
-      <c r="C447" s="2"/>
-    </row>
-    <row r="448" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B448" s="2"/>
-      <c r="C448" s="2"/>
-    </row>
-    <row r="449" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B449" s="2"/>
-      <c r="C449" s="2"/>
-    </row>
-    <row r="450" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B450" s="2"/>
-      <c r="C450" s="2"/>
-    </row>
-    <row r="451" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B451" s="2"/>
-      <c r="C451" s="2"/>
-    </row>
-    <row r="452" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B452" s="2"/>
-      <c r="C452" s="2"/>
-    </row>
-    <row r="453" spans="2:3" x14ac:dyDescent="0.3">
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B453" s="2"/>
-      <c r="C453" s="2"/>
     </row>
   </sheetData>
   <hyperlinks>
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9D36C6E4-FA1B-41F3-A901-B4C61BBFD5DF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{17799F49-1821-4161-BB31-CFF3D6D443CF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5EE00BDA-82F9-4EA0-AE2E-F530EEFD8288}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId3"/>
   </tableParts>
 </worksheet>
 </file>
@@ -5658,11 +5343,9 @@
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
-  <dimension ref="A1:E2"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B2" sqref="B2"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5696,6 +5379,14 @@
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
       <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B3" t="s">
+        <v>118</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -5982,23 +5673,48 @@
       <c r="C3" s="3"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
+      <c r="A4" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>114</v>
+      </c>
       <c r="C4" s="3"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
+      <c r="A5" s="1">
+        <v>43784</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>115</v>
+      </c>
       <c r="C5" s="3"/>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
+      <c r="A6" s="1">
+        <v>43785</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>116</v>
+      </c>
       <c r="C6" s="3"/>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
+      <c r="A7" s="1">
+        <v>43788</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>117</v>
+      </c>
       <c r="C7" s="3"/>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
+      <c r="A8" s="1">
+        <v>43789</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>121</v>
+      </c>
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">

--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -1,11 +1,11 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20730"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DDDA3B49-3E60-4E9C-8249-8B5F6AD052C8}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C899000-6F29-4AE1-835D-27C81A44D934}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12648" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="207" uniqueCount="124">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
   <si>
     <t>Date</t>
   </si>
@@ -429,6 +429,156 @@
   </si>
   <si>
     <t>Tides - 12.26 , ebb, flow, syzygy, spring tide, neap tide, tidal bores</t>
+  </si>
+  <si>
+    <t>M0, M1, M2, M3, M4, Multiplier effect</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9Limo3CUVgM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=11</t>
+  </si>
+  <si>
+    <t>Temperature difference in ocean</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HWWUhuN15K0&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=18</t>
+  </si>
+  <si>
+    <t>Ocean salinity</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-DsJ-T6AuTM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=12</t>
+  </si>
+  <si>
+    <t xml:space="preserve">climatology - History, Layers, </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7e8CS63p6XE&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=19</t>
+  </si>
+  <si>
+    <t>SLR CRR Increamental CRR</t>
+  </si>
+  <si>
+    <t>Open market operation, Market stabalization scheme</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=66ywDYXXQYc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=13</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NI4SbyjTHMg&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=14</t>
+  </si>
+  <si>
+    <t>bank rate, repo rate, Reverse repo rate, MSF, Policy corridor</t>
+  </si>
+  <si>
+    <t>Fundametal duties</t>
+  </si>
+  <si>
+    <t>chalcolith</t>
+  </si>
+  <si>
+    <t>IVC</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Monetory policy committee, </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GjOeS2pbjTc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=15</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=88pr5vq5NUk&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=20</t>
+  </si>
+  <si>
+    <t>Heat Budget, Albedo, Convection and adjecion, Adiabatic lapse rate, Comditional Absolute stability and instability, Temperature inversion - fog Frost Stabality, Tropopause, Winter night, valley, Mist -&gt; Haze -&gt; fog -&gt; Smog, photochemical smog</t>
+  </si>
+  <si>
+    <t>Details of Harrappa</t>
+  </si>
+  <si>
+    <t xml:space="preserve">368 - Amendment to constitution </t>
+  </si>
+  <si>
+    <t>Basic structure of constitution, Parlimentary system - 74</t>
+  </si>
+  <si>
+    <t>End of Harrappa</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=u8QKLC2cReI&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=16</t>
+  </si>
+  <si>
+    <t>Selective Credit control, Credit authorization scheme, Priority sector, Credit guaranty cooperation of India, Priority sector Lending PSL- Banks, NABARD and SIDBI, PSL certificate, Interest Subversion scheme, PACS &lt;-&gt; DCCB, March Rush.</t>
+  </si>
+  <si>
+    <t>Start of Vedic culture</t>
+  </si>
+  <si>
+    <t>Federal structure</t>
+  </si>
+  <si>
+    <t>Plastic, thermal, Soldi waste, Bioremediation</t>
+  </si>
+  <si>
+    <t>Rain types, pressure belts, cells, wind types - planetary and dynamic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JtqH490JcC0&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=21</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=HLyyLG1NuGc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=17</t>
+  </si>
+  <si>
+    <t>Consumer credit control - Nano, Loan to value ratio(margin ratio) - Twinkle khanna, Moral suasion, Direct action</t>
+  </si>
+  <si>
+    <t>Union list state list and concurrent list</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yOTKISPGyqA&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=22</t>
+  </si>
+  <si>
+    <t>Upper tropospheric winds (geo-strophic winds) Rossby waves, Jet streams, Temporary jet streams- Tropical easterly, Somali Jet, Polar Night Jet, Air mass - cold and warm front</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CtbrBaVwTzM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=18</t>
+  </si>
+  <si>
+    <t>Base rate, Real intereset rate, Marginal cost of fucnds based lending rate, Sttuctural problems in Deposits and less borrowing, Fiscal repression</t>
+  </si>
+  <si>
+    <t>Completed later vedic period (PGW)</t>
+  </si>
+  <si>
+    <t>Temperate cyclones, Tropical cyclons</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p3Dseym4Le8&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=23</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GPitAk75hpo&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=24</t>
+  </si>
+  <si>
+    <t>Thunderstorm - thermal, orographic, cold front. Tornedo, Polar vortex, Cold wave, Nitric + CFC = Chlorine. Chlorine + Ozone = Depletion of Ozone. Montreal Protocol 87, Walker cell , El Nino Southern Oscillations (ENSO) , West Pacific Pool, El Nino year, La Nina</t>
+  </si>
+  <si>
+    <t>Financial relation Center - state</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=y_Q_Jeos2xc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=19</t>
+  </si>
+  <si>
+    <t>Mains answer writing</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=j3mZGQ1ymOM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=21</t>
+  </si>
+  <si>
+    <t>BASEL-III , CRAR, CCCB, PCA - Categories</t>
+  </si>
+  <si>
+    <t>Jainism</t>
+  </si>
+  <si>
+    <t xml:space="preserve">State-state, water dispute, Inter state councils, Zonal councils, Commerace, trade </t>
   </si>
 </sst>
 </file>
@@ -694,8 +844,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F18" totalsRowShown="0">
+  <autoFilter ref="A1:F18" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4D72BF4B-5688-4A0B-86A6-71381EE7C8F4}" name="Home"/>
     <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="5"/>
@@ -1120,8 +1270,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7EB74-F9F5-4EEB-B0CB-747CDB8CA83C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B17" sqref="B17"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A18" sqref="A18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1628,10 +1778,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F18"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A3" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1761,10 +1911,89 @@
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43791</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>126</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>128</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>130</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>143</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43803</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>153</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43805</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>159</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>163</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>166</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>165</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -1778,10 +2007,17 @@
     <hyperlink ref="C8" r:id="rId7" xr:uid="{B72E9A71-7280-4DC7-A3E4-7035419ABF21}"/>
     <hyperlink ref="C9" r:id="rId8" xr:uid="{3077E262-B944-4CC2-8380-FED6825FA11A}"/>
     <hyperlink ref="C10" r:id="rId9" xr:uid="{F24A8E5C-2C83-4AB8-B24B-A7C647D6DC59}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{1F949F4F-B8BF-4603-9992-AA4E325BBD0E}"/>
+    <hyperlink ref="C13" r:id="rId11" xr:uid="{3CF9482F-AC26-4DB2-8E04-D74739F10383}"/>
+    <hyperlink ref="C14" r:id="rId12" xr:uid="{AC6FF736-0B65-452D-B273-F934BDDC34FC}"/>
+    <hyperlink ref="C15" r:id="rId13" xr:uid="{C2506CA7-D54E-444B-978B-CFE82FF81089}"/>
+    <hyperlink ref="C16" r:id="rId14" xr:uid="{D3DF508B-1D07-4D2A-9186-97C4242FC8B6}"/>
+    <hyperlink ref="C17" r:id="rId15" xr:uid="{50909DA9-91A1-4191-8CEF-0F52C1DE4133}"/>
+    <hyperlink ref="C18" r:id="rId16" xr:uid="{ADF18F98-CCA1-4798-A26F-A40B9978AAA0}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId10"/>
+    <tablePart r:id="rId17"/>
   </tableParts>
 </worksheet>
 </file>
@@ -1922,7 +2158,7 @@
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="C10" sqref="C10"/>
+      <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -2183,9 +2419,11 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E5"/>
+  <dimension ref="A1:E12"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2242,6 +2480,62 @@
       </c>
       <c r="B5" s="2" t="s">
         <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>173</v>
       </c>
     </row>
   </sheetData>
@@ -3855,14 +4149,14 @@
   <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="65.44140625" customWidth="1"/>
-    <col min="3" max="3" width="44.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="55.44140625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -3935,66 +4229,126 @@
         <v>93</v>
       </c>
     </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43782</v>
       </c>
       <c r="B6" s="2" t="s">
         <v>103</v>
       </c>
-      <c r="C6" s="4" t="s">
+      <c r="C6" s="3" t="s">
         <v>102</v>
       </c>
     </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
+    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43790</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>124</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43795</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>133</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>136</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>140</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>149</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>156</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43807</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>161</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>160</v>
+      </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
+      <c r="A15" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>169</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>168</v>
+      </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
+      <c r="A16" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>171</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>170</v>
+      </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="1"/>
@@ -5333,17 +5687,27 @@
     <hyperlink ref="C4" r:id="rId3" xr:uid="{1FE44990-15F2-4221-B6C8-CB1E4200031B}"/>
     <hyperlink ref="C5" r:id="rId4" xr:uid="{98CF3523-80A3-4108-AE30-D87CFF3CD480}"/>
     <hyperlink ref="C6" r:id="rId5" xr:uid="{12E8B79C-FEF2-496E-95E4-6EC431575902}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{4774B49E-6900-4500-949A-BEC607A0BCF5}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{2334FAA5-0DB1-4453-92E8-F3995697D9B5}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{6885A384-6090-40FF-9F20-0F590E486636}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{C8B3B0DB-3EB9-4D1A-927D-D02E5F89E0F4}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{AE3AD3B2-D5B2-4F8F-852E-D92A909F363A}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{450E6FC5-5EFA-456D-86B3-F361833B6A52}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{8139649B-2E8D-4B37-80D3-A11EFE0D6C79}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{23778C05-E396-4049-B2D7-237A119F87A3}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{ACA9B929-4630-4366-8DDB-DC34C263CCA6}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{6B1DFD3C-028E-4086-B68A-9F668F60DC04}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId6"/>
+    <tablePart r:id="rId16"/>
   </tableParts>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:E4"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -5386,6 +5750,14 @@
       </c>
       <c r="B3" t="s">
         <v>118</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B4" t="s">
+        <v>152</v>
       </c>
     </row>
   </sheetData>
@@ -5718,31 +6090,66 @@
       <c r="C8" s="3"/>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
+      <c r="A9" s="1">
+        <v>43796</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>138</v>
+      </c>
       <c r="C9" s="3"/>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
+      <c r="A10" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>139</v>
+      </c>
       <c r="C10" s="3"/>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
+      <c r="A11" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>144</v>
+      </c>
       <c r="C11" s="3"/>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
+      <c r="A12" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>147</v>
+      </c>
       <c r="C12" s="3"/>
     </row>
     <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
+      <c r="A13" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>150</v>
+      </c>
       <c r="C13" s="3"/>
     </row>
     <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
+      <c r="A14" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>162</v>
+      </c>
       <c r="C14" s="3"/>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
+      <c r="A15" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>172</v>
+      </c>
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">

--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,9 +3,9 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3C899000-6F29-4AE1-835D-27C81A44D934}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17155775-C110-4915-96C6-26E2F8CB728C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="13" activeTab="19" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
@@ -57,7 +57,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="257" uniqueCount="174">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="180">
   <si>
     <t>Date</t>
   </si>
@@ -579,6 +579,24 @@
   </si>
   <si>
     <t xml:space="preserve">State-state, water dispute, Inter state councils, Zonal councils, Commerace, trade </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DSV7pITXHaI&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=25</t>
+  </si>
+  <si>
+    <t>12 climatic regions of the world</t>
+  </si>
+  <si>
+    <t>Tundra , taiga china type</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9UG56TwViLc&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=27</t>
+  </si>
+  <si>
+    <t>Buddha time Society</t>
+  </si>
+  <si>
+    <t>Emergency prov</t>
   </si>
 </sst>
 </file>
@@ -844,8 +862,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F18" totalsRowShown="0">
-  <autoFilter ref="A1:F18" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F20" totalsRowShown="0">
+  <autoFilter ref="A1:F20" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4D72BF4B-5688-4A0B-86A6-71381EE7C8F4}" name="Home"/>
     <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="5"/>
@@ -1270,8 +1288,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7EB74-F9F5-4EEB-B0CB-747CDB8CA83C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A18" sqref="A18"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1778,10 +1796,10 @@
 
 <file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F18"/>
+  <dimension ref="A1:F20"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A6" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -1993,6 +2011,28 @@
       </c>
       <c r="C18" s="4" t="s">
         <v>165</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43810</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>176</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>177</v>
       </c>
     </row>
   </sheetData>
@@ -2014,10 +2054,12 @@
     <hyperlink ref="C16" r:id="rId14" xr:uid="{D3DF508B-1D07-4D2A-9186-97C4242FC8B6}"/>
     <hyperlink ref="C17" r:id="rId15" xr:uid="{50909DA9-91A1-4191-8CEF-0F52C1DE4133}"/>
     <hyperlink ref="C18" r:id="rId16" xr:uid="{ADF18F98-CCA1-4798-A26F-A40B9978AAA0}"/>
+    <hyperlink ref="C19" r:id="rId17" xr:uid="{584C44FA-CA30-4F16-8F3A-4AA59BFB34BB}"/>
+    <hyperlink ref="C20" r:id="rId18" xr:uid="{C60BAE92-711D-40C8-83A3-04C25670ABC7}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId17"/>
+    <tablePart r:id="rId19"/>
   </tableParts>
 </worksheet>
 </file>
@@ -2419,11 +2461,9 @@
 
 <file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E12"/>
+  <dimension ref="A1:E13"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B15" sqref="B15"/>
-    </sheetView>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2536,6 +2576,14 @@
       </c>
       <c r="B12" s="2" t="s">
         <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>179</v>
       </c>
     </row>
   </sheetData>
@@ -6153,7 +6201,12 @@
       <c r="C15" s="4"/>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
+      <c r="A16" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>178</v>
+      </c>
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">

--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -3,49 +3,50 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{17155775-C110-4915-96C6-26E2F8CB728C}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B30A7-D03A-427D-9360-2DACD6D765D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="29" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
-    <sheet name="Daily Hindu" sheetId="35" r:id="rId2"/>
-    <sheet name="Quora" sheetId="34" r:id="rId3"/>
-    <sheet name="History Vedic" sheetId="38" r:id="rId4"/>
-    <sheet name="Kurukshetra" sheetId="37" r:id="rId5"/>
-    <sheet name="Yojana" sheetId="36" r:id="rId6"/>
-    <sheet name="AncientHistory" sheetId="1" r:id="rId7"/>
-    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId8"/>
-    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId9"/>
-    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId10"/>
-    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId11"/>
-    <sheet name="Art- Class11" sheetId="6" r:id="rId12"/>
-    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId13"/>
-    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId14"/>
-    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId15"/>
-    <sheet name="Eng" sheetId="10" r:id="rId16"/>
-    <sheet name="Geo- PMF" sheetId="11" r:id="rId17"/>
-    <sheet name="Geo - Atlas" sheetId="12" r:id="rId18"/>
-    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId19"/>
-    <sheet name="Polity- laxmi" sheetId="14" r:id="rId20"/>
-    <sheet name="Polity- ARC report" sheetId="15" r:id="rId21"/>
-    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId22"/>
-    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId23"/>
-    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId24"/>
-    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId25"/>
-    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId26"/>
-    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId27"/>
-    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId28"/>
-    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId29"/>
-    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId30"/>
-    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId31"/>
-    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId32"/>
-    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId33"/>
-    <sheet name="Disaster- ARC" sheetId="28" r:id="rId34"/>
-    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId35"/>
-    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId36"/>
-    <sheet name="Ethics -Arc" sheetId="31" r:id="rId37"/>
-    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId38"/>
+    <sheet name="PtCurrent" sheetId="39" r:id="rId2"/>
+    <sheet name="Daily Hindu" sheetId="35" r:id="rId3"/>
+    <sheet name="Quora" sheetId="34" r:id="rId4"/>
+    <sheet name="History Vedic" sheetId="38" r:id="rId5"/>
+    <sheet name="Kurukshetra" sheetId="37" r:id="rId6"/>
+    <sheet name="Yojana" sheetId="36" r:id="rId7"/>
+    <sheet name="AncientHistory" sheetId="1" r:id="rId8"/>
+    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId9"/>
+    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId10"/>
+    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId11"/>
+    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId12"/>
+    <sheet name="Art- Class11" sheetId="6" r:id="rId13"/>
+    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId14"/>
+    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId15"/>
+    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId16"/>
+    <sheet name="Eng" sheetId="10" r:id="rId17"/>
+    <sheet name="Geo- PMF" sheetId="11" r:id="rId18"/>
+    <sheet name="Geo - Atlas" sheetId="12" r:id="rId19"/>
+    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId20"/>
+    <sheet name="Polity- laxmi" sheetId="14" r:id="rId21"/>
+    <sheet name="Polity- ARC report" sheetId="15" r:id="rId22"/>
+    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId23"/>
+    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId24"/>
+    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId25"/>
+    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId26"/>
+    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId27"/>
+    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId28"/>
+    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId29"/>
+    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId30"/>
+    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId31"/>
+    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId32"/>
+    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId33"/>
+    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId34"/>
+    <sheet name="Disaster- ARC" sheetId="28" r:id="rId35"/>
+    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId36"/>
+    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId37"/>
+    <sheet name="Ethics -Arc" sheetId="31" r:id="rId38"/>
+    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId39"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -57,7 +58,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="263" uniqueCount="180">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="264">
   <si>
     <t>Date</t>
   </si>
@@ -597,6 +598,258 @@
   </si>
   <si>
     <t>Emergency prov</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zrCXNhY8XSE&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=22</t>
+  </si>
+  <si>
+    <t>NPA - 3 stages, impacted sectors</t>
+  </si>
+  <si>
+    <t>Maurya Empire</t>
+  </si>
+  <si>
+    <t>Renewable energy</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IO1Ug6lSVM4&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=28</t>
+  </si>
+  <si>
+    <t>History of indian sub continent, Himalaya, Trans Himalaya and Purvanchal</t>
+  </si>
+  <si>
+    <t>1 Nov pt 365</t>
+  </si>
+  <si>
+    <t>http://ca.pteducation.com/p/news01112019.html</t>
+  </si>
+  <si>
+    <t>President</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=GQ-LVYwB-Wk&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=29</t>
+  </si>
+  <si>
+    <t>Nothern plains</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Uese9dkgx-0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=23</t>
+  </si>
+  <si>
+    <t>SDR, 3R, S4A, IBC, Agri loans, 5/25 Infra loans</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9FAwSmkF5dQ&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=30</t>
+  </si>
+  <si>
+    <t>Peninsular plateu and coastal plain</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lFu-A27shRQ&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=24</t>
+  </si>
+  <si>
+    <t>PARA, BanK Board Beuro</t>
+  </si>
+  <si>
+    <t>Vice-president, Prime Minister</t>
+  </si>
+  <si>
+    <t>Down of History in Deep south</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6rm_D2mkLU0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=25</t>
+  </si>
+  <si>
+    <t>RBI History, NPA ordinance, Structure, Functions, Enforcement Dept</t>
+  </si>
+  <si>
+    <t>Indian River systema and river linking project</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8ua44Cv_i0g&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=31</t>
+  </si>
+  <si>
+    <t>Tourism , Roads , Sand mining</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wcc-KvpZCw8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=26</t>
+  </si>
+  <si>
+    <t>Banks merger and privatization</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gUHto7ASd8Q&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=32</t>
+  </si>
+  <si>
+    <t>Monsoon of India</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2a6XtVJkv-c&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=33</t>
+  </si>
+  <si>
+    <t>Climatic regions of India and Forest types</t>
+  </si>
+  <si>
+    <t>Start of Gupta</t>
+  </si>
+  <si>
+    <t>Complete Gupta</t>
+  </si>
+  <si>
+    <t>Council of Ministers , 74,75</t>
+  </si>
+  <si>
+    <t>Palm Oil, Shark, Train-elephant, Air Pollution</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=p37ad1xdEII&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=35</t>
+  </si>
+  <si>
+    <t>Flood, draught, Watershed management, rainfed, mulching, checkdams</t>
+  </si>
+  <si>
+    <t>http://ca.pteducation.com/p/news02112019.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jOIy6g372nQ&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=36</t>
+  </si>
+  <si>
+    <t>Soil  - Formation, Profile, Erosion, Salinity, Desertification</t>
+  </si>
+  <si>
+    <t>Life in the Gupta Age</t>
+  </si>
+  <si>
+    <t>http://ca.pteducation.com/p/365content2019.html</t>
+  </si>
+  <si>
+    <t>Universal commercial banks, Differential banks - RRB, LAB, SFB, Payment banks</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wxM_EFXdeoE&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=37</t>
+  </si>
+  <si>
+    <t>Soil types in India and Land use pattern</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=v8CeDM_xqRc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=27</t>
+  </si>
+  <si>
+    <t>Spread of Civilization in eastern India</t>
+  </si>
+  <si>
+    <t>http://ca.pteducation.com/2019/11/current-affairs-editorials-03-november-2019.html</t>
+  </si>
+  <si>
+    <t>Harsha time</t>
+  </si>
+  <si>
+    <t>Environmental Impact Assesment</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=r2ZR2Czghho&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=38</t>
+  </si>
+  <si>
+    <t>indian Agri</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=XivIwxS5bSU&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=28</t>
+  </si>
+  <si>
+    <t>Wholesale bank, Custodian bank, Cooperative banks - RURAL and URBAN. NBFI - EXIM, NABARD, NHB, SIDBI</t>
+  </si>
+  <si>
+    <t>Chalukya, Pallava, Pandya, Vatakas, Kalbhra Movement</t>
+  </si>
+  <si>
+    <t>Philosophy - Samkhya, Yoga, Nyaya, Vaisheshika, Mimansa, Vedanta. Brahmsuatra- Badarayun, Shankara, Ramanuj, Charvaka(lokyata)</t>
+  </si>
+  <si>
+    <t>Parliament</t>
+  </si>
+  <si>
+    <t>NBFC , Islamic bank, Mudra</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7SFaHLd4DLs&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=29</t>
+  </si>
+  <si>
+    <t>http://ca.pteducation.com/p/news04112019.html</t>
+  </si>
+  <si>
+    <t>Investment Funds [ETF, ReITs, InvITs], Debt, Equity, &amp; Derivatives</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Vfe0nZLleZ8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=30</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=VeTc9xBO1Po&amp;list=PLux6CMNQSbxqI8L72NeUVOhyco0YgRXUb&amp;index=39</t>
+  </si>
+  <si>
+    <t>land reforms and land problems, agro climatic regions</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rA2SN_Iiy3M&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=40</t>
+  </si>
+  <si>
+    <t>http://ca.pteducation.com/p/news05112019.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Ed08XRmSVw4&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=31</t>
+  </si>
+  <si>
+    <t>BSE, NSE , scams and resolutions</t>
+  </si>
+  <si>
+    <t>Companies act, Coporate governance</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kPJ5YCVSZ_8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=32</t>
+  </si>
+  <si>
+    <t>Insurance sector, Life and general, IRDAI, SAT,</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=h0_kKSzx2r8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=33</t>
+  </si>
+  <si>
+    <t>financial Inclusion- Banking, Credit/loan, investment, Insurance</t>
+  </si>
+  <si>
+    <t>fertilizers - Irrigation</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Xu1-Xh17v5Y&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=34</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RffkMdKNcFA&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=35</t>
+  </si>
+  <si>
+    <t>Pension and Insurance schemes by Govt</t>
+  </si>
+  <si>
+    <t>Bill Procedure, Money bill</t>
+  </si>
+  <si>
+    <t>http://ca.pteducation.com/p/news06112019.html</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1yn97vYXh1w&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=36</t>
+  </si>
+  <si>
+    <t>Budget- Revenue, Capital</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=FTS0bSaK7k0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=37</t>
+  </si>
+  <si>
+    <t>Revenue- Recipt- Diredt Indirect taxes</t>
+  </si>
+  <si>
+    <t>Financial bill 1,  2 , Budget - stages</t>
+  </si>
+  <si>
+    <t>Biodiversity - Levels - Genetic, Species, Ecosystem. Measure of Biodiversity- Species richness and Evenness, Conservation- In situ, Ex Situ. Red Data Book</t>
   </si>
 </sst>
 </file>
@@ -862,8 +1115,8 @@
 </file>
 
 <file path=xl/tables/table10.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F20" totalsRowShown="0">
-  <autoFilter ref="A1:F20" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="10" xr:uid="{A081B99D-F278-4F95-95E6-7207F3F9B96B}" name="Table111" displayName="Table111" ref="A1:F139" totalsRowShown="0">
+  <autoFilter ref="A1:F139" xr:uid="{968485CF-8D3C-47F4-8E2E-5E4D31447CCA}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4D72BF4B-5688-4A0B-86A6-71381EE7C8F4}" name="Home"/>
     <tableColumn id="2" xr3:uid="{2E1C8E99-106C-41D9-8FDC-6A3BA99AB470}" name="Topic" dataDxfId="5"/>
@@ -925,7 +1178,7 @@
 <table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="2" xr:uid="{44B23C92-BE49-41F7-94A6-3025F030922A}" name="Table13" displayName="Table13" ref="A1:F14" totalsRowShown="0">
   <autoFilter ref="A1:F14" xr:uid="{BC9C2C47-DCC1-4D84-8B2B-E6177ED79464}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{262B836A-3EE1-46B2-887C-BC31972B2F4A}" name="Date"/>
+    <tableColumn id="1" xr3:uid="{262B836A-3EE1-46B2-887C-BC31972B2F4A}" name="Home"/>
     <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="14"/>
     <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link" dataDxfId="13"/>
     <tableColumn id="3" xr3:uid="{734B2052-8E90-4356-8ED4-420360436E3E}" name="Revision 1 date"/>
@@ -1288,8 +1541,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EBA7EB74-F9F5-4EEB-B0CB-747CDB8CA83C}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D19" sqref="D19"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1344,7 +1597,7 @@
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="16" t="s">
+      <c r="A5" s="21" t="s">
         <v>96</v>
       </c>
       <c r="B5" s="17" t="s">
@@ -1427,7 +1680,7 @@
       <c r="A15" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="B15" t="s">
+      <c r="B15" s="20" t="s">
         <v>71</v>
       </c>
     </row>
@@ -1525,12 +1778,97 @@
     <hyperlink ref="B12" location="Yojana!A1" display="Yojana" xr:uid="{44D47332-9213-44A4-9682-50767ECCFB1C}"/>
     <hyperlink ref="B13" location="Kurukshetra!A1" display="Kurukshetra" xr:uid="{03570F46-8CB1-4137-B13F-704A293B491F}"/>
     <hyperlink ref="B4" location="'History Vedic'!A1" display="History - Vedic" xr:uid="{DCFC1395-58A9-4F9C-A3F8-3941D42053D6}"/>
+    <hyperlink ref="B15" location="PtCurrent!A1" display="PT current affairs" xr:uid="{3D2565B4-404E-4394-801C-B6C08F7E40CC}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
+  <dimension ref="A1:F13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B27" sqref="B27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="80.44140625" style="2" customWidth="1"/>
+    <col min="3" max="3" width="58.21875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="C10" s="4"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+  <tableParts count="1">
+    <tablePart r:id="rId2"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1581,7 +1919,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
   <dimension ref="A1:F6"/>
   <sheetViews>
@@ -1643,7 +1981,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B093A3-08AD-4C6E-A23B-42579CAFD690}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -1697,7 +2035,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8307D7-CFCD-4379-9421-921A35A6E178}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -1735,7 +2073,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -1794,19 +2132,19 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F20"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A17" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="70.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="39.109375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="86.5546875" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
@@ -1851,7 +2189,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43774</v>
       </c>
@@ -1862,7 +2200,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43775</v>
       </c>
@@ -1873,7 +2211,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43781</v>
       </c>
@@ -1884,7 +2222,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43783</v>
       </c>
@@ -1895,36 +2233,36 @@
         <v>83</v>
       </c>
     </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43784</v>
       </c>
       <c r="B8" s="2" t="s">
         <v>111</v>
       </c>
-      <c r="C8" s="4" t="s">
+      <c r="C8" s="3" t="s">
         <v>106</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43787</v>
       </c>
       <c r="B9" s="2" t="s">
         <v>112</v>
       </c>
-      <c r="C9" s="4" t="s">
+      <c r="C9" s="3" t="s">
         <v>113</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43789</v>
       </c>
       <c r="B10" s="2" t="s">
         <v>123</v>
       </c>
-      <c r="C10" s="4" t="s">
+      <c r="C10" s="3" t="s">
         <v>122</v>
       </c>
     </row>
@@ -1936,25 +2274,25 @@
         <v>126</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43795</v>
       </c>
       <c r="B12" s="2" t="s">
         <v>128</v>
       </c>
-      <c r="C12" s="4" t="s">
+      <c r="C12" s="3" t="s">
         <v>127</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43797</v>
       </c>
       <c r="B13" s="2" t="s">
         <v>130</v>
       </c>
-      <c r="C13" s="4" t="s">
+      <c r="C13" s="3" t="s">
         <v>131</v>
       </c>
     </row>
@@ -1965,18 +2303,18 @@
       <c r="B14" s="2" t="s">
         <v>143</v>
       </c>
-      <c r="C14" s="4" t="s">
+      <c r="C14" s="3" t="s">
         <v>142</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43803</v>
       </c>
       <c r="B15" s="2" t="s">
         <v>153</v>
       </c>
-      <c r="C15" s="4" t="s">
+      <c r="C15" s="3" t="s">
         <v>154</v>
       </c>
     </row>
@@ -1987,18 +2325,18 @@
       <c r="B16" s="2" t="s">
         <v>159</v>
       </c>
-      <c r="C16" s="4" t="s">
+      <c r="C16" s="3" t="s">
         <v>158</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43807</v>
       </c>
       <c r="B17" s="2" t="s">
         <v>163</v>
       </c>
-      <c r="C17" s="4" t="s">
+      <c r="C17" s="3" t="s">
         <v>164</v>
       </c>
     </row>
@@ -2009,30 +2347,162 @@
       <c r="B18" s="2" t="s">
         <v>166</v>
       </c>
-      <c r="C18" s="4" t="s">
+      <c r="C18" s="3" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43810</v>
       </c>
       <c r="B19" s="2" t="s">
         <v>175</v>
       </c>
-      <c r="C19" s="4" t="s">
+      <c r="C19" s="3" t="s">
         <v>174</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43823</v>
       </c>
       <c r="B20" s="2" t="s">
         <v>176</v>
       </c>
-      <c r="C20" s="4" t="s">
+      <c r="C20" s="3" t="s">
         <v>177</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>185</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>190</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>189</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>194</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>193</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>201</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>202</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43831</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>207</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>206</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43832</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>209</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>208</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A27" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>215</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A29" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>223</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>230</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>242</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>241</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>252</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>243</v>
       </c>
     </row>
   </sheetData>
@@ -2056,15 +2526,27 @@
     <hyperlink ref="C18" r:id="rId16" xr:uid="{ADF18F98-CCA1-4798-A26F-A40B9978AAA0}"/>
     <hyperlink ref="C19" r:id="rId17" xr:uid="{584C44FA-CA30-4F16-8F3A-4AA59BFB34BB}"/>
     <hyperlink ref="C20" r:id="rId18" xr:uid="{C60BAE92-711D-40C8-83A3-04C25670ABC7}"/>
+    <hyperlink ref="C21" r:id="rId19" xr:uid="{E9A848AA-D833-4AAA-9EAC-6A78995E00B0}"/>
+    <hyperlink ref="C22" r:id="rId20" xr:uid="{57E6757F-1920-4330-AEE0-768DD7CE1C05}"/>
+    <hyperlink ref="C23" r:id="rId21" xr:uid="{0D5E52BB-A60A-406A-8651-8CA055A5C833}"/>
+    <hyperlink ref="C24" r:id="rId22" xr:uid="{3B8AED17-FC6A-44F5-A3FD-DDA3D73B5AEF}"/>
+    <hyperlink ref="C25" r:id="rId23" xr:uid="{F964E26A-33C5-4703-B7DE-A95AF0D4B632}"/>
+    <hyperlink ref="C26" r:id="rId24" xr:uid="{4DD8FE52-9DC4-437E-9ABE-82BF0A3732B3}"/>
+    <hyperlink ref="C27" r:id="rId25" xr:uid="{D800DB48-D868-4FCC-93F6-83659D81444F}"/>
+    <hyperlink ref="C28" r:id="rId26" xr:uid="{BA8CFB59-AB0B-43BF-AD9F-AB0BC8505E25}"/>
+    <hyperlink ref="C29" r:id="rId27" xr:uid="{809873E1-B409-4A43-9D84-A8948A940290}"/>
+    <hyperlink ref="C30" r:id="rId28" xr:uid="{1AA9426E-81F5-43E1-B21F-4C67BAF4AE02}"/>
+    <hyperlink ref="C31" r:id="rId29" xr:uid="{1ECAADC4-F528-49C9-9288-E5F60981C400}"/>
+    <hyperlink ref="C32" r:id="rId30" xr:uid="{FAEC95BC-7B5E-4F54-B2FD-01C4B1440CE2}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId19"/>
+    <tablePart r:id="rId31"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83403EBF-35A0-46D6-914B-8481A514EC72}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2088,7 +2570,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC83EB28-B904-4728-8EE6-C29E47C604CC}">
   <dimension ref="A1:F12"/>
   <sheetViews>
@@ -2170,7 +2652,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9311E76-2DC7-40B3-986C-2633EA95A7E8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2182,7 +2664,126 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC45D955-E377-4351-AB0C-67F1F7A77876}">
+  <dimension ref="A1:G7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="14.77734375" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43824</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>186</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>187</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>216</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>238</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>257</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{8E302C93-9BBC-4A32-964B-696B5E43AB8A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3620654A-B586-4474-A049-2597A7E29A90}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5330ED9F-8803-4D50-8D8D-7B160A9D71F8}"/>
+    <hyperlink ref="G1" r:id="rId3" xr:uid="{6AA639E5-23CD-4F20-B910-09B153949EEB}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{FB753580-EDAE-4495-8C63-9C0BDED2D401}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{8F3C5418-4924-4772-8C65-1CECD5C62C08}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{6F2FB107-B50E-470B-8993-BFEFE59B426A}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{7383BCC2-45EF-4002-B957-E5472FAB965F}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B27BEC-CCAE-4770-A888-58036A4D3E39}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2194,7 +2795,297 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
+  <dimension ref="A1:E19"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="68.5546875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43769</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>58</v>
+      </c>
+      <c r="C2" s="12"/>
+      <c r="D2" s="12"/>
+      <c r="E2" s="13"/>
+    </row>
+    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43773</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43779</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>95</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43782</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43797</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43800</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43801</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43802</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43804</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43808</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43809</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43823</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>188</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A15" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B15" s="2" t="s">
+        <v>197</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A16" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B16" s="2" t="s">
+        <v>212</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>235</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>256</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>262</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{A06AE9D2-9989-46EC-AF3B-1BA012CE96A1}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6019475-EBF6-4229-92D0-55A2714CB4B1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259E504-D197-4591-BEBF-8FC89FF6F84A}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA582211-4BB8-4F1C-B635-52AB5DC2DE12}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M27" sqref="M27"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38EDEC-6912-45F4-9FBB-08C9E71DEFBF}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374539E4-7CF2-4F3F-9787-D7863CD828AC}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D44057-A20E-416F-ADAE-EB28CDDF41C6}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L25" sqref="L25"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79CAE7F-8B70-40F9-9409-D3DD3B1AB4C1}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="L28" sqref="L28"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E5530C-6B8D-4CA2-8B89-67D4E09E2843}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J26" sqref="J26"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64904A22-8EE5-497D-9E05-7789FA782D5C}">
   <dimension ref="A1:F22"/>
   <sheetViews>
@@ -2459,249 +3350,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E13"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="68.5546875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="E1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>43769</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>58</v>
-      </c>
-      <c r="C2" s="12"/>
-      <c r="D2" s="12"/>
-      <c r="E2" s="13"/>
-    </row>
-    <row r="3" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43773</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43779</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>95</v>
-      </c>
-    </row>
-    <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43782</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43797</v>
-      </c>
-      <c r="B6" s="2" t="s">
-        <v>137</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43800</v>
-      </c>
-      <c r="B7" s="2" t="s">
-        <v>145</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A8" s="1">
-        <v>43801</v>
-      </c>
-      <c r="B8" s="2" t="s">
-        <v>146</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A9" s="1">
-        <v>43802</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>151</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A10" s="1">
-        <v>43804</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>157</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A11" s="1">
-        <v>43808</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>167</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A12" s="1">
-        <v>43809</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>173</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A13" s="1">
-        <v>43823</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>179</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{A06AE9D2-9989-46EC-AF3B-1BA012CE96A1}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6019475-EBF6-4229-92D0-55A2714CB4B1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259E504-D197-4591-BEBF-8FC89FF6F84A}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA582211-4BB8-4F1C-B635-52AB5DC2DE12}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="M27" sqref="M27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38EDEC-6912-45F4-9FBB-08C9E71DEFBF}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374539E4-7CF2-4F3F-9787-D7863CD828AC}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D44057-A20E-416F-ADAE-EB28CDDF41C6}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L25" sqref="L25"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79CAE7F-8B70-40F9-9409-D3DD3B1AB4C1}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L28" sqref="L28"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E5530C-6B8D-4CA2-8B89-67D4E09E2843}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="J26" sqref="J26"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432A11B7-8944-4C91-BE01-35A0863531CC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2715,1470 +3364,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6DB33B-2212-47A2-B730-D0EAFF285240}">
-  <dimension ref="A1:F453"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="44" customWidth="1"/>
-    <col min="3" max="3" width="38.6640625" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
-        <v>43783</v>
-      </c>
-      <c r="B2" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43783</v>
-      </c>
-      <c r="B3" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="B8" s="2"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="B9" s="2"/>
-      <c r="C9" s="3"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="B10" s="2"/>
-      <c r="C10" s="3"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-      <c r="B11" s="2"/>
-      <c r="C11" s="3"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-      <c r="B12" s="2"/>
-      <c r="C12" s="3"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-      <c r="B13" s="2"/>
-      <c r="C13" s="3"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="1"/>
-      <c r="B14" s="2"/>
-      <c r="C14" s="3"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="1"/>
-      <c r="B15" s="2"/>
-      <c r="C15" s="3"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="1"/>
-      <c r="B16" s="2"/>
-      <c r="C16" s="3"/>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
-    </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
-    </row>
-    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B51" s="2"/>
-    </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B53" s="2"/>
-    </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B54" s="2"/>
-    </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B55" s="2"/>
-    </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B56" s="2"/>
-    </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B57" s="2"/>
-    </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B58" s="2"/>
-    </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B59" s="2"/>
-    </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B60" s="2"/>
-    </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B61" s="2"/>
-    </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B62" s="2"/>
-    </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B63" s="2"/>
-    </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B64" s="2"/>
-    </row>
-    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B65" s="2"/>
-    </row>
-    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B66" s="2"/>
-    </row>
-    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B67" s="2"/>
-    </row>
-    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B68" s="2"/>
-    </row>
-    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B69" s="2"/>
-    </row>
-    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B70" s="2"/>
-    </row>
-    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B71" s="2"/>
-    </row>
-    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B72" s="2"/>
-    </row>
-    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B73" s="2"/>
-    </row>
-    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B74" s="2"/>
-    </row>
-    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B75" s="2"/>
-    </row>
-    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B76" s="2"/>
-    </row>
-    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B77" s="2"/>
-    </row>
-    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B78" s="2"/>
-    </row>
-    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B79" s="2"/>
-    </row>
-    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B80" s="2"/>
-    </row>
-    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B81" s="2"/>
-    </row>
-    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B82" s="2"/>
-    </row>
-    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B83" s="2"/>
-    </row>
-    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B84" s="2"/>
-    </row>
-    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B85" s="2"/>
-    </row>
-    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B86" s="2"/>
-    </row>
-    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B87" s="2"/>
-    </row>
-    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B88" s="2"/>
-    </row>
-    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B89" s="2"/>
-    </row>
-    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B90" s="2"/>
-    </row>
-    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B91" s="2"/>
-    </row>
-    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B92" s="2"/>
-    </row>
-    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B93" s="2"/>
-    </row>
-    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B94" s="2"/>
-    </row>
-    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B95" s="2"/>
-    </row>
-    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B96" s="2"/>
-    </row>
-    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B97" s="2"/>
-    </row>
-    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B98" s="2"/>
-    </row>
-    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B99" s="2"/>
-    </row>
-    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B100" s="2"/>
-    </row>
-    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B101" s="2"/>
-    </row>
-    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B102" s="2"/>
-    </row>
-    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B103" s="2"/>
-    </row>
-    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B104" s="2"/>
-    </row>
-    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B105" s="2"/>
-    </row>
-    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B106" s="2"/>
-    </row>
-    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B107" s="2"/>
-    </row>
-    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B108" s="2"/>
-    </row>
-    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B109" s="2"/>
-    </row>
-    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B110" s="2"/>
-    </row>
-    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B111" s="2"/>
-    </row>
-    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B112" s="2"/>
-    </row>
-    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B113" s="2"/>
-    </row>
-    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B114" s="2"/>
-    </row>
-    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B115" s="2"/>
-    </row>
-    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B116" s="2"/>
-    </row>
-    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B117" s="2"/>
-    </row>
-    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B118" s="2"/>
-    </row>
-    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B119" s="2"/>
-    </row>
-    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B120" s="2"/>
-    </row>
-    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B121" s="2"/>
-    </row>
-    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B122" s="2"/>
-    </row>
-    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B123" s="2"/>
-    </row>
-    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B124" s="2"/>
-    </row>
-    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B125" s="2"/>
-    </row>
-    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B126" s="2"/>
-    </row>
-    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B127" s="2"/>
-    </row>
-    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B128" s="2"/>
-    </row>
-    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B129" s="2"/>
-    </row>
-    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B130" s="2"/>
-    </row>
-    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B131" s="2"/>
-    </row>
-    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B132" s="2"/>
-    </row>
-    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B133" s="2"/>
-    </row>
-    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B134" s="2"/>
-    </row>
-    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B135" s="2"/>
-    </row>
-    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B136" s="2"/>
-    </row>
-    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B137" s="2"/>
-    </row>
-    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B138" s="2"/>
-    </row>
-    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B139" s="2"/>
-    </row>
-    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B140" s="2"/>
-    </row>
-    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B141" s="2"/>
-    </row>
-    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B142" s="2"/>
-    </row>
-    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B143" s="2"/>
-    </row>
-    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B144" s="2"/>
-    </row>
-    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B145" s="2"/>
-    </row>
-    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B146" s="2"/>
-    </row>
-    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B147" s="2"/>
-    </row>
-    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B148" s="2"/>
-    </row>
-    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B149" s="2"/>
-    </row>
-    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B150" s="2"/>
-    </row>
-    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B151" s="2"/>
-    </row>
-    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B152" s="2"/>
-    </row>
-    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B153" s="2"/>
-    </row>
-    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B154" s="2"/>
-    </row>
-    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B155" s="2"/>
-    </row>
-    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B156" s="2"/>
-    </row>
-    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B157" s="2"/>
-    </row>
-    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B158" s="2"/>
-    </row>
-    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B159" s="2"/>
-    </row>
-    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B160" s="2"/>
-    </row>
-    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B161" s="2"/>
-    </row>
-    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B162" s="2"/>
-    </row>
-    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B163" s="2"/>
-    </row>
-    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B164" s="2"/>
-    </row>
-    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B165" s="2"/>
-    </row>
-    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B166" s="2"/>
-    </row>
-    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B167" s="2"/>
-    </row>
-    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B168" s="2"/>
-    </row>
-    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B169" s="2"/>
-    </row>
-    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B170" s="2"/>
-    </row>
-    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B171" s="2"/>
-    </row>
-    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B172" s="2"/>
-    </row>
-    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B173" s="2"/>
-    </row>
-    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B174" s="2"/>
-    </row>
-    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B175" s="2"/>
-    </row>
-    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B176" s="2"/>
-    </row>
-    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B177" s="2"/>
-    </row>
-    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B178" s="2"/>
-    </row>
-    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B179" s="2"/>
-    </row>
-    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B180" s="2"/>
-    </row>
-    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B181" s="2"/>
-    </row>
-    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B182" s="2"/>
-    </row>
-    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B183" s="2"/>
-    </row>
-    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B184" s="2"/>
-    </row>
-    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B185" s="2"/>
-    </row>
-    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B186" s="2"/>
-    </row>
-    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B187" s="2"/>
-    </row>
-    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B188" s="2"/>
-    </row>
-    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B189" s="2"/>
-    </row>
-    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B190" s="2"/>
-    </row>
-    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B191" s="2"/>
-    </row>
-    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B192" s="2"/>
-    </row>
-    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B193" s="2"/>
-    </row>
-    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B194" s="2"/>
-    </row>
-    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B195" s="2"/>
-    </row>
-    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B196" s="2"/>
-    </row>
-    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B197" s="2"/>
-    </row>
-    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B198" s="2"/>
-    </row>
-    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B199" s="2"/>
-    </row>
-    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B200" s="2"/>
-    </row>
-    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B201" s="2"/>
-    </row>
-    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B202" s="2"/>
-    </row>
-    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B203" s="2"/>
-    </row>
-    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B204" s="2"/>
-    </row>
-    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B205" s="2"/>
-    </row>
-    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B206" s="2"/>
-    </row>
-    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B207" s="2"/>
-    </row>
-    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B208" s="2"/>
-    </row>
-    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B209" s="2"/>
-    </row>
-    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B210" s="2"/>
-    </row>
-    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B211" s="2"/>
-    </row>
-    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B212" s="2"/>
-    </row>
-    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B213" s="2"/>
-    </row>
-    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B214" s="2"/>
-    </row>
-    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B215" s="2"/>
-    </row>
-    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B216" s="2"/>
-    </row>
-    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B217" s="2"/>
-    </row>
-    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B218" s="2"/>
-    </row>
-    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B219" s="2"/>
-    </row>
-    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B220" s="2"/>
-    </row>
-    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B221" s="2"/>
-    </row>
-    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B222" s="2"/>
-    </row>
-    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B223" s="2"/>
-    </row>
-    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B224" s="2"/>
-    </row>
-    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B225" s="2"/>
-    </row>
-    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B226" s="2"/>
-    </row>
-    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B227" s="2"/>
-    </row>
-    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B228" s="2"/>
-    </row>
-    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B229" s="2"/>
-    </row>
-    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B230" s="2"/>
-    </row>
-    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B231" s="2"/>
-    </row>
-    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B232" s="2"/>
-    </row>
-    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B233" s="2"/>
-    </row>
-    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B234" s="2"/>
-    </row>
-    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B235" s="2"/>
-    </row>
-    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B236" s="2"/>
-    </row>
-    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B237" s="2"/>
-    </row>
-    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B238" s="2"/>
-    </row>
-    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B239" s="2"/>
-    </row>
-    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B240" s="2"/>
-    </row>
-    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B241" s="2"/>
-    </row>
-    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B242" s="2"/>
-    </row>
-    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B243" s="2"/>
-    </row>
-    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B244" s="2"/>
-    </row>
-    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B245" s="2"/>
-    </row>
-    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B246" s="2"/>
-    </row>
-    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B247" s="2"/>
-    </row>
-    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B248" s="2"/>
-    </row>
-    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B249" s="2"/>
-    </row>
-    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B250" s="2"/>
-    </row>
-    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B251" s="2"/>
-    </row>
-    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B252" s="2"/>
-    </row>
-    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B253" s="2"/>
-    </row>
-    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B254" s="2"/>
-    </row>
-    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B255" s="2"/>
-    </row>
-    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B256" s="2"/>
-    </row>
-    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B257" s="2"/>
-    </row>
-    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B258" s="2"/>
-    </row>
-    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B259" s="2"/>
-    </row>
-    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B260" s="2"/>
-    </row>
-    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B261" s="2"/>
-    </row>
-    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B262" s="2"/>
-    </row>
-    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B263" s="2"/>
-    </row>
-    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B264" s="2"/>
-    </row>
-    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B265" s="2"/>
-    </row>
-    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B266" s="2"/>
-    </row>
-    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B267" s="2"/>
-    </row>
-    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B268" s="2"/>
-    </row>
-    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B269" s="2"/>
-    </row>
-    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B270" s="2"/>
-    </row>
-    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B271" s="2"/>
-    </row>
-    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B272" s="2"/>
-    </row>
-    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B273" s="2"/>
-    </row>
-    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B274" s="2"/>
-    </row>
-    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B275" s="2"/>
-    </row>
-    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B276" s="2"/>
-    </row>
-    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B277" s="2"/>
-    </row>
-    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B278" s="2"/>
-    </row>
-    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B279" s="2"/>
-    </row>
-    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B280" s="2"/>
-    </row>
-    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B281" s="2"/>
-    </row>
-    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B282" s="2"/>
-    </row>
-    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B283" s="2"/>
-    </row>
-    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B284" s="2"/>
-    </row>
-    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B285" s="2"/>
-    </row>
-    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B286" s="2"/>
-    </row>
-    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B287" s="2"/>
-    </row>
-    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B288" s="2"/>
-    </row>
-    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B289" s="2"/>
-    </row>
-    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B290" s="2"/>
-    </row>
-    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B291" s="2"/>
-    </row>
-    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B292" s="2"/>
-    </row>
-    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B293" s="2"/>
-    </row>
-    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B294" s="2"/>
-    </row>
-    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B295" s="2"/>
-    </row>
-    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B296" s="2"/>
-    </row>
-    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B297" s="2"/>
-    </row>
-    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B298" s="2"/>
-    </row>
-    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B299" s="2"/>
-    </row>
-    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B300" s="2"/>
-    </row>
-    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B301" s="2"/>
-    </row>
-    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B302" s="2"/>
-    </row>
-    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B303" s="2"/>
-    </row>
-    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B304" s="2"/>
-    </row>
-    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B305" s="2"/>
-    </row>
-    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B306" s="2"/>
-    </row>
-    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B307" s="2"/>
-    </row>
-    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B308" s="2"/>
-    </row>
-    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B309" s="2"/>
-    </row>
-    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B310" s="2"/>
-    </row>
-    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B311" s="2"/>
-    </row>
-    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B312" s="2"/>
-    </row>
-    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B313" s="2"/>
-    </row>
-    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B314" s="2"/>
-    </row>
-    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B315" s="2"/>
-    </row>
-    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B316" s="2"/>
-    </row>
-    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B317" s="2"/>
-    </row>
-    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B318" s="2"/>
-    </row>
-    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B319" s="2"/>
-    </row>
-    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B320" s="2"/>
-    </row>
-    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B321" s="2"/>
-    </row>
-    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B322" s="2"/>
-    </row>
-    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B323" s="2"/>
-    </row>
-    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B324" s="2"/>
-    </row>
-    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B325" s="2"/>
-    </row>
-    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B326" s="2"/>
-    </row>
-    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B327" s="2"/>
-    </row>
-    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B328" s="2"/>
-    </row>
-    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B329" s="2"/>
-    </row>
-    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B330" s="2"/>
-    </row>
-    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B331" s="2"/>
-    </row>
-    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B332" s="2"/>
-    </row>
-    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B333" s="2"/>
-    </row>
-    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B334" s="2"/>
-    </row>
-    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B335" s="2"/>
-    </row>
-    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B336" s="2"/>
-    </row>
-    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B337" s="2"/>
-    </row>
-    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B338" s="2"/>
-    </row>
-    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B339" s="2"/>
-    </row>
-    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B340" s="2"/>
-    </row>
-    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B341" s="2"/>
-    </row>
-    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B342" s="2"/>
-    </row>
-    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B343" s="2"/>
-    </row>
-    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B344" s="2"/>
-    </row>
-    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B345" s="2"/>
-    </row>
-    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B346" s="2"/>
-    </row>
-    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B347" s="2"/>
-    </row>
-    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B348" s="2"/>
-    </row>
-    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B349" s="2"/>
-    </row>
-    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B350" s="2"/>
-    </row>
-    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B351" s="2"/>
-    </row>
-    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B352" s="2"/>
-    </row>
-    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B353" s="2"/>
-    </row>
-    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B354" s="2"/>
-    </row>
-    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B355" s="2"/>
-    </row>
-    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B356" s="2"/>
-    </row>
-    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B357" s="2"/>
-    </row>
-    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B358" s="2"/>
-    </row>
-    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B359" s="2"/>
-    </row>
-    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B360" s="2"/>
-    </row>
-    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B361" s="2"/>
-    </row>
-    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B362" s="2"/>
-    </row>
-    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B363" s="2"/>
-    </row>
-    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B364" s="2"/>
-    </row>
-    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B365" s="2"/>
-    </row>
-    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B366" s="2"/>
-    </row>
-    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B367" s="2"/>
-    </row>
-    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B368" s="2"/>
-    </row>
-    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B369" s="2"/>
-    </row>
-    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B370" s="2"/>
-    </row>
-    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B371" s="2"/>
-    </row>
-    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B372" s="2"/>
-    </row>
-    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B373" s="2"/>
-    </row>
-    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B374" s="2"/>
-    </row>
-    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B375" s="2"/>
-    </row>
-    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B376" s="2"/>
-    </row>
-    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B377" s="2"/>
-    </row>
-    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B378" s="2"/>
-    </row>
-    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B379" s="2"/>
-    </row>
-    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B380" s="2"/>
-    </row>
-    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B381" s="2"/>
-    </row>
-    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B382" s="2"/>
-    </row>
-    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B383" s="2"/>
-    </row>
-    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B384" s="2"/>
-    </row>
-    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B385" s="2"/>
-    </row>
-    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B386" s="2"/>
-    </row>
-    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B387" s="2"/>
-    </row>
-    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B388" s="2"/>
-    </row>
-    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B389" s="2"/>
-    </row>
-    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B390" s="2"/>
-    </row>
-    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B391" s="2"/>
-    </row>
-    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B392" s="2"/>
-    </row>
-    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B393" s="2"/>
-    </row>
-    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B394" s="2"/>
-    </row>
-    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B395" s="2"/>
-    </row>
-    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B396" s="2"/>
-    </row>
-    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B397" s="2"/>
-    </row>
-    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B398" s="2"/>
-    </row>
-    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B399" s="2"/>
-    </row>
-    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B400" s="2"/>
-    </row>
-    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B401" s="2"/>
-    </row>
-    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B402" s="2"/>
-    </row>
-    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B403" s="2"/>
-    </row>
-    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B404" s="2"/>
-    </row>
-    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B405" s="2"/>
-    </row>
-    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B406" s="2"/>
-    </row>
-    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B407" s="2"/>
-    </row>
-    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B408" s="2"/>
-    </row>
-    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B409" s="2"/>
-    </row>
-    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B410" s="2"/>
-    </row>
-    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B411" s="2"/>
-    </row>
-    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B412" s="2"/>
-    </row>
-    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B413" s="2"/>
-    </row>
-    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B414" s="2"/>
-    </row>
-    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B415" s="2"/>
-    </row>
-    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B416" s="2"/>
-    </row>
-    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B417" s="2"/>
-    </row>
-    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B418" s="2"/>
-    </row>
-    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B419" s="2"/>
-    </row>
-    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B420" s="2"/>
-    </row>
-    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B421" s="2"/>
-    </row>
-    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B422" s="2"/>
-    </row>
-    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B423" s="2"/>
-    </row>
-    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B424" s="2"/>
-    </row>
-    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B425" s="2"/>
-    </row>
-    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B426" s="2"/>
-    </row>
-    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B427" s="2"/>
-    </row>
-    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B428" s="2"/>
-    </row>
-    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B429" s="2"/>
-    </row>
-    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B430" s="2"/>
-    </row>
-    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B431" s="2"/>
-    </row>
-    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B432" s="2"/>
-    </row>
-    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B433" s="2"/>
-    </row>
-    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B434" s="2"/>
-    </row>
-    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B435" s="2"/>
-    </row>
-    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B436" s="2"/>
-    </row>
-    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B437" s="2"/>
-    </row>
-    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B438" s="2"/>
-    </row>
-    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B439" s="2"/>
-    </row>
-    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B440" s="2"/>
-    </row>
-    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B441" s="2"/>
-    </row>
-    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B442" s="2"/>
-    </row>
-    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B443" s="2"/>
-    </row>
-    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B444" s="2"/>
-    </row>
-    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B445" s="2"/>
-    </row>
-    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B446" s="2"/>
-    </row>
-    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B447" s="2"/>
-    </row>
-    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B448" s="2"/>
-    </row>
-    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B449" s="2"/>
-    </row>
-    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B450" s="2"/>
-    </row>
-    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B451" s="2"/>
-    </row>
-    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B452" s="2"/>
-    </row>
-    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B453" s="2"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9D36C6E4-FA1B-41F3-A901-B4C61BBFD5DF}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{17799F49-1821-4161-BB31-CFF3D6D443CF}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5EE00BDA-82F9-4EA0-AE2E-F530EEFD8288}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId3"/>
-  </tableParts>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAED0BD-0D0C-444E-B89A-A383DC371162}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -4192,12 +3378,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6473B6-9076-46E1-98BE-6DA60CB65AF7}">
   <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A10" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -4399,70 +3585,180 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
-      <c r="B17" s="2"/>
-      <c r="C17" s="3"/>
+      <c r="A17" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>181</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>180</v>
+      </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
-      <c r="B18" s="2"/>
-      <c r="C18" s="3"/>
+      <c r="A18" s="1">
+        <v>43825</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>192</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>191</v>
+      </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
-      <c r="B19" s="2"/>
-      <c r="C19" s="3"/>
+      <c r="A19" s="1">
+        <v>43826</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>196</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>195</v>
+      </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
-      <c r="B20" s="2"/>
-      <c r="C20" s="3"/>
+      <c r="A20" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>199</v>
+      </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
-      <c r="B21" s="2"/>
-      <c r="C21" s="3"/>
-    </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
-      <c r="B22" s="2"/>
-      <c r="C22" s="3"/>
-    </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
-      <c r="B23" s="2"/>
-      <c r="C23" s="3"/>
+      <c r="A21" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>205</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>204</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>221</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>224</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43840</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>232</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
-      <c r="B24" s="2"/>
-      <c r="C24" s="3"/>
+      <c r="A24" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>236</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
-      <c r="B25" s="2"/>
-      <c r="C25" s="3"/>
+      <c r="A25" s="1">
+        <v>43844</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="C25" s="4" t="s">
+        <v>240</v>
+      </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B26" s="2"/>
+      <c r="A26" s="1">
+        <v>43846</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>245</v>
+      </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B27" s="2"/>
+      <c r="A27" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>247</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>248</v>
+      </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B28" s="2"/>
+      <c r="A28" s="1">
+        <v>43849</v>
+      </c>
+      <c r="B28" s="2" t="s">
+        <v>249</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>250</v>
+      </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B29" s="2"/>
+      <c r="A29" s="1">
+        <v>43850</v>
+      </c>
+      <c r="B29" s="2" t="s">
+        <v>251</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>253</v>
+      </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B30" s="2"/>
+      <c r="A30" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B30" s="2" t="s">
+        <v>255</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>254</v>
+      </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B31" s="2"/>
+      <c r="A31" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B31" s="2" t="s">
+        <v>259</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>258</v>
+      </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="B32" s="2"/>
+      <c r="A32" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B32" s="2" t="s">
+        <v>261</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>260</v>
+      </c>
     </row>
     <row r="33" spans="2:2" x14ac:dyDescent="0.3">
       <c r="B33" s="2"/>
@@ -5745,23 +5041,42 @@
     <hyperlink ref="C14" r:id="rId13" xr:uid="{23778C05-E396-4049-B2D7-237A119F87A3}"/>
     <hyperlink ref="C15" r:id="rId14" xr:uid="{ACA9B929-4630-4366-8DDB-DC34C263CCA6}"/>
     <hyperlink ref="C16" r:id="rId15" xr:uid="{6B1DFD3C-028E-4086-B68A-9F668F60DC04}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{75BAC129-9E13-4118-B1C6-76400E77874F}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{2ABD24DE-ED99-4B88-A1EF-9F1029C2E098}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{AD4E1720-042F-4D2F-9AA9-9F0A08138070}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{B1C22A74-23BB-4C29-A186-1F99889E4DED}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{2E760231-B087-4283-B2C5-77A195629AAF}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{F47DEAF2-D8B8-4170-9E33-E55213F5D029}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{97EEF5E6-D393-45E8-B508-990503DEAAA5}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{A2FC201C-4CBC-4145-85CC-00ED715A3D44}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{AD3B80BB-8EB1-49A0-9D32-EC1BFDA89C7B}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{4DD76277-5A36-4016-A925-317A619705B8}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{8E98A846-7CC7-4A4A-907B-AA2F0748DB22}"/>
+    <hyperlink ref="C28" r:id="rId27" xr:uid="{EA8B1531-BBCB-4772-BFDC-35AA0C31936E}"/>
+    <hyperlink ref="C29" r:id="rId28" xr:uid="{EFFF4362-2496-40A1-91AE-C732EADD2CF5}"/>
+    <hyperlink ref="C30" r:id="rId29" xr:uid="{F839D7A0-61B3-4969-B932-213E2AF6C031}"/>
+    <hyperlink ref="C31" r:id="rId30" xr:uid="{66EDCA79-FF34-4A5E-B522-AF87B51B7880}"/>
+    <hyperlink ref="C32" r:id="rId31" xr:uid="{1DD88D81-FCCE-4AD5-A016-FA2A171B0B9E}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId32"/>
   <tableParts count="1">
-    <tablePart r:id="rId16"/>
+    <tablePart r:id="rId33"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
-  <dimension ref="A1:E4"/>
+  <dimension ref="A1:E9"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B9" sqref="B9"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="90.6640625" customWidth="1"/>
+    <col min="2" max="2" width="90.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
@@ -5796,7 +5111,7 @@
       <c r="A3" s="1">
         <v>43788</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B3" s="2" t="s">
         <v>118</v>
       </c>
     </row>
@@ -5804,8 +5119,48 @@
       <c r="A4" s="1">
         <v>43802</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B4" s="2" t="s">
         <v>152</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>183</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>203</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B7" s="2" t="s">
+        <v>213</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>228</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43852</v>
+      </c>
+      <c r="B9" s="2" t="s">
+        <v>263</v>
       </c>
     </row>
   </sheetData>
@@ -5816,7 +5171,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97DDFA-1565-4470-BB29-D5465D288895}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5828,7 +5183,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA657AA-1F22-477B-B7BC-F11318BA36EB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5840,7 +5195,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BBE539-7C73-4D09-8E9A-C7D2A918577D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5854,7 +5209,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC9D91-1D03-4166-9423-6B7417BBFD57}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5868,7 +5223,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32C370E-E6C2-42BF-B2D7-1840CA486DCC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5882,7 +5237,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF6E018-BD46-45F6-85A3-605BEB5FED4F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5897,6 +5252,1469 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6DB33B-2212-47A2-B730-D0EAFF285240}">
+  <dimension ref="A1:F453"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="44" customWidth="1"/>
+    <col min="3" max="3" width="38.6640625" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>107</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43783</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>108</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="2"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="B9" s="2"/>
+      <c r="C9" s="3"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="2"/>
+      <c r="C10" s="3"/>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="1"/>
+      <c r="B11" s="2"/>
+      <c r="C11" s="3"/>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="1"/>
+      <c r="B12" s="2"/>
+      <c r="C12" s="3"/>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="1"/>
+      <c r="B13" s="2"/>
+      <c r="C13" s="3"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="1"/>
+      <c r="B14" s="2"/>
+      <c r="C14" s="3"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="1"/>
+      <c r="B15" s="2"/>
+      <c r="C15" s="3"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="1"/>
+      <c r="B16" s="2"/>
+      <c r="C16" s="3"/>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="1"/>
+      <c r="B17" s="2"/>
+      <c r="C17" s="3"/>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="1"/>
+      <c r="B18" s="2"/>
+      <c r="C18" s="3"/>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="1"/>
+      <c r="B19" s="2"/>
+      <c r="C19" s="3"/>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="1"/>
+      <c r="B20" s="2"/>
+      <c r="C20" s="3"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="1"/>
+      <c r="B21" s="2"/>
+      <c r="C21" s="3"/>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="1"/>
+      <c r="B22" s="2"/>
+      <c r="C22" s="3"/>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="1"/>
+      <c r="B23" s="2"/>
+      <c r="C23" s="3"/>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="1"/>
+      <c r="B24" s="2"/>
+      <c r="C24" s="3"/>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="1"/>
+      <c r="B25" s="2"/>
+      <c r="C25" s="3"/>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B26" s="2"/>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B27" s="2"/>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B28" s="2"/>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B30" s="2"/>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B31" s="2"/>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="B32" s="2"/>
+    </row>
+    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B33" s="2"/>
+    </row>
+    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B34" s="2"/>
+    </row>
+    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B35" s="2"/>
+    </row>
+    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B36" s="2"/>
+    </row>
+    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B37" s="2"/>
+    </row>
+    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B38" s="2"/>
+    </row>
+    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B39" s="2"/>
+    </row>
+    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B40" s="2"/>
+    </row>
+    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B41" s="2"/>
+    </row>
+    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B42" s="2"/>
+    </row>
+    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B43" s="2"/>
+    </row>
+    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B44" s="2"/>
+    </row>
+    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B45" s="2"/>
+    </row>
+    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B46" s="2"/>
+    </row>
+    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B47" s="2"/>
+    </row>
+    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B48" s="2"/>
+    </row>
+    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B49" s="2"/>
+    </row>
+    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B50" s="2"/>
+    </row>
+    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B51" s="2"/>
+    </row>
+    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B52" s="2"/>
+    </row>
+    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B53" s="2"/>
+    </row>
+    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B54" s="2"/>
+    </row>
+    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B55" s="2"/>
+    </row>
+    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B56" s="2"/>
+    </row>
+    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B57" s="2"/>
+    </row>
+    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B58" s="2"/>
+    </row>
+    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B59" s="2"/>
+    </row>
+    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B60" s="2"/>
+    </row>
+    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B61" s="2"/>
+    </row>
+    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B62" s="2"/>
+    </row>
+    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B63" s="2"/>
+    </row>
+    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B64" s="2"/>
+    </row>
+    <row r="65" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B65" s="2"/>
+    </row>
+    <row r="66" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B66" s="2"/>
+    </row>
+    <row r="67" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B67" s="2"/>
+    </row>
+    <row r="68" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B68" s="2"/>
+    </row>
+    <row r="69" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B69" s="2"/>
+    </row>
+    <row r="70" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B70" s="2"/>
+    </row>
+    <row r="71" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B71" s="2"/>
+    </row>
+    <row r="72" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B72" s="2"/>
+    </row>
+    <row r="73" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B73" s="2"/>
+    </row>
+    <row r="74" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B74" s="2"/>
+    </row>
+    <row r="75" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B75" s="2"/>
+    </row>
+    <row r="76" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B76" s="2"/>
+    </row>
+    <row r="77" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B77" s="2"/>
+    </row>
+    <row r="78" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B78" s="2"/>
+    </row>
+    <row r="79" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B79" s="2"/>
+    </row>
+    <row r="80" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B80" s="2"/>
+    </row>
+    <row r="81" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B81" s="2"/>
+    </row>
+    <row r="82" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B82" s="2"/>
+    </row>
+    <row r="83" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B83" s="2"/>
+    </row>
+    <row r="84" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B84" s="2"/>
+    </row>
+    <row r="85" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B85" s="2"/>
+    </row>
+    <row r="86" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B86" s="2"/>
+    </row>
+    <row r="87" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B87" s="2"/>
+    </row>
+    <row r="88" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B88" s="2"/>
+    </row>
+    <row r="89" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B89" s="2"/>
+    </row>
+    <row r="90" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B90" s="2"/>
+    </row>
+    <row r="91" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B91" s="2"/>
+    </row>
+    <row r="92" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B92" s="2"/>
+    </row>
+    <row r="93" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B93" s="2"/>
+    </row>
+    <row r="94" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B94" s="2"/>
+    </row>
+    <row r="95" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B95" s="2"/>
+    </row>
+    <row r="96" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B96" s="2"/>
+    </row>
+    <row r="97" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B97" s="2"/>
+    </row>
+    <row r="98" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B98" s="2"/>
+    </row>
+    <row r="99" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B99" s="2"/>
+    </row>
+    <row r="100" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B100" s="2"/>
+    </row>
+    <row r="101" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B101" s="2"/>
+    </row>
+    <row r="102" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B102" s="2"/>
+    </row>
+    <row r="103" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B103" s="2"/>
+    </row>
+    <row r="104" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B104" s="2"/>
+    </row>
+    <row r="105" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B105" s="2"/>
+    </row>
+    <row r="106" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B106" s="2"/>
+    </row>
+    <row r="107" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B107" s="2"/>
+    </row>
+    <row r="108" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B108" s="2"/>
+    </row>
+    <row r="109" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B109" s="2"/>
+    </row>
+    <row r="110" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B110" s="2"/>
+    </row>
+    <row r="111" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B111" s="2"/>
+    </row>
+    <row r="112" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B112" s="2"/>
+    </row>
+    <row r="113" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B113" s="2"/>
+    </row>
+    <row r="114" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B114" s="2"/>
+    </row>
+    <row r="115" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B115" s="2"/>
+    </row>
+    <row r="116" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B116" s="2"/>
+    </row>
+    <row r="117" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B117" s="2"/>
+    </row>
+    <row r="118" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B118" s="2"/>
+    </row>
+    <row r="119" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B119" s="2"/>
+    </row>
+    <row r="120" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B120" s="2"/>
+    </row>
+    <row r="121" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B121" s="2"/>
+    </row>
+    <row r="122" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B122" s="2"/>
+    </row>
+    <row r="123" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B123" s="2"/>
+    </row>
+    <row r="124" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B124" s="2"/>
+    </row>
+    <row r="125" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B125" s="2"/>
+    </row>
+    <row r="126" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B126" s="2"/>
+    </row>
+    <row r="127" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B127" s="2"/>
+    </row>
+    <row r="128" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B128" s="2"/>
+    </row>
+    <row r="129" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B129" s="2"/>
+    </row>
+    <row r="130" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B130" s="2"/>
+    </row>
+    <row r="131" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B131" s="2"/>
+    </row>
+    <row r="132" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B132" s="2"/>
+    </row>
+    <row r="133" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B133" s="2"/>
+    </row>
+    <row r="134" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B134" s="2"/>
+    </row>
+    <row r="135" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B135" s="2"/>
+    </row>
+    <row r="136" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B136" s="2"/>
+    </row>
+    <row r="137" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B137" s="2"/>
+    </row>
+    <row r="138" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B138" s="2"/>
+    </row>
+    <row r="139" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B139" s="2"/>
+    </row>
+    <row r="140" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B140" s="2"/>
+    </row>
+    <row r="141" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B141" s="2"/>
+    </row>
+    <row r="142" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B142" s="2"/>
+    </row>
+    <row r="143" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B143" s="2"/>
+    </row>
+    <row r="144" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B144" s="2"/>
+    </row>
+    <row r="145" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B145" s="2"/>
+    </row>
+    <row r="146" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B146" s="2"/>
+    </row>
+    <row r="147" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B147" s="2"/>
+    </row>
+    <row r="148" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B148" s="2"/>
+    </row>
+    <row r="149" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B149" s="2"/>
+    </row>
+    <row r="150" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B150" s="2"/>
+    </row>
+    <row r="151" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B151" s="2"/>
+    </row>
+    <row r="152" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B152" s="2"/>
+    </row>
+    <row r="153" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B153" s="2"/>
+    </row>
+    <row r="154" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B154" s="2"/>
+    </row>
+    <row r="155" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B155" s="2"/>
+    </row>
+    <row r="156" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B156" s="2"/>
+    </row>
+    <row r="157" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B157" s="2"/>
+    </row>
+    <row r="158" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B158" s="2"/>
+    </row>
+    <row r="159" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B159" s="2"/>
+    </row>
+    <row r="160" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B160" s="2"/>
+    </row>
+    <row r="161" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B161" s="2"/>
+    </row>
+    <row r="162" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B162" s="2"/>
+    </row>
+    <row r="163" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B163" s="2"/>
+    </row>
+    <row r="164" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B164" s="2"/>
+    </row>
+    <row r="165" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B165" s="2"/>
+    </row>
+    <row r="166" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B166" s="2"/>
+    </row>
+    <row r="167" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B167" s="2"/>
+    </row>
+    <row r="168" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B168" s="2"/>
+    </row>
+    <row r="169" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B169" s="2"/>
+    </row>
+    <row r="170" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B170" s="2"/>
+    </row>
+    <row r="171" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B171" s="2"/>
+    </row>
+    <row r="172" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B172" s="2"/>
+    </row>
+    <row r="173" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B173" s="2"/>
+    </row>
+    <row r="174" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B174" s="2"/>
+    </row>
+    <row r="175" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B175" s="2"/>
+    </row>
+    <row r="176" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B176" s="2"/>
+    </row>
+    <row r="177" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B177" s="2"/>
+    </row>
+    <row r="178" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B178" s="2"/>
+    </row>
+    <row r="179" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B179" s="2"/>
+    </row>
+    <row r="180" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B180" s="2"/>
+    </row>
+    <row r="181" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B181" s="2"/>
+    </row>
+    <row r="182" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B182" s="2"/>
+    </row>
+    <row r="183" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B183" s="2"/>
+    </row>
+    <row r="184" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B184" s="2"/>
+    </row>
+    <row r="185" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B185" s="2"/>
+    </row>
+    <row r="186" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B186" s="2"/>
+    </row>
+    <row r="187" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B187" s="2"/>
+    </row>
+    <row r="188" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B188" s="2"/>
+    </row>
+    <row r="189" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B189" s="2"/>
+    </row>
+    <row r="190" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B190" s="2"/>
+    </row>
+    <row r="191" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B191" s="2"/>
+    </row>
+    <row r="192" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B192" s="2"/>
+    </row>
+    <row r="193" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B193" s="2"/>
+    </row>
+    <row r="194" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B194" s="2"/>
+    </row>
+    <row r="195" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B195" s="2"/>
+    </row>
+    <row r="196" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B196" s="2"/>
+    </row>
+    <row r="197" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B197" s="2"/>
+    </row>
+    <row r="198" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B198" s="2"/>
+    </row>
+    <row r="199" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B199" s="2"/>
+    </row>
+    <row r="200" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B200" s="2"/>
+    </row>
+    <row r="201" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B201" s="2"/>
+    </row>
+    <row r="202" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B202" s="2"/>
+    </row>
+    <row r="203" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B203" s="2"/>
+    </row>
+    <row r="204" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B204" s="2"/>
+    </row>
+    <row r="205" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B205" s="2"/>
+    </row>
+    <row r="206" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B206" s="2"/>
+    </row>
+    <row r="207" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B207" s="2"/>
+    </row>
+    <row r="208" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B208" s="2"/>
+    </row>
+    <row r="209" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B209" s="2"/>
+    </row>
+    <row r="210" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B210" s="2"/>
+    </row>
+    <row r="211" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B211" s="2"/>
+    </row>
+    <row r="212" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B212" s="2"/>
+    </row>
+    <row r="213" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B213" s="2"/>
+    </row>
+    <row r="214" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B214" s="2"/>
+    </row>
+    <row r="215" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B215" s="2"/>
+    </row>
+    <row r="216" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B216" s="2"/>
+    </row>
+    <row r="217" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B217" s="2"/>
+    </row>
+    <row r="218" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B218" s="2"/>
+    </row>
+    <row r="219" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B219" s="2"/>
+    </row>
+    <row r="220" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B220" s="2"/>
+    </row>
+    <row r="221" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B221" s="2"/>
+    </row>
+    <row r="222" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B222" s="2"/>
+    </row>
+    <row r="223" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B223" s="2"/>
+    </row>
+    <row r="224" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B224" s="2"/>
+    </row>
+    <row r="225" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B225" s="2"/>
+    </row>
+    <row r="226" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B226" s="2"/>
+    </row>
+    <row r="227" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B227" s="2"/>
+    </row>
+    <row r="228" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B228" s="2"/>
+    </row>
+    <row r="229" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B229" s="2"/>
+    </row>
+    <row r="230" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B230" s="2"/>
+    </row>
+    <row r="231" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B231" s="2"/>
+    </row>
+    <row r="232" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B232" s="2"/>
+    </row>
+    <row r="233" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B233" s="2"/>
+    </row>
+    <row r="234" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B234" s="2"/>
+    </row>
+    <row r="235" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B235" s="2"/>
+    </row>
+    <row r="236" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B236" s="2"/>
+    </row>
+    <row r="237" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B237" s="2"/>
+    </row>
+    <row r="238" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B238" s="2"/>
+    </row>
+    <row r="239" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B239" s="2"/>
+    </row>
+    <row r="240" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B240" s="2"/>
+    </row>
+    <row r="241" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B241" s="2"/>
+    </row>
+    <row r="242" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B242" s="2"/>
+    </row>
+    <row r="243" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B243" s="2"/>
+    </row>
+    <row r="244" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B244" s="2"/>
+    </row>
+    <row r="245" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B245" s="2"/>
+    </row>
+    <row r="246" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B246" s="2"/>
+    </row>
+    <row r="247" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B247" s="2"/>
+    </row>
+    <row r="248" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B248" s="2"/>
+    </row>
+    <row r="249" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B249" s="2"/>
+    </row>
+    <row r="250" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B250" s="2"/>
+    </row>
+    <row r="251" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B251" s="2"/>
+    </row>
+    <row r="252" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B252" s="2"/>
+    </row>
+    <row r="253" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B253" s="2"/>
+    </row>
+    <row r="254" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B254" s="2"/>
+    </row>
+    <row r="255" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B255" s="2"/>
+    </row>
+    <row r="256" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B256" s="2"/>
+    </row>
+    <row r="257" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B257" s="2"/>
+    </row>
+    <row r="258" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B258" s="2"/>
+    </row>
+    <row r="259" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B259" s="2"/>
+    </row>
+    <row r="260" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B260" s="2"/>
+    </row>
+    <row r="261" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B261" s="2"/>
+    </row>
+    <row r="262" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B262" s="2"/>
+    </row>
+    <row r="263" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B263" s="2"/>
+    </row>
+    <row r="264" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B264" s="2"/>
+    </row>
+    <row r="265" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B265" s="2"/>
+    </row>
+    <row r="266" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B266" s="2"/>
+    </row>
+    <row r="267" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B267" s="2"/>
+    </row>
+    <row r="268" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B268" s="2"/>
+    </row>
+    <row r="269" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B269" s="2"/>
+    </row>
+    <row r="270" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B270" s="2"/>
+    </row>
+    <row r="271" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B271" s="2"/>
+    </row>
+    <row r="272" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B272" s="2"/>
+    </row>
+    <row r="273" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B273" s="2"/>
+    </row>
+    <row r="274" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B274" s="2"/>
+    </row>
+    <row r="275" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B275" s="2"/>
+    </row>
+    <row r="276" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B276" s="2"/>
+    </row>
+    <row r="277" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B277" s="2"/>
+    </row>
+    <row r="278" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B278" s="2"/>
+    </row>
+    <row r="279" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B279" s="2"/>
+    </row>
+    <row r="280" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B280" s="2"/>
+    </row>
+    <row r="281" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B281" s="2"/>
+    </row>
+    <row r="282" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B282" s="2"/>
+    </row>
+    <row r="283" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B283" s="2"/>
+    </row>
+    <row r="284" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B284" s="2"/>
+    </row>
+    <row r="285" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B285" s="2"/>
+    </row>
+    <row r="286" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B286" s="2"/>
+    </row>
+    <row r="287" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B287" s="2"/>
+    </row>
+    <row r="288" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B288" s="2"/>
+    </row>
+    <row r="289" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B289" s="2"/>
+    </row>
+    <row r="290" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B290" s="2"/>
+    </row>
+    <row r="291" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B291" s="2"/>
+    </row>
+    <row r="292" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B292" s="2"/>
+    </row>
+    <row r="293" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B293" s="2"/>
+    </row>
+    <row r="294" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B294" s="2"/>
+    </row>
+    <row r="295" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B295" s="2"/>
+    </row>
+    <row r="296" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B296" s="2"/>
+    </row>
+    <row r="297" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B297" s="2"/>
+    </row>
+    <row r="298" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B298" s="2"/>
+    </row>
+    <row r="299" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B299" s="2"/>
+    </row>
+    <row r="300" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B300" s="2"/>
+    </row>
+    <row r="301" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B301" s="2"/>
+    </row>
+    <row r="302" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B302" s="2"/>
+    </row>
+    <row r="303" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B303" s="2"/>
+    </row>
+    <row r="304" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B304" s="2"/>
+    </row>
+    <row r="305" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B305" s="2"/>
+    </row>
+    <row r="306" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B306" s="2"/>
+    </row>
+    <row r="307" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B307" s="2"/>
+    </row>
+    <row r="308" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B308" s="2"/>
+    </row>
+    <row r="309" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B309" s="2"/>
+    </row>
+    <row r="310" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B310" s="2"/>
+    </row>
+    <row r="311" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B311" s="2"/>
+    </row>
+    <row r="312" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B312" s="2"/>
+    </row>
+    <row r="313" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B313" s="2"/>
+    </row>
+    <row r="314" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B314" s="2"/>
+    </row>
+    <row r="315" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B315" s="2"/>
+    </row>
+    <row r="316" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B316" s="2"/>
+    </row>
+    <row r="317" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B317" s="2"/>
+    </row>
+    <row r="318" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B318" s="2"/>
+    </row>
+    <row r="319" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B319" s="2"/>
+    </row>
+    <row r="320" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B320" s="2"/>
+    </row>
+    <row r="321" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B321" s="2"/>
+    </row>
+    <row r="322" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B322" s="2"/>
+    </row>
+    <row r="323" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B323" s="2"/>
+    </row>
+    <row r="324" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B324" s="2"/>
+    </row>
+    <row r="325" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B325" s="2"/>
+    </row>
+    <row r="326" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B326" s="2"/>
+    </row>
+    <row r="327" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B327" s="2"/>
+    </row>
+    <row r="328" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B328" s="2"/>
+    </row>
+    <row r="329" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B329" s="2"/>
+    </row>
+    <row r="330" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B330" s="2"/>
+    </row>
+    <row r="331" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B331" s="2"/>
+    </row>
+    <row r="332" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B332" s="2"/>
+    </row>
+    <row r="333" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B333" s="2"/>
+    </row>
+    <row r="334" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B334" s="2"/>
+    </row>
+    <row r="335" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B335" s="2"/>
+    </row>
+    <row r="336" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B336" s="2"/>
+    </row>
+    <row r="337" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B337" s="2"/>
+    </row>
+    <row r="338" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B338" s="2"/>
+    </row>
+    <row r="339" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B339" s="2"/>
+    </row>
+    <row r="340" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B340" s="2"/>
+    </row>
+    <row r="341" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B341" s="2"/>
+    </row>
+    <row r="342" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B342" s="2"/>
+    </row>
+    <row r="343" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B343" s="2"/>
+    </row>
+    <row r="344" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B344" s="2"/>
+    </row>
+    <row r="345" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B345" s="2"/>
+    </row>
+    <row r="346" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B346" s="2"/>
+    </row>
+    <row r="347" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B347" s="2"/>
+    </row>
+    <row r="348" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B348" s="2"/>
+    </row>
+    <row r="349" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B349" s="2"/>
+    </row>
+    <row r="350" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B350" s="2"/>
+    </row>
+    <row r="351" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B351" s="2"/>
+    </row>
+    <row r="352" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B352" s="2"/>
+    </row>
+    <row r="353" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B353" s="2"/>
+    </row>
+    <row r="354" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B354" s="2"/>
+    </row>
+    <row r="355" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B355" s="2"/>
+    </row>
+    <row r="356" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B356" s="2"/>
+    </row>
+    <row r="357" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B357" s="2"/>
+    </row>
+    <row r="358" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B358" s="2"/>
+    </row>
+    <row r="359" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B359" s="2"/>
+    </row>
+    <row r="360" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B360" s="2"/>
+    </row>
+    <row r="361" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B361" s="2"/>
+    </row>
+    <row r="362" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B362" s="2"/>
+    </row>
+    <row r="363" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B363" s="2"/>
+    </row>
+    <row r="364" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B364" s="2"/>
+    </row>
+    <row r="365" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B365" s="2"/>
+    </row>
+    <row r="366" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B366" s="2"/>
+    </row>
+    <row r="367" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B367" s="2"/>
+    </row>
+    <row r="368" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B368" s="2"/>
+    </row>
+    <row r="369" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B369" s="2"/>
+    </row>
+    <row r="370" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B370" s="2"/>
+    </row>
+    <row r="371" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B371" s="2"/>
+    </row>
+    <row r="372" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B372" s="2"/>
+    </row>
+    <row r="373" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B373" s="2"/>
+    </row>
+    <row r="374" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B374" s="2"/>
+    </row>
+    <row r="375" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B375" s="2"/>
+    </row>
+    <row r="376" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B376" s="2"/>
+    </row>
+    <row r="377" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B377" s="2"/>
+    </row>
+    <row r="378" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B378" s="2"/>
+    </row>
+    <row r="379" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B379" s="2"/>
+    </row>
+    <row r="380" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B380" s="2"/>
+    </row>
+    <row r="381" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B381" s="2"/>
+    </row>
+    <row r="382" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B382" s="2"/>
+    </row>
+    <row r="383" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B383" s="2"/>
+    </row>
+    <row r="384" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B384" s="2"/>
+    </row>
+    <row r="385" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B385" s="2"/>
+    </row>
+    <row r="386" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B386" s="2"/>
+    </row>
+    <row r="387" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B387" s="2"/>
+    </row>
+    <row r="388" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B388" s="2"/>
+    </row>
+    <row r="389" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B389" s="2"/>
+    </row>
+    <row r="390" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B390" s="2"/>
+    </row>
+    <row r="391" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B391" s="2"/>
+    </row>
+    <row r="392" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B392" s="2"/>
+    </row>
+    <row r="393" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B393" s="2"/>
+    </row>
+    <row r="394" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B394" s="2"/>
+    </row>
+    <row r="395" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B395" s="2"/>
+    </row>
+    <row r="396" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B396" s="2"/>
+    </row>
+    <row r="397" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B397" s="2"/>
+    </row>
+    <row r="398" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B398" s="2"/>
+    </row>
+    <row r="399" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B399" s="2"/>
+    </row>
+    <row r="400" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B400" s="2"/>
+    </row>
+    <row r="401" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B401" s="2"/>
+    </row>
+    <row r="402" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B402" s="2"/>
+    </row>
+    <row r="403" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B403" s="2"/>
+    </row>
+    <row r="404" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B404" s="2"/>
+    </row>
+    <row r="405" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B405" s="2"/>
+    </row>
+    <row r="406" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B406" s="2"/>
+    </row>
+    <row r="407" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B407" s="2"/>
+    </row>
+    <row r="408" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B408" s="2"/>
+    </row>
+    <row r="409" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B409" s="2"/>
+    </row>
+    <row r="410" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B410" s="2"/>
+    </row>
+    <row r="411" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B411" s="2"/>
+    </row>
+    <row r="412" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B412" s="2"/>
+    </row>
+    <row r="413" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B413" s="2"/>
+    </row>
+    <row r="414" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B414" s="2"/>
+    </row>
+    <row r="415" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B415" s="2"/>
+    </row>
+    <row r="416" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B416" s="2"/>
+    </row>
+    <row r="417" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B417" s="2"/>
+    </row>
+    <row r="418" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B418" s="2"/>
+    </row>
+    <row r="419" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B419" s="2"/>
+    </row>
+    <row r="420" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B420" s="2"/>
+    </row>
+    <row r="421" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B421" s="2"/>
+    </row>
+    <row r="422" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B422" s="2"/>
+    </row>
+    <row r="423" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B423" s="2"/>
+    </row>
+    <row r="424" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B424" s="2"/>
+    </row>
+    <row r="425" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B425" s="2"/>
+    </row>
+    <row r="426" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B426" s="2"/>
+    </row>
+    <row r="427" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B427" s="2"/>
+    </row>
+    <row r="428" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B428" s="2"/>
+    </row>
+    <row r="429" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B429" s="2"/>
+    </row>
+    <row r="430" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B430" s="2"/>
+    </row>
+    <row r="431" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B431" s="2"/>
+    </row>
+    <row r="432" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B432" s="2"/>
+    </row>
+    <row r="433" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B433" s="2"/>
+    </row>
+    <row r="434" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B434" s="2"/>
+    </row>
+    <row r="435" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B435" s="2"/>
+    </row>
+    <row r="436" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B436" s="2"/>
+    </row>
+    <row r="437" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B437" s="2"/>
+    </row>
+    <row r="438" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B438" s="2"/>
+    </row>
+    <row r="439" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B439" s="2"/>
+    </row>
+    <row r="440" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B440" s="2"/>
+    </row>
+    <row r="441" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B441" s="2"/>
+    </row>
+    <row r="442" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B442" s="2"/>
+    </row>
+    <row r="443" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B443" s="2"/>
+    </row>
+    <row r="444" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B444" s="2"/>
+    </row>
+    <row r="445" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B445" s="2"/>
+    </row>
+    <row r="446" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B446" s="2"/>
+    </row>
+    <row r="447" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B447" s="2"/>
+    </row>
+    <row r="448" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B448" s="2"/>
+    </row>
+    <row r="449" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B449" s="2"/>
+    </row>
+    <row r="450" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B450" s="2"/>
+    </row>
+    <row r="451" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B451" s="2"/>
+    </row>
+    <row r="452" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B452" s="2"/>
+    </row>
+    <row r="453" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="B453" s="2"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9D36C6E4-FA1B-41F3-A901-B4C61BBFD5DF}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{17799F49-1821-4161-BB31-CFF3D6D443CF}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5EE00BDA-82F9-4EA0-AE2E-F530EEFD8288}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId3"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7735F19-EF15-48F6-B888-702112A6B03A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -6013,7 +6831,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFCAE24-2413-43B5-9C67-C332C55714A6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -6027,13 +6845,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39996B19-10BE-4E75-832B-E97AAB0846FA}">
   <dimension ref="A1"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E26" sqref="E26"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <sheetData/>
@@ -6041,9 +6857,9 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:F25"/>
+  <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -6210,40 +7026,93 @@
       <c r="C16" s="4"/>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="1"/>
+      <c r="A17" s="1">
+        <v>43824</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>182</v>
+      </c>
       <c r="C17" s="4"/>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" s="1"/>
+      <c r="A18" s="1">
+        <v>43829</v>
+      </c>
+      <c r="B18" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C18" s="4"/>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="1"/>
+      <c r="A19" s="1">
+        <v>43830</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>198</v>
+      </c>
       <c r="C19" s="4"/>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="1"/>
+      <c r="A20" s="1">
+        <v>43833</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>210</v>
+      </c>
       <c r="C20" s="4"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="1"/>
+      <c r="A21" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>211</v>
+      </c>
       <c r="C21" s="4"/>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="1"/>
+      <c r="A22" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>219</v>
+      </c>
       <c r="C22" s="4"/>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="1"/>
+      <c r="A23" s="1">
+        <v>43838</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>225</v>
+      </c>
       <c r="C23" s="4"/>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="1"/>
+      <c r="A24" s="1">
+        <v>43839</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>227</v>
+      </c>
       <c r="C24" s="4"/>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="1"/>
+      <c r="A25" s="1">
+        <v>43842</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>233</v>
+      </c>
       <c r="C25" s="4"/>
+    </row>
+    <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A26" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B26" s="2" t="s">
+        <v>234</v>
+      </c>
     </row>
   </sheetData>
   <hyperlinks>
@@ -6257,13 +7126,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
   <dimension ref="A1:F10"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B10" sqref="B10"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -6272,8 +7139,8 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="4" t="s">
+        <v>11</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -6328,93 +7195,12 @@
       <c r="C10" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9E4C534A-03EF-4B67-AA22-230DFE12C191}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
-  <dimension ref="A1:F13"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="80.44140625" style="2" customWidth="1"/>
-    <col min="3" max="3" width="58.21875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="4"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="C10" s="4"/>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="1"/>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="1"/>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="1"/>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
-  <tableParts count="1">
-    <tablePart r:id="rId2"/>
-  </tableParts>
-</worksheet>
 </file>
--- a/SubjectWise.xlsx
+++ b/SubjectWise.xlsx
@@ -1,52 +1,53 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21328"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21929"/>
   <workbookPr filterPrivacy="1"/>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{972B30A7-D03A-427D-9360-2DACD6D765D0}" xr6:coauthVersionLast="41" xr6:coauthVersionMax="41" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6A1A87B-AB35-4E40-AF17-2C3CC6C72488}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="44" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" firstSheet="29" activeTab="32" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="2856" yWindow="2856" windowWidth="17280" windowHeight="8964" activeTab="3" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Home" sheetId="33" r:id="rId1"/>
-    <sheet name="PtCurrent" sheetId="39" r:id="rId2"/>
-    <sheet name="Daily Hindu" sheetId="35" r:id="rId3"/>
-    <sheet name="Quora" sheetId="34" r:id="rId4"/>
-    <sheet name="History Vedic" sheetId="38" r:id="rId5"/>
-    <sheet name="Kurukshetra" sheetId="37" r:id="rId6"/>
-    <sheet name="Yojana" sheetId="36" r:id="rId7"/>
-    <sheet name="AncientHistory" sheetId="1" r:id="rId8"/>
-    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId9"/>
-    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId10"/>
-    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId11"/>
-    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId12"/>
-    <sheet name="Art- Class11" sheetId="6" r:id="rId13"/>
-    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId14"/>
-    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId15"/>
-    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId16"/>
-    <sheet name="Eng" sheetId="10" r:id="rId17"/>
-    <sheet name="Geo- PMF" sheetId="11" r:id="rId18"/>
-    <sheet name="Geo - Atlas" sheetId="12" r:id="rId19"/>
-    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId20"/>
-    <sheet name="Polity- laxmi" sheetId="14" r:id="rId21"/>
-    <sheet name="Polity- ARC report" sheetId="15" r:id="rId22"/>
-    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId23"/>
-    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId24"/>
-    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId25"/>
-    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId26"/>
-    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId27"/>
-    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId28"/>
-    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId29"/>
-    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId30"/>
-    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId31"/>
-    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId32"/>
-    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId33"/>
-    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId34"/>
-    <sheet name="Disaster- ARC" sheetId="28" r:id="rId35"/>
-    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId36"/>
-    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId37"/>
-    <sheet name="Ethics -Arc" sheetId="31" r:id="rId38"/>
-    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId39"/>
+    <sheet name="GKToday" sheetId="40" r:id="rId2"/>
+    <sheet name="PtCurrent" sheetId="39" r:id="rId3"/>
+    <sheet name="Daily Hindu" sheetId="35" r:id="rId4"/>
+    <sheet name="Quora" sheetId="34" r:id="rId5"/>
+    <sheet name="History Vedic" sheetId="38" r:id="rId6"/>
+    <sheet name="Kurukshetra" sheetId="37" r:id="rId7"/>
+    <sheet name="Yojana" sheetId="36" r:id="rId8"/>
+    <sheet name="AncientHistory" sheetId="1" r:id="rId9"/>
+    <sheet name="Hist-Spectrum" sheetId="2" r:id="rId10"/>
+    <sheet name="PostIndependence-Nitin Sangwan" sheetId="4" r:id="rId11"/>
+    <sheet name="WorldHist- VisianIAS" sheetId="3" r:id="rId12"/>
+    <sheet name="Art-Cult - Nitin Singhania" sheetId="5" r:id="rId13"/>
+    <sheet name="Art- Class11" sheetId="6" r:id="rId14"/>
+    <sheet name="Geo NCERT11&amp;12" sheetId="7" r:id="rId15"/>
+    <sheet name="Geo - GC Leong" sheetId="8" r:id="rId16"/>
+    <sheet name="Geo- Mrunal" sheetId="9" r:id="rId17"/>
+    <sheet name="Eng" sheetId="10" r:id="rId18"/>
+    <sheet name="Geo- PMF" sheetId="11" r:id="rId19"/>
+    <sheet name="Geo - Atlas" sheetId="12" r:id="rId20"/>
+    <sheet name="Polity- PIB and PRS" sheetId="13" r:id="rId21"/>
+    <sheet name="Polity- laxmi" sheetId="14" r:id="rId22"/>
+    <sheet name="Polity- ARC report" sheetId="15" r:id="rId23"/>
+    <sheet name="Polity - Vision Ias" sheetId="16" r:id="rId24"/>
+    <sheet name="Goverenance- ARC report" sheetId="17" r:id="rId25"/>
+    <sheet name="Governance- Vision IAS" sheetId="18" r:id="rId26"/>
+    <sheet name="Social justice - Niti Ayog Acti" sheetId="19" r:id="rId27"/>
+    <sheet name="Budget and Economic survey" sheetId="20" r:id="rId28"/>
+    <sheet name="Inter Relations - Vision IAS" sheetId="21" r:id="rId29"/>
+    <sheet name="Inter-relations - MEA website" sheetId="22" r:id="rId30"/>
+    <sheet name="Economy - NCERT 9 to 12" sheetId="23" r:id="rId31"/>
+    <sheet name="Economy - Ramesh Singh" sheetId="24" r:id="rId32"/>
+    <sheet name="Economy - Mrunal" sheetId="25" r:id="rId33"/>
+    <sheet name="Environment - Shankar IAS" sheetId="26" r:id="rId34"/>
+    <sheet name="Internal Security - Ashok kumar" sheetId="27" r:id="rId35"/>
+    <sheet name="Disaster- ARC" sheetId="28" r:id="rId36"/>
+    <sheet name="Disaster- NDMA" sheetId="29" r:id="rId37"/>
+    <sheet name="Sci and Tech - Vision IAS" sheetId="30" r:id="rId38"/>
+    <sheet name="Ethics -Arc" sheetId="31" r:id="rId39"/>
+    <sheet name="Ethics - Lexicon" sheetId="32" r:id="rId40"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -58,7 +59,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="354" uniqueCount="264">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="595" uniqueCount="474">
   <si>
     <t>Date</t>
   </si>
@@ -78,9 +79,6 @@
     <t>Links</t>
   </si>
   <si>
-    <t>Link ?</t>
-  </si>
-  <si>
     <t>Link</t>
   </si>
   <si>
@@ -850,13 +848,646 @@
   </si>
   <si>
     <t>Biodiversity - Levels - Genetic, Species, Ecosystem. Measure of Biodiversity- Species richness and Evenness, Conservation- In situ, Ex Situ. Red Data Book</t>
+  </si>
+  <si>
+    <t>GST - ALL</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N6ogfUIOVNI&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=38</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kw_q0ohr3Co&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=39</t>
+  </si>
+  <si>
+    <t>Black money</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=RbDY7qm3uuw&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=41</t>
+  </si>
+  <si>
+    <t>Agri- Evergreen revolution, Extension, Finance, Marketting, Storage Infra, AGRMARKNET</t>
+  </si>
+  <si>
+    <t>https://byjus.com/free-ias-prep/upsc-exam-preparation-gist-yojana-jul-2019/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D2LyhWIsBd8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=40</t>
+  </si>
+  <si>
+    <t>Demonatization- soil rate</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=roXJNZvLW1g&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=42</t>
+  </si>
+  <si>
+    <t>Livestocks and fisheries</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9zKYON9YA2c&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=41</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Budget- Capital, FRBM, </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=OiVXAVmBKuM&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=42</t>
+  </si>
+  <si>
+    <t>Resource curse, UBI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jdzlbseIURo&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=43</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lZakZfKdZq0&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=44</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Current account capital account </t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nIjjh7sJjUA&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=43</t>
+  </si>
+  <si>
+    <t>Minerals and mines</t>
+  </si>
+  <si>
+    <t>Parlimentary commitees</t>
+  </si>
+  <si>
+    <t>Biodiverstity in India</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zjWJIQf_Uqk&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=45</t>
+  </si>
+  <si>
+    <t>IMF,WB,WTO</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yzeJ7tVcHQA&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=46</t>
+  </si>
+  <si>
+    <t>World is chaning should India change too?</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=WiLqpREcf8E&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=47</t>
+  </si>
+  <si>
+    <t>Agri Manufacturing</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kGR15qUbBXc&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=49</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qoy3wSSOtnA&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=48</t>
+  </si>
+  <si>
+    <t>Schemes for manu and service</t>
+  </si>
+  <si>
+    <t>One economic India</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7jZ4RtMaU9s&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=50</t>
+  </si>
+  <si>
+    <t>GDP GNP NNP</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nxO-gIKruOE&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=44</t>
+  </si>
+  <si>
+    <t>petrol and gas</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=U8RvIgc41-A&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=51</t>
+  </si>
+  <si>
+    <t>CPI, WPI, IIP, Different Index</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UCeRZZVf9yk&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=45</t>
+  </si>
+  <si>
+    <t>Thorium and Uranium</t>
+  </si>
+  <si>
+    <t>Parlimentary forums</t>
+  </si>
+  <si>
+    <t>WPA - animals</t>
+  </si>
+  <si>
+    <t>iron, steel, cemment</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ahMVbMDHr3I&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=46</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=CPF7t302nZE&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=47</t>
+  </si>
+  <si>
+    <t>China</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V6XVpJUQlGk&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=48</t>
+  </si>
+  <si>
+    <t>Japan</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=kupk718uXCA&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=52</t>
+  </si>
+  <si>
+    <t>Infra- road, air, sea, railway,coommunction</t>
+  </si>
+  <si>
+    <t>Parlimentary group</t>
+  </si>
+  <si>
+    <t>Animal Diversity in India</t>
+  </si>
+  <si>
+    <t>oct</t>
+  </si>
+  <si>
+    <t>nov</t>
+  </si>
+  <si>
+    <t>dec</t>
+  </si>
+  <si>
+    <t>jan</t>
+  </si>
+  <si>
+    <t>feb</t>
+  </si>
+  <si>
+    <t>mar</t>
+  </si>
+  <si>
+    <t>apr</t>
+  </si>
+  <si>
+    <t>may</t>
+  </si>
+  <si>
+    <t>jun</t>
+  </si>
+  <si>
+    <t>jul</t>
+  </si>
+  <si>
+    <t>aug</t>
+  </si>
+  <si>
+    <t>sep</t>
+  </si>
+  <si>
+    <t>Revisiting from 1 oct</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=V1L3VDxmKYY&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=53</t>
+  </si>
+  <si>
+    <t>Rural and urban infra and dev</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=7piU4AeP81I&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=54</t>
+  </si>
+  <si>
+    <t>HDI</t>
+  </si>
+  <si>
+    <t>Completed Everything - Social schemes</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=pwyWfhJ66I8&amp;list=PLAMBum9_RkuOeHdtr8dm0n7qAvPJkaXsv&amp;index=55</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=cq7ea9pDrfk&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=49</t>
+  </si>
+  <si>
+    <t>Russia</t>
+  </si>
+  <si>
+    <t>South East Asia</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lezSVbnkHeg&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=50</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eemFq1n1X00&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=51</t>
+  </si>
+  <si>
+    <t>West Asia</t>
+  </si>
+  <si>
+    <t>Judicial review</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qL93sbca0sI&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=52</t>
+  </si>
+  <si>
+    <t>Africa</t>
+  </si>
+  <si>
+    <t>Marine Ecosystem</t>
+  </si>
+  <si>
+    <t>Protected area network</t>
+  </si>
+  <si>
+    <t>Judicial activism</t>
+  </si>
+  <si>
+    <t>May</t>
+  </si>
+  <si>
+    <t>https://currentaffairs.gktoday.in/month/current-affairs-may-2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QNoBbd-FlNg&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=53</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Harappa </t>
+  </si>
+  <si>
+    <t>Australia and new zealand</t>
+  </si>
+  <si>
+    <t>europe</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=Z8Xivh85z6I&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=55</t>
+  </si>
+  <si>
+    <t>North America</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=E1h7LSExvak&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=56</t>
+  </si>
+  <si>
+    <t>South America</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=f6vIG-S4XjU&amp;list=PLAMBum9_RkuNDtzpNQlCRcaOrNqrD4Gf7&amp;index=57</t>
+  </si>
+  <si>
+    <t>https://projectupsc.wordpress.com/2019/03/09/one-nation-one-card-pm-narendra-modi-launches-mobility-card-that-would-work-across-country/</t>
+  </si>
+  <si>
+    <t>https://byjus.com/free-ias-prep/upsc-exam-preparation-gist-yojana-august-2019/</t>
+  </si>
+  <si>
+    <t>Aug</t>
+  </si>
+  <si>
+    <t>State legislation</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_January_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_January_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>Post Maurya</t>
+  </si>
+  <si>
+    <t>First Need to complete NCERT and then if Time permits back to Nitin</t>
+  </si>
+  <si>
+    <t>https://www.drishtiias.com/free-downloads/monthly-current-affairs</t>
+  </si>
+  <si>
+    <t>https://www.drishtiias.com/images/pdf/Monthly%20Current%20Affairs%20Consolidation%20(March%202019)%20Part%20I%20&amp;%20II.pdf</t>
+  </si>
+  <si>
+    <t>March</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=lqW7aEHFtSM&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=22</t>
+  </si>
+  <si>
+    <t>Economy this week</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_February_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>Geography and you</t>
+  </si>
+  <si>
+    <t>DowntoEarth</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=-QA5smJnT-k&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=3</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_March_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_February_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8KvWWDu81Ns&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=4To181mxo8k</t>
+  </si>
+  <si>
+    <t>hindu 6th feb</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=aSd_Ri8CUMc</t>
+  </si>
+  <si>
+    <t>7th feb</t>
+  </si>
+  <si>
+    <t>Done</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fy-9eXg_7H8&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=5</t>
+  </si>
+  <si>
+    <t>Earths's Interior</t>
+  </si>
+  <si>
+    <t>9th feb</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=3qVJWGWZ3yc</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_April_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_March_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xDXXnPk2jB0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=dkdZnD5ck-I&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=6</t>
+  </si>
+  <si>
+    <t>Shadow zones</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=s2lVo9yLkQs&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=7</t>
+  </si>
+  <si>
+    <t>Endogenic</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=a9Qioq0wqE4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ysGYLrkrxmo&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=9</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=8hMD52kUhRk&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=11</t>
+  </si>
+  <si>
+    <t>Techtonics</t>
+  </si>
+  <si>
+    <t>17-Mar</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IkMyW47c4zo&amp;t=6s</t>
+  </si>
+  <si>
+    <t>april</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=J6ODyF3xilE&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=23</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=puOaCr93ORI&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=15</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oMMu-OBcpp4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xnIYk8vRmXc&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=18</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ip9ZZIo7mZ0</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/08-11-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>PT IS BAD</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_June_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_May_2019_www.iasparliament.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=MySitTEdpYw</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=DuqnK8n5ViQ&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=22</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gJVLbSVAGVQ&amp;t=5s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=QiZ1ie6F80M&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=28</t>
+  </si>
+  <si>
+    <t>atomospheric  layers</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tMGG63qnK1E</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JO7hUIMvb88&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=29</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Yojana_June_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=nEsKyz0Cc6w&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=32</t>
+  </si>
+  <si>
+    <t>Winds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=N5Zm38fA_I4&amp;t=3s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=wYc83TeGSR0</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=6-tGwHO1o7w&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=34</t>
+  </si>
+  <si>
+    <t>Local winds</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=A28uZaXdaC8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=9RSP1nYSD_Q</t>
+  </si>
+  <si>
+    <t>Temprature inversion</t>
+  </si>
+  <si>
+    <t>https://www.iasparliament.com/uploads/downloads/Gist_of_Kurukshetra_July_2019_www.iasparliament.com.pdf</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=smBiT7gG5Mg&amp;t=3s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ZVW4nSkRZIY</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=JRrM6Inrhn4&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=36</t>
+  </si>
+  <si>
+    <t>Jet Streams</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=NAiMnvFnQTg</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rKb-qcKmnpU&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=38</t>
+  </si>
+  <si>
+    <t>Cyclones</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jzDEzii_5sA</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=tRLdN3FfLZM&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=39</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=2tc-Mrsgjfg&amp;t=910s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=eUmvutKsFGQ&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=23</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=yoO_xDAm2mI&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=40</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ys-h4fuOwBI&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=42</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=IeMPEWC96jw</t>
+  </si>
+  <si>
+    <t>El Nino and La nina</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=jcFo1i5zzHc&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=43</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=gDf2Z18nAD8&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=44</t>
+  </si>
+  <si>
+    <t>Tropical cylones</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=mqQHraQyBa8&amp;t=767s</t>
+  </si>
+  <si>
+    <t>Mrunal Economy Again</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=AoBNl48z7FE&amp;list=PLnLPOFlKHGpGIQdN4CwAcC10K0rf8o5Hs&amp;index=1</t>
+  </si>
+  <si>
+    <t>Starting Again</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=D-PKBYAM5h8</t>
+  </si>
+  <si>
+    <t>Tropical Climate</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=X94PCwczGKM&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=49</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=oXAl5NLX0L8&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=51</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=UhoZUZoRAt8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rQQsSbuStf4&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=52</t>
+  </si>
+  <si>
+    <t>sept</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/04-10-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=xDeDsIZZ5Ig&amp;list=PLfhUF7AO5ZR16jjRQmHEGYw_Xi1RGsrzq&amp;index=59</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/05-10-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=ajksA_jVDm8</t>
+  </si>
+  <si>
+    <t>Yojana Oct 2019</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=qtlDQrRvm60</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=M0pCjSpA3I8</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=fnVL2GSrWEk</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=feSEHXDMEhI</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rs8AOYBc0B4</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=zwl8UOYgM7Y&amp;list=PLkJ-kjtioPGrnAYrBxGA1Z5P26LJo4zMJ&amp;index=27</t>
+  </si>
+  <si>
+    <t>Yojana Nov 2019</t>
+  </si>
+  <si>
+    <t>complete</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/08-10-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>https://afeias.com/knowledge-centre/newspaper-clips/09-10-2019-important-news-clippings/</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=1573zt0yzbs&amp;t=14s</t>
+  </si>
+  <si>
+    <t>https://www.youtube.com/watch?v=rSpJK5sOGak</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="4" x14ac:knownFonts="1">
+  <fonts count="7" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -886,8 +1517,29 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="7">
+  <fills count="10">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -921,6 +1573,24 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="4" tint="-0.249977111117893"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0" tint="-0.34998626667073579"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -984,7 +1654,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="41">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -1023,12 +1693,37 @@
     <xf numFmtId="0" fontId="0" fillId="4" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="6" borderId="4" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="17" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="4" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="16" fontId="1" fillId="0" borderId="0" xfId="1" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="1" fillId="7" borderId="0" xfId="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="8" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="16" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" quotePrefix="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="9" borderId="0" xfId="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
-  <dxfs count="19">
+  <dxfs count="18">
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
@@ -1036,10 +1731,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
-    </dxf>
-    <dxf>
-      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
+      <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="0" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
     </dxf>
     <dxf>
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="1" indent="0" justifyLastLine="0" shrinkToFit="0" readingOrder="0"/>
@@ -1104,8 +1796,8 @@
   <autoFilter ref="A1:F453" xr:uid="{0308A886-9249-4456-9015-FBC3CFDDA2B7}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{CC3A96BC-813C-4EA8-8F26-40FAAA4B1712}" name="Home"/>
-    <tableColumn id="2" xr3:uid="{6CD284B6-66E6-44B9-A409-9E175D2FC82F}" name="Topic" dataDxfId="18"/>
-    <tableColumn id="6" xr3:uid="{3163F8E3-2FC8-49BB-8D3E-2879027D97F8}" name="Link" dataDxfId="17"/>
+    <tableColumn id="2" xr3:uid="{6CD284B6-66E6-44B9-A409-9E175D2FC82F}" name="Topic" dataDxfId="17"/>
+    <tableColumn id="6" xr3:uid="{3163F8E3-2FC8-49BB-8D3E-2879027D97F8}" name="Link" dataDxfId="16"/>
     <tableColumn id="3" xr3:uid="{B690BDFD-B0E6-425E-9E1C-AABB8C36C09E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{E373534B-5943-4FD6-870D-F772AE1C58FC}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{80CC353F-F109-4505-B33A-D32FBF238775}" name="Revision 3"/>
@@ -1130,10 +1822,10 @@
 </file>
 
 <file path=xl/tables/table11.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{63253F8D-73FD-4363-8179-10D8A673D8B2}" name="Table11110" displayName="Table11110" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{EC922FB9-6E04-4D95-9C6B-E911C0430319}"/>
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="9" xr:uid="{63253F8D-73FD-4363-8179-10D8A673D8B2}" name="Table11110" displayName="Table11110" ref="A1:F27" totalsRowShown="0">
+  <autoFilter ref="A1:F27" xr:uid="{EC922FB9-6E04-4D95-9C6B-E911C0430319}"/>
   <tableColumns count="6">
-    <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="Date"/>
+    <tableColumn id="1" xr3:uid="{B647F790-838F-4D0B-8C44-2B48FBA97A1A}" name="17-Mar"/>
     <tableColumn id="2" xr3:uid="{304D14A7-A07B-4C15-AAD7-E12B4041C8E6}" name="Topic" dataDxfId="3"/>
     <tableColumn id="6" xr3:uid="{B72399E5-DE01-483E-A0A8-D8C6896AB732}" name="Links" dataDxfId="2"/>
     <tableColumn id="3" xr3:uid="{7971D3C2-41C2-43FF-B1D2-094251D1D3BD}" name="Revision 1 date"/>
@@ -1164,8 +1856,8 @@
   <autoFilter ref="A1:F453" xr:uid="{54086424-7AFF-4140-BF3D-A76E50BCEE4F}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{4601D0EA-624B-4B5C-AC2A-2EEF46A5C460}" name="Home"/>
-    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="16"/>
-    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="15"/>
+    <tableColumn id="2" xr3:uid="{5E72D46D-6CE2-4724-A197-D8A87282F560}" name="Topic" dataDxfId="15"/>
+    <tableColumn id="6" xr3:uid="{09C3332B-1D0C-480F-8CA9-3DA1B7466728}" name="Link" dataDxfId="14"/>
     <tableColumn id="3" xr3:uid="{29CCEBD6-20E9-4B31-998D-5D304C0F996E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{20C313ED-C53A-4DB3-8845-8257BFB8EA42}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F814DE54-FA69-431E-9D4C-F00F685B123B}" name="Revision 3"/>
@@ -1179,8 +1871,8 @@
   <autoFilter ref="A1:F14" xr:uid="{BC9C2C47-DCC1-4D84-8B2B-E6177ED79464}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{262B836A-3EE1-46B2-887C-BC31972B2F4A}" name="Home"/>
-    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="14"/>
-    <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link" dataDxfId="13"/>
+    <tableColumn id="2" xr3:uid="{13781082-B564-47EF-AD5D-A3C0C3BACC01}" name="Topic" dataDxfId="13"/>
+    <tableColumn id="6" xr3:uid="{499DD737-2408-4C0A-8074-2F8298E5889C}" name="Link" dataDxfId="12"/>
     <tableColumn id="3" xr3:uid="{734B2052-8E90-4356-8ED4-420360436E3E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{C14AF66D-D87E-4A80-89A5-5362494F0276}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{0CACE4E9-8EBB-4CCD-B216-9EE878785917}" name="Revision 3"/>
@@ -1194,8 +1886,8 @@
   <autoFilter ref="A1:F14" xr:uid="{213D4D0F-F86E-44E4-BD87-98EF9D3D8787}"/>
   <tableColumns count="6">
     <tableColumn id="1" xr3:uid="{1F6E0EE7-758A-4021-BF3F-E08A7E603FF6}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="12"/>
-    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="11"/>
+    <tableColumn id="2" xr3:uid="{132C5A4E-2B15-4081-B005-F446F3276FA3}" name="Topic" dataDxfId="11"/>
+    <tableColumn id="6" xr3:uid="{E0F10610-58C3-45C0-8BCF-63DDC69339C0}" name="Link" dataDxfId="10"/>
     <tableColumn id="3" xr3:uid="{463AD745-F6CD-40F5-8A61-78B956F741D9}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{4D9E87EA-88D8-46BD-8AB9-25D847E49C60}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{8F75F0B2-4EEE-4421-BF2C-831216466DDA}" name="Revision 3"/>
@@ -1209,7 +1901,7 @@
   <autoFilter ref="A1:E14" xr:uid="{BCEDDA79-7C2A-4819-A1F5-02EACD137C01}"/>
   <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{F5ED958F-8E73-4288-93BA-BC1212094472}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="10"/>
+    <tableColumn id="2" xr3:uid="{F0AE1404-479E-4083-8FA2-ACD89EC88F6F}" name="Topic" dataDxfId="9"/>
     <tableColumn id="3" xr3:uid="{88148940-2066-4016-AAD3-68E44286A0F2}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{D0A4A4CC-61E7-4D6D-9BB3-4A328695817F}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{F4BFAFF6-B3DA-45FA-BF26-D5E8B5D81435}" name="Revision 3"/>
@@ -1219,12 +1911,11 @@
 </file>
 
 <file path=xl/tables/table6.xml><?xml version="1.0" encoding="utf-8"?>
-<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2E17EE99-DC8E-4915-81AA-8A905D81C102}" name="Table16" displayName="Table16" ref="A1:F14" totalsRowShown="0">
-  <autoFilter ref="A1:F14" xr:uid="{EB794121-1F54-449C-A5CC-DB271346CB80}"/>
-  <tableColumns count="6">
+<table xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="xr xr3" id="5" xr:uid="{2E17EE99-DC8E-4915-81AA-8A905D81C102}" name="Table16" displayName="Table16" ref="A1:E14" totalsRowShown="0">
+  <autoFilter ref="A1:E14" xr:uid="{EB794121-1F54-449C-A5CC-DB271346CB80}"/>
+  <tableColumns count="5">
     <tableColumn id="1" xr3:uid="{EE435F07-0195-4C3D-BCB5-3A901EFB042E}" name="Date"/>
-    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic" dataDxfId="9"/>
-    <tableColumn id="6" xr3:uid="{E4DF8B2D-3A28-4C98-8990-91F29FCCE70B}" name="Link ?" dataDxfId="8"/>
+    <tableColumn id="2" xr3:uid="{6A3172A5-270C-47CA-AED9-839596F05D1E}" name="Topic" dataDxfId="8"/>
     <tableColumn id="3" xr3:uid="{B9F6ACE1-4779-478D-B208-35095927818E}" name="Revision 1 date"/>
     <tableColumn id="4" xr3:uid="{0B73A869-3A63-4110-BBD3-C9F44AF0E310}" name="Revision 2"/>
     <tableColumn id="5" xr3:uid="{E95DCAD6-56AA-4C6B-B9BF-BB3446C0103B}" name="Revision 3"/>
@@ -1542,7 +2233,7 @@
   <dimension ref="A1:F26"/>
   <sheetViews>
     <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
+      <selection activeCell="A3" sqref="A3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1553,190 +2244,199 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="E1" s="19" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
       <c r="F1" s="20"/>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="B2" s="15" t="s">
-        <v>38</v>
+      <c r="A2" s="36" t="s">
+        <v>9</v>
+      </c>
+      <c r="B2" s="38" t="s">
+        <v>37</v>
       </c>
       <c r="E2" s="19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="F2" s="21"/>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A3" s="16" t="s">
-        <v>73</v>
-      </c>
-      <c r="B3" s="15" t="s">
-        <v>39</v>
+        <v>72</v>
+      </c>
+      <c r="B3" s="27" t="s">
+        <v>38</v>
       </c>
       <c r="E3" s="19" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="F3" s="22"/>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A4" s="16" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B4" s="21" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="E4" s="19" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="F4" s="23"/>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A5" s="21" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
       <c r="B5" s="17" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="30" t="s">
+        <v>16</v>
+      </c>
+      <c r="B6" s="38" t="s">
         <v>40</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="4" t="s">
-        <v>17</v>
-      </c>
-      <c r="B6" s="15" t="s">
-        <v>41</v>
       </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="B7" s="15" t="s">
-        <v>42</v>
+        <v>17</v>
+      </c>
+      <c r="B7" s="38" t="s">
+        <v>41</v>
       </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A8" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B8" s="38" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="20" t="s">
         <v>19</v>
       </c>
-      <c r="B8" s="15" t="s">
+      <c r="B9" s="15" t="s">
         <v>43</v>
       </c>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="4" t="s">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="40" t="s">
         <v>20</v>
       </c>
-      <c r="B9" s="15" t="s">
+      <c r="B10" s="38" t="s">
         <v>44</v>
       </c>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="4" t="s">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A11" s="40" t="s">
         <v>21</v>
       </c>
-      <c r="B10" s="15" t="s">
+      <c r="B11" s="38" t="s">
         <v>45</v>
       </c>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A11" s="4" t="s">
+    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A12" s="40" t="s">
         <v>22</v>
       </c>
-      <c r="B11" s="15" t="s">
+      <c r="B12" s="20" t="s">
         <v>46</v>
       </c>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A12" s="4" t="s">
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A13" s="21" t="s">
         <v>23</v>
       </c>
-      <c r="B12" s="4" t="s">
+      <c r="B13" s="20" t="s">
         <v>47</v>
       </c>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A13" s="16" t="s">
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="40" t="s">
         <v>24</v>
       </c>
-      <c r="B13" s="4" t="s">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="16" t="s">
+      <c r="B14" s="26" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="16" t="s">
         <v>25</v>
       </c>
-      <c r="B14" t="s">
+      <c r="B15" s="20" t="s">
         <v>70</v>
-      </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="4" t="s">
-        <v>26</v>
-      </c>
-      <c r="B15" s="20" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
+        <v>26</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>372</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="4" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A17" s="4" t="s">
+      <c r="B17" s="39" t="s">
+        <v>373</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="16" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A18" s="16" t="s">
+      <c r="B18" t="s">
+        <v>447</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="4" t="s">
         <v>29</v>
       </c>
     </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A19" s="4" t="s">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="4" t="s">
         <v>30</v>
       </c>
     </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4" t="s">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="40" t="s">
         <v>31</v>
       </c>
     </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A21" s="4" t="s">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="40" t="s">
         <v>32</v>
       </c>
     </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4" t="s">
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="40" t="s">
         <v>33</v>
       </c>
     </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A23" s="4" t="s">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="15" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A24" s="15" t="s">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="38" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A25" s="15" t="s">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="38" t="s">
         <v>36</v>
-      </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
-        <v>37</v>
       </c>
     </row>
   </sheetData>
@@ -1779,18 +2479,97 @@
     <hyperlink ref="B13" location="Kurukshetra!A1" display="Kurukshetra" xr:uid="{03570F46-8CB1-4137-B13F-704A293B491F}"/>
     <hyperlink ref="B4" location="'History Vedic'!A1" display="History - Vedic" xr:uid="{DCFC1395-58A9-4F9C-A3F8-3941D42053D6}"/>
     <hyperlink ref="B15" location="PtCurrent!A1" display="PT current affairs" xr:uid="{3D2565B4-404E-4394-801C-B6C08F7E40CC}"/>
+    <hyperlink ref="B14" location="GKToday!A1" display="GK Today" xr:uid="{6D2EA1B5-F13C-4286-9FEA-AD6BA8BCFF2A}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
+  <dimension ref="A1:F10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="55.77734375" style="2" customWidth="1"/>
+    <col min="3" max="3" width="47.21875" style="2" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="C2" s="3"/>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="C3" s="3"/>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="C4" s="3"/>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="C5" s="3"/>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="C6" s="3"/>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="C7" s="3"/>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="C8" s="3"/>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="4"/>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="C10" s="4"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9E4C534A-03EF-4B67-AA22-230DFE12C191}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <tableParts count="1">
+    <tablePart r:id="rId1"/>
+  </tableParts>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9FB4F1B6-2FFD-458F-8F49-E2DCCCF2181F}">
   <dimension ref="A1:F13"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B27" sqref="B27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -1806,7 +2585,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -1868,7 +2647,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet11.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{BF2A9914-D7F7-4401-A210-4BA0D9B13688}">
   <dimension ref="A1:E6"/>
   <sheetViews>
@@ -1919,61 +2698,66 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet12.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{14E23A5E-4639-4857-AB47-A878961FD1B8}">
-  <dimension ref="A1:F6"/>
+  <dimension ref="A1:E6"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C27" sqref="C27"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="74" style="2" customWidth="1"/>
-    <col min="3" max="3" width="45.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
         <v>0</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
-        <v>6</v>
+      <c r="C1" t="s">
+        <v>2</v>
       </c>
       <c r="D1" t="s">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="C2" s="4"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="4"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B2" s="2" t="s">
+        <v>350</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B3" s="2" t="s">
+        <v>364</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="C4" s="4"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="2" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="C5" s="4"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="6" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="C6" s="4"/>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Date" xr:uid="{5455ABAD-9876-4810-B631-01626C768343}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
     <tablePart r:id="rId1"/>
@@ -1981,7 +2765,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet13.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D3B093A3-08AD-4C6E-A23B-42579CAFD690}">
   <dimension ref="A1:F4"/>
   <sheetViews>
@@ -2003,7 +2787,7 @@
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -2035,7 +2819,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet14.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2D8307D7-CFCD-4379-9421-921A35A6E178}">
   <dimension ref="A1:E1"/>
   <sheetViews>
@@ -2073,7 +2857,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet15.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E78D2B76-457A-4626-B3EB-FE38F736D528}">
   <dimension ref="A1:E13"/>
   <sheetViews>
@@ -2132,12 +2916,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet16.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4F5084CE-A552-4194-B656-0950CEBF4EE2}">
-  <dimension ref="A1:F32"/>
+  <dimension ref="A1:F48"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A20" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -2149,7 +2933,7 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
@@ -2172,10 +2956,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
     </row>
     <row r="3" spans="1:6" ht="144" x14ac:dyDescent="0.3">
@@ -2183,10 +2967,10 @@
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2194,10 +2978,10 @@
         <v>43774</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>80</v>
+        <v>79</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2205,10 +2989,10 @@
         <v>43775</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2216,10 +3000,10 @@
         <v>43781</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>82</v>
+        <v>81</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2227,10 +3011,10 @@
         <v>43783</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>83</v>
+        <v>82</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2238,10 +3022,10 @@
         <v>43784</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2249,10 +3033,10 @@
         <v>43787</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>112</v>
-      </c>
-      <c r="C9" s="3" t="s">
-        <v>113</v>
       </c>
     </row>
     <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2260,10 +3044,10 @@
         <v>43789</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>123</v>
+        <v>122</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
@@ -2271,7 +3055,7 @@
         <v>43791</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>126</v>
+        <v>125</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2279,10 +3063,10 @@
         <v>43795</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>128</v>
+        <v>127</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>127</v>
+        <v>126</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2290,10 +3074,10 @@
         <v>43797</v>
       </c>
       <c r="B13" s="2" t="s">
+        <v>129</v>
+      </c>
+      <c r="C13" s="3" t="s">
         <v>130</v>
-      </c>
-      <c r="C13" s="3" t="s">
-        <v>131</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2301,10 +3085,10 @@
         <v>43800</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>143</v>
+        <v>142</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>142</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -2312,10 +3096,10 @@
         <v>43803</v>
       </c>
       <c r="B15" s="2" t="s">
+        <v>152</v>
+      </c>
+      <c r="C15" s="3" t="s">
         <v>153</v>
-      </c>
-      <c r="C15" s="3" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="16" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -2323,10 +3107,10 @@
         <v>43805</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
     </row>
     <row r="17" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2334,10 +3118,10 @@
         <v>43807</v>
       </c>
       <c r="B17" s="2" t="s">
+        <v>162</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>163</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>164</v>
       </c>
     </row>
     <row r="18" spans="1:3" ht="57.6" x14ac:dyDescent="0.3">
@@ -2345,10 +3129,10 @@
         <v>43808</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
     </row>
     <row r="19" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2356,10 +3140,10 @@
         <v>43810</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>174</v>
+        <v>173</v>
       </c>
     </row>
     <row r="20" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2367,10 +3151,10 @@
         <v>43823</v>
       </c>
       <c r="B20" s="2" t="s">
+        <v>175</v>
+      </c>
+      <c r="C20" s="3" t="s">
         <v>176</v>
-      </c>
-      <c r="C20" s="3" t="s">
-        <v>177</v>
       </c>
     </row>
     <row r="21" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2378,10 +3162,10 @@
         <v>43824</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2389,10 +3173,10 @@
         <v>43825</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="C22" s="3" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2400,10 +3184,10 @@
         <v>43826</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>193</v>
+        <v>192</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2411,10 +3195,10 @@
         <v>43829</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>200</v>
+      </c>
+      <c r="C24" s="3" t="s">
         <v>201</v>
-      </c>
-      <c r="C24" s="3" t="s">
-        <v>202</v>
       </c>
     </row>
     <row r="25" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2422,10 +3206,10 @@
         <v>43831</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="26" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2433,10 +3217,10 @@
         <v>43832</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="27" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2444,10 +3228,10 @@
         <v>43834</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -2455,10 +3239,10 @@
         <v>43836</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="C28" s="4" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -2466,10 +3250,10 @@
         <v>43838</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -2477,10 +3261,10 @@
         <v>43839</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -2488,10 +3272,10 @@
         <v>43843</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -2499,10 +3283,186 @@
         <v>43851</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>243</v>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>268</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>267</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>273</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>282</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>281</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43863</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>298</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>297</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>302</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B38" s="2" t="s">
+        <v>305</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>306</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>308</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43865</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>310</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>309</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>336</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>335</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>337</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>338</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43870</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>340</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>339</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>343</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>342</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43874</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>351</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>349</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43876</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>352</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>353</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>354</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>356</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>357</v>
       </c>
     </row>
   </sheetData>
@@ -2538,15 +3498,31 @@
     <hyperlink ref="C30" r:id="rId28" xr:uid="{1AA9426E-81F5-43E1-B21F-4C67BAF4AE02}"/>
     <hyperlink ref="C31" r:id="rId29" xr:uid="{1ECAADC4-F528-49C9-9288-E5F60981C400}"/>
     <hyperlink ref="C32" r:id="rId30" xr:uid="{FAEC95BC-7B5E-4F54-B2FD-01C4B1440CE2}"/>
+    <hyperlink ref="C33" r:id="rId31" xr:uid="{6FDB7717-F42A-430E-94E8-EC39047C4357}"/>
+    <hyperlink ref="C34" r:id="rId32" xr:uid="{53409932-E321-484E-99D0-4C36CBF71481}"/>
+    <hyperlink ref="C35" r:id="rId33" xr:uid="{0A39EEF4-CE15-472C-8050-99F200DAFE3F}"/>
+    <hyperlink ref="C36" r:id="rId34" xr:uid="{DD698178-BF55-400F-9A30-E91E9F11158C}"/>
+    <hyperlink ref="C37" r:id="rId35" xr:uid="{47BC699A-EDFB-4B9F-AE01-29CABACD36DC}"/>
+    <hyperlink ref="C38" r:id="rId36" xr:uid="{D63DE6C1-BEB3-439E-BCFA-2ED0548B6299}"/>
+    <hyperlink ref="C39" r:id="rId37" xr:uid="{0127F3B8-112A-4E07-B0CB-36BCF95548FD}"/>
+    <hyperlink ref="C40" r:id="rId38" xr:uid="{59ECF87A-1BB4-4D9E-955D-5AB130A3D0E3}"/>
+    <hyperlink ref="C41" r:id="rId39" xr:uid="{D3211083-7424-4FBC-B515-E831B860B338}"/>
+    <hyperlink ref="C42" r:id="rId40" xr:uid="{A1FCA476-ACF8-4555-81BA-7CD6B0D8CBB5}"/>
+    <hyperlink ref="C43" r:id="rId41" xr:uid="{8B53A600-5ABA-4F3D-ACD6-2E78A48F79F6}"/>
+    <hyperlink ref="C44" r:id="rId42" xr:uid="{3CDC8DD4-0954-4FB1-A90C-ECAD7DF00C4E}"/>
+    <hyperlink ref="C45" r:id="rId43" xr:uid="{DE67ABB4-BA8C-4265-88FE-A2C2C192932A}"/>
+    <hyperlink ref="C46" r:id="rId44" xr:uid="{0CAB1158-09A3-4170-AA01-7258B38AFCFC}"/>
+    <hyperlink ref="C47" r:id="rId45" xr:uid="{5338C338-3FDA-4127-A0E2-38561307CAFF}"/>
+    <hyperlink ref="C48" r:id="rId46" xr:uid="{F1B8B2B3-42C6-44D5-9901-24B2DAC08144}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId31"/>
+    <tablePart r:id="rId47"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet17.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83403EBF-35A0-46D6-914B-8481A514EC72}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2561,7 +3537,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
   </sheetData>
@@ -2570,28 +3546,28 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet18.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EC83EB28-B904-4728-8EE6-C29E47C604CC}">
-  <dimension ref="A1:F12"/>
+  <dimension ref="A1:F27"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D28" sqref="D28"/>
+    <sheetView topLeftCell="A2" workbookViewId="0">
+      <selection activeCell="C27" sqref="C27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="70.5546875" style="2" customWidth="1"/>
-    <col min="3" max="3" width="30.5546875" style="2" customWidth="1"/>
+    <col min="3" max="3" width="30.5546875" style="34" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>0</v>
+      <c r="A1" s="29" t="s">
+        <v>398</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="2" t="s">
+      <c r="C1" s="34" t="s">
         <v>5</v>
       </c>
       <c r="D1" t="s">
@@ -2605,54 +3581,332 @@
       </c>
     </row>
     <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="C2" s="3"/>
+      <c r="A2" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>374</v>
+      </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
+      <c r="A3" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>377</v>
+      </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
+      <c r="A4" s="1">
+        <v>43901</v>
+      </c>
+      <c r="B4" s="2" t="s">
+        <v>384</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>383</v>
+      </c>
     </row>
     <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
+      <c r="A5" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B5" s="2" t="s">
+        <v>391</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>390</v>
+      </c>
     </row>
     <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
+      <c r="A6" s="1">
+        <v>43907</v>
+      </c>
+      <c r="B6" s="2" t="s">
+        <v>393</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>392</v>
+      </c>
     </row>
     <row r="7" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
+      <c r="C7" s="35" t="s">
+        <v>395</v>
+      </c>
     </row>
     <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
+      <c r="A8" s="1">
+        <v>43909</v>
+      </c>
+      <c r="B8" s="2" t="s">
+        <v>397</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>396</v>
+      </c>
     </row>
     <row r="9" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
+      <c r="C9" s="35" t="s">
+        <v>402</v>
+      </c>
     </row>
     <row r="10" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
+      <c r="C10" s="35" t="s">
+        <v>404</v>
+      </c>
     </row>
     <row r="11" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
+      <c r="B11" s="2" t="s">
+        <v>414</v>
+      </c>
+      <c r="C11" s="35" t="s">
+        <v>413</v>
+      </c>
     </row>
     <row r="12" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
+      <c r="C12" s="35" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B13" s="2" t="s">
+        <v>419</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B14" s="2" t="s">
+        <v>423</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="C15" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B16" s="2" t="s">
+        <v>426</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>422</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B17" s="2" t="s">
+        <v>431</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>430</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B18" s="2" t="s">
+        <v>434</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>433</v>
+      </c>
+    </row>
+    <row r="19" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C19" s="35" t="s">
+        <v>436</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C20" s="35" t="s">
+        <v>439</v>
+      </c>
+    </row>
+    <row r="21" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C21" s="35" t="s">
+        <v>440</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B22" s="2" t="s">
+        <v>442</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>443</v>
+      </c>
+    </row>
+    <row r="23" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B23" s="2" t="s">
+        <v>445</v>
+      </c>
+      <c r="C23" s="35" t="s">
+        <v>444</v>
+      </c>
+    </row>
+    <row r="24" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B24" s="2" t="s">
+        <v>451</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>452</v>
+      </c>
+    </row>
+    <row r="25" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C25" s="35" t="s">
+        <v>453</v>
+      </c>
+    </row>
+    <row r="26" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C26" s="35" t="s">
+        <v>455</v>
+      </c>
+    </row>
+    <row r="27" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="C27" s="35" t="s">
+        <v>458</v>
+      </c>
     </row>
   </sheetData>
+  <hyperlinks>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3FFDB037-2F63-413A-8EA4-DCFFE9AA928F}"/>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{EBB525BC-003F-4B28-AFF8-784A3EAABB43}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{63223F45-EBD4-425F-B535-6B98E86805BB}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{47D40A23-E66D-4222-8F90-26DA13BA60C3}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{4A3EB316-9B66-4637-A98A-87C8FB8F6B15}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{E05DADBC-784A-4524-8D57-1564CA148F95}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{350182BA-BE96-4F11-9616-3C36234C8D9C}"/>
+    <hyperlink ref="C8" r:id="rId7" xr:uid="{4186DB41-0EB3-4EAD-A5BC-E9650F95083B}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{216F4013-55CF-43E7-8169-AABC054CA591}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{0A5C8E90-BF68-4348-9333-9F0C3DCF64D4}"/>
+    <hyperlink ref="C11" r:id="rId10" xr:uid="{33AF84BC-EF65-447B-8D24-F805C89A4084}"/>
+    <hyperlink ref="C12" r:id="rId11" xr:uid="{690E14E0-1EBF-4511-B936-D9A2BD33F100}"/>
+    <hyperlink ref="C13" r:id="rId12" xr:uid="{63CE9364-285B-42D5-BA09-6026E1B6FDA7}"/>
+    <hyperlink ref="C14" r:id="rId13" xr:uid="{ED109CF1-20C9-4C99-98FD-26714BFE087E}"/>
+    <hyperlink ref="C15" r:id="rId14" xr:uid="{6FE07AA5-541F-4222-AD01-40B48A172CBF}"/>
+    <hyperlink ref="C16" r:id="rId15" xr:uid="{27ADF0ED-F934-4F0E-914B-EA93B8470906}"/>
+    <hyperlink ref="C17" r:id="rId16" xr:uid="{1EE97641-D41A-4074-A563-745A00583E54}"/>
+    <hyperlink ref="C18" r:id="rId17" xr:uid="{8581806B-1971-4FE0-AE71-13969510B031}"/>
+    <hyperlink ref="C19" r:id="rId18" xr:uid="{F7E0BA87-D124-40A8-B7DC-BB400B433766}"/>
+    <hyperlink ref="C20" r:id="rId19" xr:uid="{8288F1AA-B2F7-4316-BA2B-6919C088C10D}"/>
+    <hyperlink ref="C21" r:id="rId20" xr:uid="{50092904-6AF6-489A-BACE-93B3D47BDE5C}"/>
+    <hyperlink ref="C22" r:id="rId21" xr:uid="{7AC9E74E-EAB9-4CDD-B46B-DBC730EF3EC2}"/>
+    <hyperlink ref="C23" r:id="rId22" xr:uid="{53B8593D-624B-4CF9-9BC7-50AEAB0C1ADD}"/>
+    <hyperlink ref="C24" r:id="rId23" xr:uid="{5CA8C7BD-B013-4D90-BF16-696047FCF621}"/>
+    <hyperlink ref="C25" r:id="rId24" xr:uid="{113B03B5-89F7-429B-B452-B4688CEE5E83}"/>
+    <hyperlink ref="C26" r:id="rId25" xr:uid="{AEEE3E86-1D96-455B-A1E2-7BB05C41BE8D}"/>
+    <hyperlink ref="C27" r:id="rId26" xr:uid="{5F87F101-8026-4619-BD83-6C925792C6D5}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId1"/>
+    <tablePart r:id="rId27"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet19.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9CD61A37-C592-4092-AEC0-6E06B4A8F062}">
+  <dimension ref="A1:H8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C7" sqref="C7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="32.6640625" customWidth="1"/>
+    <col min="3" max="3" width="56" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43874</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>347</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>348</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="H2" s="4" t="s">
+        <v>366</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>368</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>367</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="1"/>
+      <c r="C4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="1"/>
+      <c r="C5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="1"/>
+      <c r="C6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="1"/>
+      <c r="C7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="1"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{B41AD870-6A24-4C8C-9171-ED03630C96B9}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{CB759ED0-9C09-45CB-9841-782A7CE4B570}"/>
+    <hyperlink ref="H2" r:id="rId2" xr:uid="{6EEEF225-C1A7-40F0-9CE3-4FEEABFCE024}"/>
+    <hyperlink ref="C3" r:id="rId3" display="https://www.drishtiias.com/images/pdf/Monthly Current Affairs Consolidation (March 2019) Part I &amp; II.pdf" xr:uid="{61197FAB-9BEB-4E4C-B7B8-D25862398C9E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F9311E76-2DC7-40B3-986C-2633EA95A7E8}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2664,126 +3918,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC45D955-E377-4351-AB0C-67F1F7A77876}">
-  <dimension ref="A1:G7"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="14.77734375" customWidth="1"/>
-    <col min="3" max="3" width="61.21875" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-      <c r="G1" s="4" t="s">
-        <v>220</v>
-      </c>
-    </row>
-    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>43824</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>186</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>187</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A3" s="1">
-        <v>43834</v>
-      </c>
-      <c r="B3" s="1">
-        <v>44137</v>
-      </c>
-      <c r="C3" s="4" t="s">
-        <v>216</v>
-      </c>
-    </row>
-    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A4" s="1">
-        <v>43836</v>
-      </c>
-      <c r="B4" s="1">
-        <v>44138</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>226</v>
-      </c>
-    </row>
-    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A5" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B5" s="1">
-        <v>44139</v>
-      </c>
-      <c r="C5" s="4" t="s">
-        <v>238</v>
-      </c>
-    </row>
-    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A6" s="1">
-        <v>43843</v>
-      </c>
-      <c r="B6" s="1">
-        <v>44140</v>
-      </c>
-      <c r="C6" s="4" t="s">
-        <v>244</v>
-      </c>
-    </row>
-    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
-      <c r="A7" s="1">
-        <v>43851</v>
-      </c>
-      <c r="B7" s="1">
-        <v>44141</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>257</v>
-      </c>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{8E302C93-9BBC-4A32-964B-696B5E43AB8A}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{3620654A-B586-4474-A049-2597A7E29A90}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{5330ED9F-8803-4D50-8D8D-7B160A9D71F8}"/>
-    <hyperlink ref="G1" r:id="rId3" xr:uid="{6AA639E5-23CD-4F20-B910-09B153949EEB}"/>
-    <hyperlink ref="C4" r:id="rId4" xr:uid="{FB753580-EDAE-4495-8C63-9C0BDED2D401}"/>
-    <hyperlink ref="C5" r:id="rId5" xr:uid="{8F3C5418-4924-4772-8C65-1CECD5C62C08}"/>
-    <hyperlink ref="C6" r:id="rId6" xr:uid="{6F2FB107-B50E-470B-8993-BFEFE59B426A}"/>
-    <hyperlink ref="C7" r:id="rId7" xr:uid="{7383BCC2-45EF-4002-B957-E5472FAB965F}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet20.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{83B27BEC-CCAE-4770-A888-58036A4D3E39}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2795,11 +3930,14 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet21.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E59E89B2-654D-4F78-ABF7-9C468CCBE444}">
-  <dimension ref="A1:E19"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -2808,7 +3946,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -2828,7 +3966,7 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -2839,7 +3977,7 @@
         <v>43773</v>
       </c>
       <c r="B3" s="11" t="s">
-        <v>58</v>
+        <v>57</v>
       </c>
     </row>
     <row r="4" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -2847,7 +3985,7 @@
         <v>43779</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:5" ht="43.2" x14ac:dyDescent="0.3">
@@ -2855,7 +3993,7 @@
         <v>43782</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -2863,7 +4001,7 @@
         <v>43797</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>137</v>
+        <v>136</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -2871,7 +4009,7 @@
         <v>43800</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>145</v>
+        <v>144</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -2879,7 +4017,7 @@
         <v>43801</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>146</v>
+        <v>145</v>
       </c>
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.3">
@@ -2887,7 +4025,7 @@
         <v>43802</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.3">
@@ -2895,7 +4033,7 @@
         <v>43804</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.3">
@@ -2903,7 +4041,7 @@
         <v>43808</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.3">
@@ -2911,7 +4049,7 @@
         <v>43809</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>173</v>
+        <v>172</v>
       </c>
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.3">
@@ -2919,7 +4057,7 @@
         <v>43823</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>179</v>
+        <v>178</v>
       </c>
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.3">
@@ -2927,7 +4065,7 @@
         <v>43825</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.3">
@@ -2935,7 +4073,7 @@
         <v>43829</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.3">
@@ -2943,7 +4081,7 @@
         <v>43834</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
@@ -2951,7 +4089,7 @@
         <v>43842</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
@@ -2959,7 +4097,7 @@
         <v>43851</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
     </row>
     <row r="19" spans="1:2" x14ac:dyDescent="0.3">
@@ -2967,7 +4105,55 @@
         <v>43852</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>262</v>
+        <v>261</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>283</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B22" s="2" t="s">
+        <v>313</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="1">
+        <v>43872</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>346</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1">
+        <v>43882</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>361</v>
       </c>
     </row>
   </sheetData>
@@ -2978,7 +4164,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A6019475-EBF6-4229-92D0-55A2714CB4B1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -2990,7 +4176,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet23.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4259E504-D197-4591-BEBF-8FC89FF6F84A}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3002,7 +4188,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet24.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA582211-4BB8-4F1C-B635-52AB5DC2DE12}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3016,7 +4202,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet25.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2A38EDEC-6912-45F4-9FBB-08C9E71DEFBF}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3030,7 +4216,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet26.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{374539E4-7CF2-4F3F-9787-D7863CD828AC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3043,7 +4229,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet27.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B5D44057-A20E-416F-ADAE-EB28CDDF41C6}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3057,7 +4243,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet28.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B79CAE7F-8B70-40F9-9409-D3DD3B1AB4C1}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3071,7 +4257,271 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet29.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CC45D955-E377-4351-AB0C-67F1F7A77876}">
+  <dimension ref="A1:N16"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="16.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="61.21875" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+      <c r="G1" s="4" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43824</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>185</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+      <c r="G2" s="4"/>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43834</v>
+      </c>
+      <c r="B3" s="1">
+        <v>44137</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>215</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43836</v>
+      </c>
+      <c r="B4" s="1">
+        <v>44138</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>225</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B5" s="1">
+        <v>44139</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="M5" s="25" t="s">
+        <v>315</v>
+      </c>
+      <c r="N5" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43843</v>
+      </c>
+      <c r="B6" s="1">
+        <v>44140</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="M6" s="25" t="s">
+        <v>316</v>
+      </c>
+      <c r="N6" t="s">
+        <v>320</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>43851</v>
+      </c>
+      <c r="B7" s="1">
+        <v>44141</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>256</v>
+      </c>
+      <c r="M7" s="25" t="s">
+        <v>317</v>
+      </c>
+      <c r="N7" t="s">
+        <v>321</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B8" s="1">
+        <v>44105</v>
+      </c>
+      <c r="D8" t="s">
+        <v>327</v>
+      </c>
+      <c r="M8" s="25" t="s">
+        <v>318</v>
+      </c>
+      <c r="N8" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B9" t="s">
+        <v>370</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>369</v>
+      </c>
+      <c r="M9" s="25" t="s">
+        <v>319</v>
+      </c>
+      <c r="N9" t="s">
+        <v>323</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C10" s="4" t="s">
+        <v>401</v>
+      </c>
+      <c r="M10" s="25" t="s">
+        <v>320</v>
+      </c>
+      <c r="N10" t="s">
+        <v>324</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="H11" s="31" t="s">
+        <v>407</v>
+      </c>
+      <c r="M11" s="25" t="s">
+        <v>321</v>
+      </c>
+      <c r="N11" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="C12" s="4" t="s">
+        <v>406</v>
+      </c>
+      <c r="M12" s="25" t="s">
+        <v>322</v>
+      </c>
+      <c r="N12" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="M13" t="s">
+        <v>323</v>
+      </c>
+      <c r="N13" t="s">
+        <v>315</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>370</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>411</v>
+      </c>
+      <c r="M14" t="s">
+        <v>324</v>
+      </c>
+      <c r="N14" t="s">
+        <v>316</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B15" s="1">
+        <v>43971</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>438</v>
+      </c>
+      <c r="M15" t="s">
+        <v>325</v>
+      </c>
+      <c r="N15" t="s">
+        <v>317</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.3">
+      <c r="B16" s="1">
+        <v>44001</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>467</v>
+      </c>
+      <c r="M16" t="s">
+        <v>326</v>
+      </c>
+      <c r="N16" t="s">
+        <v>318</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{8E302C93-9BBC-4A32-964B-696B5E43AB8A}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3620654A-B586-4474-A049-2597A7E29A90}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{5330ED9F-8803-4D50-8D8D-7B160A9D71F8}"/>
+    <hyperlink ref="G1" r:id="rId3" xr:uid="{6AA639E5-23CD-4F20-B910-09B153949EEB}"/>
+    <hyperlink ref="C4" r:id="rId4" xr:uid="{FB753580-EDAE-4495-8C63-9C0BDED2D401}"/>
+    <hyperlink ref="C5" r:id="rId5" xr:uid="{8F3C5418-4924-4772-8C65-1CECD5C62C08}"/>
+    <hyperlink ref="C6" r:id="rId6" xr:uid="{6F2FB107-B50E-470B-8993-BFEFE59B426A}"/>
+    <hyperlink ref="C7" r:id="rId7" xr:uid="{7383BCC2-45EF-4002-B957-E5472FAB965F}"/>
+    <hyperlink ref="C9" r:id="rId8" xr:uid="{9FC586FA-A7E9-455C-9762-BF492608A0CD}"/>
+    <hyperlink ref="C10" r:id="rId9" xr:uid="{AAB842B0-4896-4034-92FC-7433659A2AF5}"/>
+    <hyperlink ref="C12" r:id="rId10" xr:uid="{8060AF32-D7D1-4FE5-83AB-1DF8FF1D1794}"/>
+    <hyperlink ref="C14" r:id="rId11" xr:uid="{659CD1C4-561C-48FB-A7DA-2F51D1594709}"/>
+    <hyperlink ref="C15" r:id="rId12" xr:uid="{A70D9188-CE14-4165-AFC3-BCBC64BC0D32}"/>
+    <hyperlink ref="C16" r:id="rId13" xr:uid="{8D8B2B0D-D0FB-49A1-B036-4B7D72826B36}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId14"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{F8E5530C-6B8D-4CA2-8B89-67D4E09E2843}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3085,272 +4535,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64904A22-8EE5-497D-9E05-7789FA782D5C}">
-  <dimension ref="A1:F22"/>
-  <sheetViews>
-    <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A7" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="40" customWidth="1"/>
-    <col min="3" max="3" width="62.77734375" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="6" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="7" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="7" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" s="8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" s="8" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" s="9" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A2" s="10">
-        <v>43769</v>
-      </c>
-      <c r="B2" s="11" t="s">
-        <v>14</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D2" s="12"/>
-      <c r="E2" s="12"/>
-      <c r="F2" s="13"/>
-    </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A3" s="10">
-        <v>43770</v>
-      </c>
-      <c r="B3" s="11" t="s">
-        <v>56</v>
-      </c>
-      <c r="C3" s="18" t="s">
-        <v>57</v>
-      </c>
-      <c r="D3" s="12"/>
-      <c r="E3" s="12"/>
-      <c r="F3" s="13"/>
-    </row>
-    <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
-      <c r="A4" s="10">
-        <v>43771</v>
-      </c>
-      <c r="B4" s="11" t="s">
-        <v>65</v>
-      </c>
-      <c r="C4" s="14"/>
-      <c r="D4" s="12"/>
-      <c r="E4" s="12"/>
-      <c r="F4" s="13"/>
-    </row>
-    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A5" s="10">
-        <v>43771</v>
-      </c>
-      <c r="B5" s="11" t="s">
-        <v>66</v>
-      </c>
-      <c r="C5" s="14"/>
-      <c r="D5" s="12"/>
-      <c r="E5" s="12"/>
-      <c r="F5" s="13"/>
-    </row>
-    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
-      <c r="A6" s="10">
-        <v>43773</v>
-      </c>
-      <c r="B6" s="11" t="s">
-        <v>78</v>
-      </c>
-      <c r="C6" s="14"/>
-      <c r="D6" s="12"/>
-      <c r="E6" s="12"/>
-      <c r="F6" s="13"/>
-    </row>
-    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
-      <c r="A7" s="10">
-        <v>43775</v>
-      </c>
-      <c r="B7" s="11" t="s">
-        <v>87</v>
-      </c>
-      <c r="C7" s="14"/>
-      <c r="D7" s="12"/>
-      <c r="E7" s="12"/>
-      <c r="F7" s="13"/>
-    </row>
-    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A8" s="10">
-        <v>43778</v>
-      </c>
-      <c r="B8" s="11" t="s">
-        <v>92</v>
-      </c>
-      <c r="C8" s="14"/>
-      <c r="D8" s="12"/>
-      <c r="E8" s="12"/>
-      <c r="F8" s="13"/>
-    </row>
-    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A9" s="10">
-        <v>43781</v>
-      </c>
-      <c r="B9" s="11" t="s">
-        <v>99</v>
-      </c>
-      <c r="C9" s="14"/>
-      <c r="D9" s="12"/>
-      <c r="E9" s="12"/>
-      <c r="F9" s="13"/>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
-      <c r="A10" s="10">
-        <v>43782</v>
-      </c>
-      <c r="B10" s="11" t="s">
-        <v>104</v>
-      </c>
-      <c r="C10" s="14"/>
-      <c r="D10" s="12"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="13"/>
-    </row>
-    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A11" s="10">
-        <v>43783</v>
-      </c>
-      <c r="B11" s="11" t="s">
-        <v>110</v>
-      </c>
-      <c r="C11" s="14"/>
-      <c r="D11" s="12"/>
-      <c r="E11" s="12"/>
-      <c r="F11" s="13"/>
-    </row>
-    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A12" s="10">
-        <v>43788</v>
-      </c>
-      <c r="B12" s="11" t="s">
-        <v>119</v>
-      </c>
-      <c r="C12" s="14"/>
-      <c r="D12" s="12"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="13"/>
-    </row>
-    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
-      <c r="A13" s="10">
-        <v>43789</v>
-      </c>
-      <c r="B13" s="11" t="s">
-        <v>120</v>
-      </c>
-      <c r="C13" s="14"/>
-      <c r="D13" s="12"/>
-      <c r="E13" s="12"/>
-      <c r="F13" s="13"/>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A14" s="10"/>
-      <c r="B14" s="11"/>
-      <c r="C14" s="14"/>
-      <c r="D14" s="12"/>
-      <c r="E14" s="12"/>
-      <c r="F14" s="13"/>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A15" s="10"/>
-      <c r="B15" s="11"/>
-      <c r="C15" s="14"/>
-      <c r="D15" s="12"/>
-      <c r="E15" s="12"/>
-      <c r="F15" s="13"/>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A16" s="10"/>
-      <c r="B16" s="11"/>
-      <c r="C16" s="14"/>
-      <c r="D16" s="12"/>
-      <c r="E16" s="12"/>
-      <c r="F16" s="13"/>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A17" s="10"/>
-      <c r="B17" s="11"/>
-      <c r="C17" s="14"/>
-      <c r="D17" s="12"/>
-      <c r="E17" s="12"/>
-      <c r="F17" s="13"/>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A18" s="10"/>
-      <c r="B18" s="11"/>
-      <c r="C18" s="14"/>
-      <c r="D18" s="12"/>
-      <c r="E18" s="12"/>
-      <c r="F18" s="13"/>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A19" s="10"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="14"/>
-      <c r="D19" s="12"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="13"/>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A20" s="10"/>
-      <c r="B20" s="11"/>
-      <c r="C20" s="14"/>
-      <c r="D20" s="12"/>
-      <c r="E20" s="12"/>
-      <c r="F20" s="13"/>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A21" s="10"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="14"/>
-      <c r="D21" s="12"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="13"/>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A22" s="10"/>
-      <c r="B22" s="11"/>
-      <c r="C22" s="14"/>
-      <c r="D22" s="12"/>
-      <c r="E22" s="12"/>
-      <c r="F22" s="13"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{D5A0FE31-76FF-4E4D-B3D9-5DB26AFD1067}"/>
-    <hyperlink ref="C2" r:id="rId1" xr:uid="{25B26B40-BF70-42F8-82ED-325AF6BA5B4B}"/>
-    <hyperlink ref="C3" r:id="rId2" xr:uid="{7DFF821D-794C-4DA3-AE99-99FDA83DAF73}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet30.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{432A11B7-8944-4C91-BE01-35A0863531CC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3364,7 +4549,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet31.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7DAED0BD-0D0C-444E-B89A-A383DC371162}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -3378,12 +4563,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet32.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4A6473B6-9076-46E1-98BE-6DA60CB65AF7}">
   <dimension ref="A1:F453"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A15" activePane="bottomLeft" state="frozen"/>
+      <pane ySplit="1" topLeftCell="A29" activePane="bottomLeft" state="frozen"/>
       <selection pane="bottomLeft"/>
     </sheetView>
   </sheetViews>
@@ -3395,13 +4580,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -3413,43 +4598,43 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43753</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="D2" s="1">
         <v>43779</v>
       </c>
     </row>
-    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43771</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="D3" s="1">
         <v>43779</v>
       </c>
     </row>
-    <row r="4" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43773</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>69</v>
+        <v>68</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3457,32 +4642,32 @@
         <v>43778</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>93</v>
-      </c>
-    </row>
-    <row r="6" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>92</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43782</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>102</v>
-      </c>
-    </row>
-    <row r="7" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43790</v>
       </c>
       <c r="B7" s="2" t="s">
+        <v>123</v>
+      </c>
+      <c r="C7" s="3" t="s">
         <v>124</v>
-      </c>
-      <c r="C7" s="3" t="s">
-        <v>125</v>
       </c>
     </row>
     <row r="8" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
@@ -3490,43 +4675,43 @@
         <v>43795</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>132</v>
+        <v>131</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="9" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43796</v>
       </c>
       <c r="B9" s="2" t="s">
+        <v>132</v>
+      </c>
+      <c r="C9" s="3" t="s">
         <v>133</v>
       </c>
-      <c r="C9" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    </row>
+    <row r="10" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43797</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>136</v>
+        <v>135</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="11" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43800</v>
       </c>
       <c r="B11" s="2" t="s">
+        <v>139</v>
+      </c>
+      <c r="C11" s="3" t="s">
         <v>140</v>
-      </c>
-      <c r="C11" s="3" t="s">
-        <v>141</v>
       </c>
     </row>
     <row r="12" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -3534,10 +4719,10 @@
         <v>43801</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>149</v>
+        <v>148</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3545,10 +4730,10 @@
         <v>43804</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
     </row>
     <row r="14" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -3556,10 +4741,10 @@
         <v>43807</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>161</v>
+        <v>160</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>160</v>
+        <v>159</v>
       </c>
     </row>
     <row r="15" spans="1:6" x14ac:dyDescent="0.3">
@@ -3567,10 +4752,10 @@
         <v>43808</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>169</v>
+        <v>168</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>168</v>
+        <v>167</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.3">
@@ -3578,10 +4763,10 @@
         <v>43809</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>171</v>
+        <v>170</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>170</v>
+        <v>169</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
@@ -3589,10 +4774,10 @@
         <v>43824</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="C17" s="4" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.3">
@@ -3600,10 +4785,10 @@
         <v>43825</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="C18" s="4" t="s">
-        <v>191</v>
+        <v>190</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
@@ -3611,10 +4796,10 @@
         <v>43826</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
       <c r="C19" s="4" t="s">
-        <v>195</v>
+        <v>194</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
@@ -3622,10 +4807,10 @@
         <v>43829</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="C20" s="4" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
@@ -3633,10 +4818,10 @@
         <v>43830</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
       <c r="C21" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="22" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3644,10 +4829,10 @@
         <v>43836</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="C22" s="4" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
     </row>
     <row r="23" spans="1:3" ht="28.8" x14ac:dyDescent="0.3">
@@ -3655,10 +4840,10 @@
         <v>43840</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="C23" s="4" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
@@ -3666,10 +4851,10 @@
         <v>43843</v>
       </c>
       <c r="B24" s="2" t="s">
+        <v>235</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>236</v>
-      </c>
-      <c r="C24" s="4" t="s">
-        <v>237</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
@@ -3677,10 +4862,10 @@
         <v>43844</v>
       </c>
       <c r="B25" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>239</v>
-      </c>
-      <c r="C25" s="4" t="s">
-        <v>240</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.3">
@@ -3688,10 +4873,10 @@
         <v>43846</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="C26" s="4" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.3">
@@ -3699,10 +4884,10 @@
         <v>43849</v>
       </c>
       <c r="B27" s="2" t="s">
+        <v>246</v>
+      </c>
+      <c r="C27" s="4" t="s">
         <v>247</v>
-      </c>
-      <c r="C27" s="4" t="s">
-        <v>248</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.3">
@@ -3710,10 +4895,10 @@
         <v>43849</v>
       </c>
       <c r="B28" s="2" t="s">
+        <v>248</v>
+      </c>
+      <c r="C28" s="4" t="s">
         <v>249</v>
-      </c>
-      <c r="C28" s="4" t="s">
-        <v>250</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.3">
@@ -3721,10 +4906,10 @@
         <v>43850</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="C29" s="4" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.3">
@@ -3732,10 +4917,10 @@
         <v>43851</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="C30" s="4" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.3">
@@ -3743,10 +4928,10 @@
         <v>43852</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="C31" s="4" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.3">
@@ -3754,106 +4939,256 @@
         <v>43852</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>261</v>
+        <v>260</v>
       </c>
       <c r="C32" s="4" t="s">
-        <v>260</v>
-      </c>
-    </row>
-    <row r="33" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B33" s="2"/>
-    </row>
-    <row r="34" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B34" s="2"/>
-    </row>
-    <row r="35" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B35" s="2"/>
-    </row>
-    <row r="36" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B36" s="2"/>
-    </row>
-    <row r="37" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B37" s="2"/>
-    </row>
-    <row r="38" spans="2:2" x14ac:dyDescent="0.3">
+        <v>259</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A33" s="1">
+        <v>43853</v>
+      </c>
+      <c r="B33" s="2" t="s">
+        <v>263</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A34" s="1">
+        <v>43854</v>
+      </c>
+      <c r="B34" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B35" s="2" t="s">
+        <v>271</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>270</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="1">
+        <v>43856</v>
+      </c>
+      <c r="B36" s="2" t="s">
+        <v>275</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>274</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A37" s="1">
+        <v>43857</v>
+      </c>
+      <c r="B37" s="2" t="s">
+        <v>277</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>276</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A38" s="1">
+        <v>43858</v>
+      </c>
       <c r="B38" s="2"/>
-    </row>
-    <row r="39" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B39" s="2"/>
-    </row>
-    <row r="40" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B40" s="2"/>
-    </row>
-    <row r="41" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B41" s="2"/>
-    </row>
-    <row r="42" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B42" s="2"/>
-    </row>
-    <row r="43" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B43" s="2"/>
-    </row>
-    <row r="44" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B44" s="2"/>
-    </row>
-    <row r="45" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B45" s="2"/>
-    </row>
-    <row r="46" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B46" s="2"/>
-    </row>
-    <row r="47" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B47" s="2"/>
-    </row>
-    <row r="48" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B48" s="2"/>
-    </row>
-    <row r="49" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B49" s="2"/>
-    </row>
-    <row r="50" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B50" s="2"/>
-    </row>
-    <row r="51" spans="2:2" x14ac:dyDescent="0.3">
+      <c r="C38" s="4" t="s">
+        <v>278</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A39" s="1">
+        <v>43859</v>
+      </c>
+      <c r="B39" s="2" t="s">
+        <v>280</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>279</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A40" s="1">
+        <v>43861</v>
+      </c>
+      <c r="B40" s="2" t="s">
+        <v>286</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>285</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A41" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B41" s="2" t="s">
+        <v>288</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A42" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B42" s="2" t="s">
+        <v>290</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A43" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B43" s="2" t="s">
+        <v>293</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>292</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B44" s="2" t="s">
+        <v>294</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="1">
+        <v>43862</v>
+      </c>
+      <c r="B45" s="2" t="s">
+        <v>296</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>295</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B46" s="2" t="s">
+        <v>300</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>299</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B47" s="2" t="s">
+        <v>312</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>311</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="1">
+        <v>43867</v>
+      </c>
+      <c r="B48" s="2" t="s">
+        <v>329</v>
+      </c>
+      <c r="C48" s="4" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B49" s="2" t="s">
+        <v>332</v>
+      </c>
+      <c r="C49" s="4" t="s">
+        <v>331</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="1">
+        <v>43869</v>
+      </c>
+      <c r="B50" s="2" t="s">
+        <v>333</v>
+      </c>
+      <c r="C50" s="4" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B51" s="2"/>
     </row>
-    <row r="52" spans="2:2" x14ac:dyDescent="0.3">
-      <c r="B52" s="2"/>
-    </row>
-    <row r="53" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="1">
+        <v>43978</v>
+      </c>
+      <c r="B52" s="2" t="s">
+        <v>449</v>
+      </c>
+      <c r="C52" s="4" t="s">
+        <v>448</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B53" s="2"/>
     </row>
-    <row r="54" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B54" s="2"/>
     </row>
-    <row r="55" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B55" s="2"/>
     </row>
-    <row r="56" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B56" s="2"/>
     </row>
-    <row r="57" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B57" s="2"/>
     </row>
-    <row r="58" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B58" s="2"/>
     </row>
-    <row r="59" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B59" s="2"/>
     </row>
-    <row r="60" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B60" s="2"/>
     </row>
-    <row r="61" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B61" s="2"/>
     </row>
-    <row r="62" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B62" s="2"/>
     </row>
-    <row r="63" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B63" s="2"/>
     </row>
-    <row r="64" spans="2:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
       <c r="B64" s="2"/>
     </row>
     <row r="65" spans="2:2" x14ac:dyDescent="0.3">
@@ -5057,22 +6392,39 @@
     <hyperlink ref="C30" r:id="rId29" xr:uid="{F839D7A0-61B3-4969-B932-213E2AF6C031}"/>
     <hyperlink ref="C31" r:id="rId30" xr:uid="{66EDCA79-FF34-4A5E-B522-AF87B51B7880}"/>
     <hyperlink ref="C32" r:id="rId31" xr:uid="{1DD88D81-FCCE-4AD5-A016-FA2A171B0B9E}"/>
+    <hyperlink ref="C33" r:id="rId32" xr:uid="{3E948F8C-E1AB-495C-8407-8334149305BE}"/>
+    <hyperlink ref="C34" r:id="rId33" xr:uid="{ACD7AF88-7944-48CE-A6C0-F0FD9CA6DAFF}"/>
+    <hyperlink ref="C35" r:id="rId34" xr:uid="{EA354986-9EB9-480C-BD46-71D3290ADEA8}"/>
+    <hyperlink ref="C36" r:id="rId35" xr:uid="{5D854043-0059-4C71-8C75-5962D619CC45}"/>
+    <hyperlink ref="C37" r:id="rId36" xr:uid="{E4D368C5-E4CA-43A8-A277-6BCA5B7144A1}"/>
+    <hyperlink ref="C38" r:id="rId37" xr:uid="{3486027A-5A40-435E-A350-FA6F497E8C08}"/>
+    <hyperlink ref="C39" r:id="rId38" xr:uid="{D5332F2E-187F-4523-B5C0-2D496376B1B3}"/>
+    <hyperlink ref="C40" r:id="rId39" xr:uid="{1088D38A-D7AA-48B2-BB0D-37895E1E38D1}"/>
+    <hyperlink ref="C41" r:id="rId40" xr:uid="{995E9F8F-C125-4C31-AC3B-C74DADF4181B}"/>
+    <hyperlink ref="C42" r:id="rId41" xr:uid="{4304B942-FCA8-4065-A421-3D1DB4725A1A}"/>
+    <hyperlink ref="C44" r:id="rId42" xr:uid="{D038A003-68AF-444A-94D0-63BAD3449899}"/>
+    <hyperlink ref="C43" r:id="rId43" xr:uid="{12260899-0EF8-4E9A-88F1-B9C3C3F6F5DB}"/>
+    <hyperlink ref="C45" r:id="rId44" xr:uid="{12E0F4DD-C9FF-40BD-9CFB-2F97DB7237A1}"/>
+    <hyperlink ref="C46" r:id="rId45" xr:uid="{7AD5F9CB-3E8E-43AD-952D-55B2ED6FDBDC}"/>
+    <hyperlink ref="C47" r:id="rId46" xr:uid="{17714D57-176B-454F-B583-F7EE76673C0A}"/>
+    <hyperlink ref="C48" r:id="rId47" xr:uid="{9371E68A-65A3-4247-A17B-B4DDA30FF55A}"/>
+    <hyperlink ref="C49" r:id="rId48" xr:uid="{574FA2F5-EE7D-4F86-ACD8-470895F456C4}"/>
+    <hyperlink ref="C50" r:id="rId49" xr:uid="{473CC9C8-44D3-4E06-94CF-A8DEBDA5E8BB}"/>
+    <hyperlink ref="C52" r:id="rId50" xr:uid="{6D67AC11-2F30-468A-BA22-39147C32E7A5}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId32"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId51"/>
   <tableParts count="1">
-    <tablePart r:id="rId33"/>
+    <tablePart r:id="rId52"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet33.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00034C39-9A95-4F08-996E-38B60FA09112}">
-  <dimension ref="A1:E9"/>
+  <dimension ref="A1:E14"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B9" sqref="B9"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5081,7 +6433,7 @@
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
@@ -5101,7 +6453,7 @@
         <v>43771</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="C2" s="12"/>
       <c r="D2" s="12"/>
@@ -5112,7 +6464,7 @@
         <v>43788</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.3">
@@ -5120,7 +6472,7 @@
         <v>43802</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>152</v>
+        <v>151</v>
       </c>
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.3">
@@ -5128,7 +6480,7 @@
         <v>43824</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.3">
@@ -5136,7 +6488,7 @@
         <v>43830</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.3">
@@ -5144,7 +6496,7 @@
         <v>43834</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.3">
@@ -5152,7 +6504,7 @@
         <v>43839</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
     </row>
     <row r="9" spans="1:5" ht="28.8" x14ac:dyDescent="0.3">
@@ -5160,7 +6512,47 @@
         <v>43852</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>263</v>
+        <v>262</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43860</v>
+      </c>
+      <c r="B10" s="2" t="s">
+        <v>284</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A11" s="1">
+        <v>43864</v>
+      </c>
+      <c r="B11" s="2" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A12" s="1">
+        <v>43866</v>
+      </c>
+      <c r="B12" s="2" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A13" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B13" s="2" t="s">
+        <v>344</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A14" s="1">
+        <v>43871</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>345</v>
       </c>
     </row>
   </sheetData>
@@ -5171,7 +6563,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet34.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8B97DDFA-1565-4470-BB29-D5465D288895}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5183,7 +6575,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet35.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5AA657AA-1F22-477B-B7BC-F11318BA36EB}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5195,7 +6587,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet36.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{77BBE539-7C73-4D09-8E9A-C7D2A918577D}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5209,7 +6601,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet37.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{D6FC9D91-1D03-4166-9423-6B7417BBFD57}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5223,7 +6615,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet38.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C32C370E-E6C2-42BF-B2D7-1840CA486DCC}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5237,7 +6629,544 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet39.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{64904A22-8EE5-497D-9E05-7789FA782D5C}">
+  <dimension ref="A1:F47"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A38" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C47" sqref="C47"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="40" customWidth="1"/>
+    <col min="3" max="3" width="62.77734375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A2" s="10">
+        <v>43769</v>
+      </c>
+      <c r="B2" s="11" t="s">
+        <v>13</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="D2" s="12"/>
+      <c r="E2" s="12"/>
+      <c r="F2" s="13"/>
+    </row>
+    <row r="3" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A3" s="10">
+        <v>43770</v>
+      </c>
+      <c r="B3" s="11" t="s">
+        <v>55</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="D3" s="12"/>
+      <c r="E3" s="12"/>
+      <c r="F3" s="13"/>
+    </row>
+    <row r="4" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
+      <c r="A4" s="10">
+        <v>43771</v>
+      </c>
+      <c r="B4" s="11" t="s">
+        <v>64</v>
+      </c>
+      <c r="C4" s="14"/>
+      <c r="D4" s="12"/>
+      <c r="E4" s="12"/>
+      <c r="F4" s="13"/>
+    </row>
+    <row r="5" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A5" s="10">
+        <v>43771</v>
+      </c>
+      <c r="B5" s="11" t="s">
+        <v>65</v>
+      </c>
+      <c r="C5" s="14"/>
+      <c r="D5" s="12"/>
+      <c r="E5" s="12"/>
+      <c r="F5" s="13"/>
+    </row>
+    <row r="6" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
+      <c r="A6" s="10">
+        <v>43773</v>
+      </c>
+      <c r="B6" s="11" t="s">
+        <v>77</v>
+      </c>
+      <c r="C6" s="14"/>
+      <c r="D6" s="12"/>
+      <c r="E6" s="12"/>
+      <c r="F6" s="13"/>
+    </row>
+    <row r="7" spans="1:6" ht="100.8" x14ac:dyDescent="0.3">
+      <c r="A7" s="10">
+        <v>43775</v>
+      </c>
+      <c r="B7" s="11" t="s">
+        <v>86</v>
+      </c>
+      <c r="C7" s="14"/>
+      <c r="D7" s="12"/>
+      <c r="E7" s="12"/>
+      <c r="F7" s="13"/>
+    </row>
+    <row r="8" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A8" s="10">
+        <v>43778</v>
+      </c>
+      <c r="B8" s="11" t="s">
+        <v>91</v>
+      </c>
+      <c r="C8" s="14"/>
+      <c r="D8" s="12"/>
+      <c r="E8" s="12"/>
+      <c r="F8" s="13"/>
+    </row>
+    <row r="9" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A9" s="10">
+        <v>43781</v>
+      </c>
+      <c r="B9" s="11" t="s">
+        <v>98</v>
+      </c>
+      <c r="C9" s="14"/>
+      <c r="D9" s="12"/>
+      <c r="E9" s="12"/>
+      <c r="F9" s="13"/>
+    </row>
+    <row r="10" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+      <c r="A10" s="10">
+        <v>43782</v>
+      </c>
+      <c r="B10" s="11" t="s">
+        <v>103</v>
+      </c>
+      <c r="C10" s="14"/>
+      <c r="D10" s="12"/>
+      <c r="E10" s="12"/>
+      <c r="F10" s="13"/>
+    </row>
+    <row r="11" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A11" s="10">
+        <v>43783</v>
+      </c>
+      <c r="B11" s="11" t="s">
+        <v>109</v>
+      </c>
+      <c r="C11" s="14"/>
+      <c r="D11" s="12"/>
+      <c r="E11" s="12"/>
+      <c r="F11" s="13"/>
+    </row>
+    <row r="12" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A12" s="10">
+        <v>43788</v>
+      </c>
+      <c r="B12" s="11" t="s">
+        <v>118</v>
+      </c>
+      <c r="C12" s="14"/>
+      <c r="D12" s="12"/>
+      <c r="E12" s="12"/>
+      <c r="F12" s="13"/>
+    </row>
+    <row r="13" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
+      <c r="A13" s="10">
+        <v>43789</v>
+      </c>
+      <c r="B13" s="11" t="s">
+        <v>119</v>
+      </c>
+      <c r="C13" s="14"/>
+      <c r="D13" s="12"/>
+      <c r="E13" s="12"/>
+      <c r="F13" s="13"/>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A14" s="10">
+        <v>43877</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>358</v>
+      </c>
+      <c r="C14" s="4"/>
+      <c r="D14" s="12"/>
+      <c r="E14" s="12"/>
+      <c r="F14" s="13"/>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A15" s="10">
+        <v>43897</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>379</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D15" s="12"/>
+      <c r="E15" s="12"/>
+      <c r="F15" s="13"/>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A16" s="10"/>
+      <c r="B16" s="11" t="s">
+        <v>381</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>380</v>
+      </c>
+      <c r="D16" s="12"/>
+      <c r="E16" s="12"/>
+      <c r="F16" s="13"/>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A17" s="10"/>
+      <c r="B17" s="11" t="s">
+        <v>385</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>386</v>
+      </c>
+      <c r="D17" s="12"/>
+      <c r="E17" s="12"/>
+      <c r="F17" s="13"/>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A18" s="10"/>
+      <c r="B18" s="28">
+        <v>43872</v>
+      </c>
+      <c r="C18" s="4" t="s">
+        <v>389</v>
+      </c>
+      <c r="D18" s="12"/>
+      <c r="E18" s="12"/>
+      <c r="F18" s="13"/>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A19" s="10"/>
+      <c r="B19" s="11">
+        <v>12</v>
+      </c>
+      <c r="C19" s="4" t="s">
+        <v>394</v>
+      </c>
+      <c r="D19" s="12"/>
+      <c r="E19" s="12"/>
+      <c r="F19" s="13"/>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A20" s="10"/>
+      <c r="B20" s="11">
+        <v>15</v>
+      </c>
+      <c r="C20" s="4" t="s">
+        <v>399</v>
+      </c>
+      <c r="D20" s="12"/>
+      <c r="E20" s="12"/>
+      <c r="F20" s="13"/>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A21" s="10"/>
+      <c r="B21" s="11">
+        <v>17</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>403</v>
+      </c>
+      <c r="D21" s="12"/>
+      <c r="E21" s="12"/>
+      <c r="F21" s="13"/>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="A22" s="10"/>
+      <c r="B22" s="11">
+        <v>18</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>405</v>
+      </c>
+      <c r="D22" s="12"/>
+      <c r="E22" s="12"/>
+      <c r="F22" s="13"/>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B23" s="32">
+        <v>20</v>
+      </c>
+      <c r="C23" s="4" t="s">
+        <v>410</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B24" s="32">
+        <v>21</v>
+      </c>
+      <c r="C24" s="4" t="s">
+        <v>412</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B25" s="32">
+        <v>22</v>
+      </c>
+      <c r="C25" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B26" s="32">
+        <v>23</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>415</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B27" s="32">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B28" s="33">
+        <v>27</v>
+      </c>
+      <c r="C28" s="4" t="s">
+        <v>421</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B29" s="32">
+        <v>28</v>
+      </c>
+      <c r="C29" s="4" t="s">
+        <v>424</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B30" s="1">
+        <v>43891</v>
+      </c>
+      <c r="C30" s="4" t="s">
+        <v>425</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B31" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C31" s="4" t="s">
+        <v>428</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B32" s="1">
+        <v>43893</v>
+      </c>
+      <c r="C32" s="4" t="s">
+        <v>429</v>
+      </c>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="1">
+        <v>43894</v>
+      </c>
+      <c r="C33" s="4" t="s">
+        <v>432</v>
+      </c>
+    </row>
+    <row r="34" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B34" s="1">
+        <v>43895</v>
+      </c>
+      <c r="C34" s="4" t="s">
+        <v>435</v>
+      </c>
+    </row>
+    <row r="35" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B35" s="1">
+        <v>43896</v>
+      </c>
+      <c r="C35" s="4" t="s">
+        <v>437</v>
+      </c>
+    </row>
+    <row r="36" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B36" s="1">
+        <v>43897</v>
+      </c>
+      <c r="C36" s="4" t="s">
+        <v>441</v>
+      </c>
+    </row>
+    <row r="37" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B37" s="1">
+        <v>43898</v>
+      </c>
+      <c r="C37" s="4" t="s">
+        <v>446</v>
+      </c>
+    </row>
+    <row r="38" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B38" s="1">
+        <v>43900</v>
+      </c>
+      <c r="C38" s="4" t="s">
+        <v>450</v>
+      </c>
+    </row>
+    <row r="39" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B39" s="1">
+        <v>43902</v>
+      </c>
+      <c r="C39" s="4" t="s">
+        <v>454</v>
+      </c>
+    </row>
+    <row r="40" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B40" s="1">
+        <v>43904</v>
+      </c>
+      <c r="C40" s="4" t="s">
+        <v>460</v>
+      </c>
+    </row>
+    <row r="41" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B41" s="1">
+        <v>43905</v>
+      </c>
+      <c r="C41" s="4" t="s">
+        <v>462</v>
+      </c>
+    </row>
+    <row r="42" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B42" s="1">
+        <v>43906</v>
+      </c>
+      <c r="C42" s="4" t="s">
+        <v>463</v>
+      </c>
+    </row>
+    <row r="43" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B43" s="1">
+        <v>43907</v>
+      </c>
+      <c r="C43" s="4" t="s">
+        <v>464</v>
+      </c>
+    </row>
+    <row r="44" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B44" s="1">
+        <v>43908</v>
+      </c>
+      <c r="C44" s="4" t="s">
+        <v>465</v>
+      </c>
+    </row>
+    <row r="45" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B45" s="1">
+        <v>43911</v>
+      </c>
+      <c r="C45" s="4" t="s">
+        <v>466</v>
+      </c>
+    </row>
+    <row r="46" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B46" s="1">
+        <v>43912</v>
+      </c>
+      <c r="C46" s="4" t="s">
+        <v>472</v>
+      </c>
+    </row>
+    <row r="47" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B47" s="1">
+        <v>43914</v>
+      </c>
+      <c r="C47" s="4" t="s">
+        <v>473</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{D5A0FE31-76FF-4E4D-B3D9-5DB26AFD1067}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{25B26B40-BF70-42F8-82ED-325AF6BA5B4B}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{7DFF821D-794C-4DA3-AE99-99FDA83DAF73}"/>
+    <hyperlink ref="B14" r:id="rId3" xr:uid="{CD144EBE-86F9-429E-92CA-CBAEA1919866}"/>
+    <hyperlink ref="C15" r:id="rId4" xr:uid="{952F4E58-3678-41DB-9802-F6FC0F1E8708}"/>
+    <hyperlink ref="C16" r:id="rId5" xr:uid="{12201BCE-4438-4379-9AF0-EE14CB440EE9}"/>
+    <hyperlink ref="C17" r:id="rId6" xr:uid="{D398DDD5-E03B-451F-8B9F-7022BD1C4706}"/>
+    <hyperlink ref="C18" r:id="rId7" xr:uid="{9B76E654-E201-415F-A1B3-CD1C456560B1}"/>
+    <hyperlink ref="C19" r:id="rId8" xr:uid="{50266060-1C72-4942-9C7B-A9F33C8FC0EF}"/>
+    <hyperlink ref="C20" r:id="rId9" xr:uid="{209D0843-5779-446B-91F2-E4A154E5419C}"/>
+    <hyperlink ref="C21" r:id="rId10" xr:uid="{D4A96FCC-A768-4284-926C-1528B2E30915}"/>
+    <hyperlink ref="C22" r:id="rId11" xr:uid="{08366FE6-89C9-423C-A7EA-4814249D0739}"/>
+    <hyperlink ref="C23" r:id="rId12" xr:uid="{86832514-EFDB-423B-AAD9-8725F2273B2E}"/>
+    <hyperlink ref="C24" r:id="rId13" xr:uid="{F55C305B-856E-4D53-99A6-7D98B125EDFD}"/>
+    <hyperlink ref="C26" r:id="rId14" xr:uid="{A4FFB9E3-1039-423D-9F24-25C80864B153}"/>
+    <hyperlink ref="C27" r:id="rId15" xr:uid="{340BC531-A106-46EA-A4C6-13E4900CB230}"/>
+    <hyperlink ref="C28" r:id="rId16" xr:uid="{0AA7FAB6-29B5-4C1E-8A3D-FF1CFA87ECBD}"/>
+    <hyperlink ref="C29" r:id="rId17" xr:uid="{86CCE0D4-71B9-4839-AF32-DFFCCBDB883F}"/>
+    <hyperlink ref="C30" r:id="rId18" xr:uid="{A88D109A-AEE3-45E5-B572-62B63AF4C9D2}"/>
+    <hyperlink ref="C31" r:id="rId19" xr:uid="{FDB88FDB-F235-4C4B-8A0D-C690B75C2576}"/>
+    <hyperlink ref="C32" r:id="rId20" xr:uid="{EC5DC08B-7165-4962-A9EF-9E58ACF1A340}"/>
+    <hyperlink ref="C33" r:id="rId21" xr:uid="{C59D2C11-669D-4FBC-9682-F2E37BB10264}"/>
+    <hyperlink ref="C34" r:id="rId22" xr:uid="{91D6207C-86ED-45B3-B476-2DB8F64C0A78}"/>
+    <hyperlink ref="C35" r:id="rId23" xr:uid="{8CB8ABF3-B4E2-47EB-AB3D-53A1F6E57B66}"/>
+    <hyperlink ref="C36" r:id="rId24" xr:uid="{0654B441-A5F3-433A-9EE5-A43B32B14E36}"/>
+    <hyperlink ref="C37" r:id="rId25" xr:uid="{8383330E-B180-40AA-B1CC-90EF5FFB28DF}"/>
+    <hyperlink ref="C38" r:id="rId26" xr:uid="{7A46CB67-A6B5-44C2-814D-59F4855091D9}"/>
+    <hyperlink ref="C39" r:id="rId27" xr:uid="{CF5FA74B-6B9A-48D6-B79E-2E51178C4DA0}"/>
+    <hyperlink ref="C40" r:id="rId28" xr:uid="{571CCECB-5F23-4015-A24B-4EE540B24021}"/>
+    <hyperlink ref="C41" r:id="rId29" xr:uid="{F25C86E3-C179-4A43-9492-DB54812A16DF}"/>
+    <hyperlink ref="C42" r:id="rId30" xr:uid="{9C9FFC07-5B18-43DB-8347-75D61150DBC7}"/>
+    <hyperlink ref="C43" r:id="rId31" xr:uid="{DFFD5465-449E-4399-A1BA-A894C464BF65}"/>
+    <hyperlink ref="C44" r:id="rId32" xr:uid="{F868C8FC-6379-4803-9EC4-0F812BACD96B}"/>
+    <hyperlink ref="C45" r:id="rId33" xr:uid="{9B9D4A22-9BDE-40E0-9460-3D86ADE4CDD1}"/>
+    <hyperlink ref="C46" r:id="rId34" xr:uid="{098351FC-5589-4B79-8D09-A1E85BD28292}"/>
+    <hyperlink ref="C47" r:id="rId35" xr:uid="{91272625-2236-4ADE-B510-58CB761B80AF}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="0" copies="0" r:id="rId36"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet40.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6BF6E018-BD46-45F6-85A3-605BEB5FED4F}">
   <dimension ref="A1"/>
   <sheetViews>
@@ -5251,13 +7180,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6F6DB33B-2212-47A2-B730-D0EAFF285240}">
-  <dimension ref="A1:F453"/>
+  <dimension ref="A1:I453"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="B5" sqref="B5"/>
-    </sheetView>
+    <sheetView workbookViewId="0"/>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
@@ -5265,15 +7192,15 @@
     <col min="3" max="3" width="38.6640625" style="2" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -5285,89 +7212,108 @@
         <v>4</v>
       </c>
     </row>
-    <row r="2" spans="1:6" ht="43.2" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:9" ht="43.2" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43783</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>107</v>
-      </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
+        <v>106</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43783</v>
       </c>
       <c r="B3" s="2" t="s">
+        <v>107</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>108</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A4" s="1"/>
-      <c r="B4" s="2"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B4" s="37">
+        <v>43990</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>457</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A5" s="1"/>
-      <c r="B5" s="2"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B5" s="37">
+        <v>43991</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>459</v>
+      </c>
+      <c r="I5" t="s">
+        <v>469</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A6" s="1"/>
-      <c r="B6" s="2"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B6" s="37">
+        <v>44004</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>470</v>
+      </c>
+    </row>
+    <row r="7" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A7" s="1"/>
-      <c r="B7" s="2"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
+      <c r="B7" s="37">
+        <v>44005</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>471</v>
+      </c>
+    </row>
+    <row r="8" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A8" s="1"/>
       <c r="B8" s="2"/>
       <c r="C8" s="3"/>
     </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A9" s="1"/>
       <c r="B9" s="2"/>
       <c r="C9" s="3"/>
     </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A10" s="1"/>
       <c r="B10" s="2"/>
       <c r="C10" s="3"/>
     </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A11" s="1"/>
       <c r="B11" s="2"/>
       <c r="C11" s="3"/>
     </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A12" s="1"/>
       <c r="B12" s="2"/>
       <c r="C12" s="3"/>
     </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A13" s="1"/>
       <c r="B13" s="2"/>
       <c r="C13" s="3"/>
     </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A14" s="1"/>
       <c r="B14" s="2"/>
       <c r="C14" s="3"/>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A15" s="1"/>
       <c r="B15" s="2"/>
       <c r="C15" s="3"/>
     </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:9" x14ac:dyDescent="0.3">
       <c r="A16" s="1"/>
       <c r="B16" s="2"/>
       <c r="C16" s="3"/>
@@ -6706,15 +8652,19 @@
     <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9D36C6E4-FA1B-41F3-A901-B4C61BBFD5DF}"/>
     <hyperlink ref="C2" r:id="rId1" xr:uid="{17799F49-1821-4161-BB31-CFF3D6D443CF}"/>
     <hyperlink ref="C3" r:id="rId2" xr:uid="{5EE00BDA-82F9-4EA0-AE2E-F530EEFD8288}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{14649D0D-B1FE-4D94-B98C-D2C6C5C5F049}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{EAAFAEF7-7E19-4D03-BB43-94F57AF7E207}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{C6001ED0-D388-40F2-AB84-66B1F2E2E2BD}"/>
+    <hyperlink ref="C7" r:id="rId6" xr:uid="{FB80936A-8A28-41CB-B07B-CCCF20649E07}"/>
   </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <tableParts count="1">
-    <tablePart r:id="rId3"/>
+    <tablePart r:id="rId7"/>
   </tableParts>
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B7735F19-EF15-48F6-B888-702112A6B03A}">
   <dimension ref="A1:F7"/>
   <sheetViews>
@@ -6731,13 +8681,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="7" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="7" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" s="8" t="s">
         <v>2</v>
@@ -6754,10 +8704,10 @@
         <v>43769</v>
       </c>
       <c r="B2" s="11" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="C2" s="3" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="D2" s="12"/>
       <c r="E2" s="12"/>
@@ -6768,10 +8718,10 @@
         <v>43769</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="C3" s="3" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
     </row>
     <row r="4" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6779,10 +8729,10 @@
         <v>43773</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
     </row>
     <row r="5" spans="1:6" ht="57.6" x14ac:dyDescent="0.3">
@@ -6790,10 +8740,10 @@
         <v>43774</v>
       </c>
       <c r="B5" s="2" t="s">
+        <v>83</v>
+      </c>
+      <c r="C5" s="3" t="s">
         <v>84</v>
-      </c>
-      <c r="C5" s="3" t="s">
-        <v>85</v>
       </c>
     </row>
     <row r="6" spans="1:6" ht="28.8" x14ac:dyDescent="0.3">
@@ -6801,10 +8751,10 @@
         <v>43775</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
     </row>
     <row r="7" spans="1:6" ht="201.6" x14ac:dyDescent="0.3">
@@ -6812,10 +8762,10 @@
         <v>43775</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>91</v>
+        <v>90</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
     </row>
   </sheetData>
@@ -6831,33 +8781,251 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EEFCAE24-2413-43B5-9C67-C332C55714A6}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:M12"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="B16" sqref="B16"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39996B19-10BE-4E75-832B-E97AAB0846FA}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A1" s="4" t="s">
+        <v>330</v>
+      </c>
+    </row>
+    <row r="3" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>363</v>
+      </c>
+    </row>
+    <row r="4" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43884</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>371</v>
+      </c>
+    </row>
+    <row r="5" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43892</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>375</v>
+      </c>
+      <c r="M5" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="6" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43905</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="7" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>322</v>
+      </c>
+    </row>
+    <row r="8" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>408</v>
+      </c>
+    </row>
+    <row r="9" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43954</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>427</v>
+      </c>
+    </row>
+    <row r="10" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="11" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>456</v>
+      </c>
+    </row>
+    <row r="12" spans="1:13" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>315</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" r:id="rId1" xr:uid="{EBAC21E1-6A19-4D59-B813-4A542EA3EB7A}"/>
+    <hyperlink ref="B3" r:id="rId2" xr:uid="{CEB386C4-FDEC-4434-A2C0-483D5CA564E8}"/>
+    <hyperlink ref="B4" r:id="rId3" xr:uid="{664C4E3C-0E41-4B91-B2F1-5C99D5AE91BB}"/>
+    <hyperlink ref="B5" r:id="rId4" xr:uid="{D4F1C260-F864-494C-9260-1DC08DEB4407}"/>
+    <hyperlink ref="B6" r:id="rId5" xr:uid="{414898A7-67AF-4798-990B-4FC63C26922C}"/>
+    <hyperlink ref="B8" r:id="rId6" xr:uid="{DB3884DB-6152-4AB2-8C96-1CA1AFB92EF1}"/>
+    <hyperlink ref="B9" r:id="rId7" xr:uid="{FFD71E8B-7058-43D0-9AED-6472336ADE81}"/>
+  </hyperlinks>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39996B19-10BE-4E75-832B-E97AAB0846FA}">
+  <dimension ref="A1:G12"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B15" sqref="B15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="48.88671875" customWidth="1"/>
+    <col min="3" max="3" width="65.5546875" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A1" s="6" t="s">
+        <v>10</v>
+      </c>
+      <c r="B1" s="7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="7" t="s">
+        <v>6</v>
+      </c>
+      <c r="D1" s="8" t="s">
+        <v>2</v>
+      </c>
+      <c r="E1" s="8" t="s">
+        <v>3</v>
+      </c>
+      <c r="F1" s="9" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A2" s="1">
+        <v>43855</v>
+      </c>
+      <c r="B2" s="24">
+        <v>43647</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>269</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A3" s="1">
+        <v>43877</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>360</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>359</v>
+      </c>
+      <c r="G3" s="4"/>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A4" s="1">
+        <v>43883</v>
+      </c>
+      <c r="B4" s="1">
+        <v>43849</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>362</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A5" s="1">
+        <v>43892</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>376</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A6" s="1">
+        <v>43905</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>388</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A7" s="1">
+        <v>22</v>
+      </c>
+      <c r="B7" t="s">
+        <v>400</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A8" s="1">
+        <v>43926</v>
+      </c>
+      <c r="B8" t="s">
+        <v>347</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A9" s="1">
+        <v>43940</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>417</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="A10" s="1">
+        <v>43946</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C11" t="s">
+        <v>461</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.3">
+      <c r="C12" t="s">
+        <v>468</v>
+      </c>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{07BD18EE-94DA-450A-9889-7E3E65FDC8A9}"/>
+    <hyperlink ref="C2" r:id="rId1" xr:uid="{3175F886-DC1E-4B8A-BCD5-5C7294FA7DBA}"/>
+    <hyperlink ref="C3" r:id="rId2" xr:uid="{50E32730-1DEC-43A9-A8D4-89F1C88BE1BE}"/>
+    <hyperlink ref="C4" r:id="rId3" xr:uid="{C044DC51-CDE3-4D49-887F-2EEF39860922}"/>
+    <hyperlink ref="C5" r:id="rId4" xr:uid="{DABD511D-3597-429F-BC4A-5CF8D03C933F}"/>
+    <hyperlink ref="C6" r:id="rId5" xr:uid="{A4D53564-51B5-40E2-B8B4-E10DA8505B36}"/>
+    <hyperlink ref="C8" r:id="rId6" xr:uid="{86D0673A-D049-4977-B6B4-4646984D63BE}"/>
+    <hyperlink ref="C9" r:id="rId7" xr:uid="{E8A72F7F-AC47-4A81-A224-C7E9E77CC64A}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
@@ -6873,13 +9041,13 @@
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A1" s="4" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B1" s="2" t="s">
         <v>1</v>
       </c>
       <c r="C1" s="2" t="s">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="D1" t="s">
         <v>2</v>
@@ -6896,7 +9064,7 @@
         <v>43781</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.3">
@@ -6904,7 +9072,7 @@
         <v>43782</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
       <c r="C3" s="3"/>
     </row>
@@ -6913,7 +9081,7 @@
         <v>43783</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>114</v>
+        <v>113</v>
       </c>
       <c r="C4" s="3"/>
     </row>
@@ -6922,7 +9090,7 @@
         <v>43784</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
       <c r="C5" s="3"/>
     </row>
@@ -6931,7 +9099,7 @@
         <v>43785</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>116</v>
+        <v>115</v>
       </c>
       <c r="C6" s="3"/>
     </row>
@@ -6940,7 +9108,7 @@
         <v>43788</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="C7" s="3"/>
     </row>
@@ -6949,7 +9117,7 @@
         <v>43789</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="C8" s="3"/>
     </row>
@@ -6958,7 +9126,7 @@
         <v>43796</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>138</v>
+        <v>137</v>
       </c>
       <c r="C9" s="3"/>
     </row>
@@ -6967,7 +9135,7 @@
         <v>43797</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="C10" s="3"/>
     </row>
@@ -6976,7 +9144,7 @@
         <v>43800</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>144</v>
+        <v>143</v>
       </c>
       <c r="C11" s="3"/>
     </row>
@@ -6985,7 +9153,7 @@
         <v>43801</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>147</v>
+        <v>146</v>
       </c>
       <c r="C12" s="3"/>
     </row>
@@ -6994,7 +9162,7 @@
         <v>43802</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C13" s="3"/>
     </row>
@@ -7003,7 +9171,7 @@
         <v>43808</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="C14" s="3"/>
     </row>
@@ -7012,7 +9180,7 @@
         <v>43809</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>172</v>
+        <v>171</v>
       </c>
       <c r="C15" s="4"/>
     </row>
@@ -7021,7 +9189,7 @@
         <v>43823</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="C16" s="4"/>
     </row>
@@ -7030,7 +9198,7 @@
         <v>43824</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="C17" s="4"/>
     </row>
@@ -7039,7 +9207,7 @@
         <v>43829</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C18" s="4"/>
     </row>
@@ -7048,7 +9216,7 @@
         <v>43830</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="C19" s="4"/>
     </row>
@@ -7057,7 +9225,7 @@
         <v>43833</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="C20" s="4"/>
     </row>
@@ -7066,7 +9234,7 @@
         <v>43834</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="C21" s="4"/>
     </row>
@@ -7075,7 +9243,7 @@
         <v>43836</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="C22" s="4"/>
     </row>
@@ -7084,7 +9252,7 @@
         <v>43838</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="C23" s="4"/>
     </row>
@@ -7093,7 +9261,7 @@
         <v>43839</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="C24" s="4"/>
     </row>
@@ -7102,7 +9270,7 @@
         <v>43842</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="C25" s="4"/>
     </row>
@@ -7111,7 +9279,7 @@
         <v>43843</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
     </row>
   </sheetData>
@@ -7124,83 +9292,4 @@
     <tablePart r:id="rId2"/>
   </tableParts>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{1499CC03-FF75-4847-A98B-83D6120028A7}">
-  <dimension ref="A1:F10"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <cols>
-    <col min="2" max="2" width="55.77734375" style="2" customWidth="1"/>
-    <col min="3" max="3" width="47.21875" style="2" customWidth="1"/>
-  </cols>
-  <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1" s="4" t="s">
-        <v>11</v>
-      </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="2" t="s">
-        <v>7</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>3</v>
-      </c>
-      <c r="F1" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A2" s="1"/>
-      <c r="C2" s="3"/>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A3" s="1"/>
-      <c r="C3" s="3"/>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A4" s="1"/>
-      <c r="C4" s="3"/>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A5" s="1"/>
-      <c r="C5" s="3"/>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A6" s="1"/>
-      <c r="C6" s="3"/>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A7" s="1"/>
-      <c r="C7" s="3"/>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A8" s="1"/>
-      <c r="C8" s="3"/>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A9" s="1"/>
-      <c r="C9" s="4"/>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A10" s="1"/>
-      <c r="C10" s="4"/>
-    </row>
-  </sheetData>
-  <hyperlinks>
-    <hyperlink ref="A1" location="Home!A1" display="Home" xr:uid="{9E4C534A-03EF-4B67-AA22-230DFE12C191}"/>
-  </hyperlinks>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-  <tableParts count="1">
-    <tablePart r:id="rId1"/>
-  </tableParts>
-</worksheet>
 </file>